--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="274">
   <si>
     <t>Asignado a</t>
   </si>
@@ -492,9 +492,14 @@
     <t>Ambientación de instancia AWS para migración</t>
   </si>
   <si>
-    <t xml:space="preserve">21/09/2025 Se habilitan todos los accesos para el trabajo en el servidor
+    <t>EN PROCESO</t>
+  </si>
+  <si>
+    <t>21/09/2025 Se habilitan todos los accesos para el trabajo en el servidor
 23/09/2025 Se paro la ejecución debido a tareas con mayor prioridad
-</t>
+07/10/2025 Se empieza de nuevo con la ejecucción de la migración
+10/10/2025 Se encuentra problemas con la comunicación a la base de datos
+15/10/2025 Se genera una nueva instancia de bases de datos que sirva de pruebas para el nuevo ambiente</t>
   </si>
   <si>
     <t>Interno-H14</t>
@@ -503,10 +508,10 @@
     <t>Creación de lógica y vista para la aprobación y rechazos de documentos cargados</t>
   </si>
   <si>
-    <t>EN PROCESO</t>
-  </si>
-  <si>
-    <t>30/09/2025 Este día solo se decdico la mitad del tiempo debido a camnio de prioridades. Se trabajará en el proyecto a medida que se vaya avanzando con las demás tareas</t>
+    <t>30/09/2025 Este día solo se decdico la mitad del tiempo debido a camnio de prioridades. Se trabajará en el proyecto a medida que se vaya avanzando con las demás tareas
+03/10/2025 Debido a la migración, el trabajo se ve reducido a menos de 2 horas diarias para la terminación de este protyecto
+03/10/2025 Se entrega avance y se identifia procesos de mejoras y de añadir operativas para guardar información para cosos de rechazo y de análisis de datos
+14/10/2025 Se entrega avance enfocado en las mejoras de procesos indicadas en la entrega anterior</t>
   </si>
   <si>
     <t>Se necesita la asociación de registros relacionados con pagos de AUF</t>
@@ -527,7 +532,32 @@
     <t xml:space="preserve">Actualización de consumo de mesa unificada para acoplar el flujo nuevo </t>
   </si>
   <si>
-    <t>2/10/2025 Se habilita punto de consumo con las nuevas actualizaciones</t>
+    <t>2/10/2025 Se habilita punto de consumo con las nuevas actualizaciones
+3/10/2025 Se le comunica al cliente para la realización de pruebas</t>
+  </si>
+  <si>
+    <t>REQ-9-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se identifica con ayuda de las pruebas realizadas por el cliente, nuevos procesos para añadir y corregir
+</t>
+  </si>
+  <si>
+    <t>16/10/2025 Se entrega al cliente
+17/10/2025 A la espera de reunión junto con el cliente para finiquitar desarrollo</t>
+  </si>
+  <si>
+    <t>REQ-13-1</t>
+  </si>
+  <si>
+    <t>Se encontraron irregularidaes en validaciones y en el código que deben ser parchadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización de consumos para la creación de la solicitud de pensión y para el envío de evento de activación de investigación </t>
+  </si>
+  <si>
+    <t>14/10/2025 Se informa desde operación de un caso con bloqueo desde agosto y cuya gestión era prioritaria. Se identifica la problemática y se avanza el caso.
+15/10/2025 Se identifica, por medio de operación, otros problemas que junto con los del día anterior deben ser revisados y parchados</t>
   </si>
   <si>
     <t>Alejandro Cardona Ocampo</t>
@@ -4046,7 +4076,7 @@
       <c r="L20" s="82"/>
       <c r="M20" s="24">
         <f>IF(ISBLANK(L20), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L20, Hoja2!$A$1:$A$18))</f>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="57"/>
@@ -4081,7 +4111,7 @@
       <c r="L21" s="85"/>
       <c r="M21" s="39">
         <f>IF(ISBLANK(L21), NETWORKDAYS(I20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(I20, L21, Hoja2!$A$1:$A$18))</f>
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N21" s="72"/>
       <c r="O21" s="60"/>
@@ -4365,7 +4395,7 @@
       <c r="L27" s="85"/>
       <c r="M27" s="39">
         <f>IF(ISBLANK(L27), NETWORKDAYS(J27, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J27, L27, Hoja2!$A$1:$A$18))</f>
-        <v>32793</v>
+        <v>32804</v>
       </c>
       <c r="N27" s="72"/>
       <c r="O27" s="60"/>
@@ -4854,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="93.0" customHeight="1">
+    <row r="38" ht="120.75" customHeight="1">
       <c r="A38" s="15" t="s">
         <v>17</v>
       </c>
@@ -4869,13 +4899,13 @@
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="58" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="G38" s="77">
-        <v>30.0</v>
+        <v>85.0</v>
       </c>
       <c r="H38" s="65">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="I38" s="66">
         <v>45910.0</v>
@@ -4889,36 +4919,36 @@
       <c r="L38" s="67"/>
       <c r="M38" s="24">
         <f>IF(ISBLANK(L38), NETWORKDAYS(J38, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L38, Hoja2!$A$1:$A$18))</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="N38" s="67"/>
       <c r="O38" s="57"/>
       <c r="P38" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q38" s="28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="76.5" customHeight="1">
+    <row r="39" ht="119.25" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>130</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G39" s="34">
-        <v>70.0</v>
+        <v>90.0</v>
       </c>
       <c r="H39" s="48">
         <v>5.0</v>
@@ -4935,7 +4965,7 @@
       <c r="L39" s="71"/>
       <c r="M39" s="39">
         <f>IF(ISBLANK(N39), NETWORKDAYS(J39, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J39, N39, Hoja2!$A$1:$A$18))</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N39" s="71"/>
       <c r="O39" s="60"/>
@@ -5013,10 +5043,10 @@
       </c>
       <c r="E41" s="32"/>
       <c r="F41" s="86" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G41" s="90">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="H41" s="48">
         <v>3.0</v>
@@ -5030,10 +5060,12 @@
       <c r="K41" s="71">
         <v>45933.0</v>
       </c>
-      <c r="L41" s="71"/>
+      <c r="L41" s="71">
+        <v>45933.0</v>
+      </c>
       <c r="M41" s="39">
         <f>IF(ISBLANK(L41), NETWORKDAYS(J41, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J41, L41, Hoja2!$A$1:$A$18))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" s="54">
         <v>45932.0</v>
@@ -5046,87 +5078,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="29.25" customHeight="1">
-      <c r="A42" s="98"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="106"/>
-      <c r="L42" s="106"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="105"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="68"/>
-      <c r="Z42" s="68"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="68"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="68"/>
-      <c r="AE42" s="68"/>
-      <c r="AF42" s="68"/>
-      <c r="AG42" s="68"/>
-      <c r="AH42" s="68"/>
-      <c r="AI42" s="68"/>
-      <c r="AJ42" s="68"/>
-      <c r="AK42" s="68"/>
-      <c r="AL42" s="68"/>
-      <c r="AM42" s="69"/>
-    </row>
-    <row r="43" ht="29.25" customHeight="1">
-      <c r="A43" s="110"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="118"/>
-      <c r="K43" s="118"/>
-      <c r="L43" s="118"/>
-      <c r="M43" s="119"/>
-      <c r="N43" s="117"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="61"/>
-      <c r="Q43" s="121"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="61"/>
-      <c r="U43" s="61"/>
-      <c r="V43" s="61"/>
-      <c r="W43" s="61"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="61"/>
-      <c r="Z43" s="61"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
-      <c r="AE43" s="61"/>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="61"/>
-      <c r="AL43" s="61"/>
-      <c r="AM43" s="62"/>
+    <row r="42" ht="67.5" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="77">
+        <v>90.0</v>
+      </c>
+      <c r="H42" s="65">
+        <v>2.0</v>
+      </c>
+      <c r="I42" s="66">
+        <v>45945.0</v>
+      </c>
+      <c r="J42" s="66">
+        <v>45945.0</v>
+      </c>
+      <c r="K42" s="67">
+        <v>45946.0</v>
+      </c>
+      <c r="L42" s="67">
+        <v>45946.0</v>
+      </c>
+      <c r="M42" s="24">
+        <f>IF(ISBLANK(L42), NETWORKDAYS(J42, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J42, L42, Hoja2!$A$1:$A$18))</f>
+        <v>2</v>
+      </c>
+      <c r="N42" s="67">
+        <v>45946.0</v>
+      </c>
+      <c r="O42" s="57"/>
+      <c r="P42" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q42" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="93.0" customHeight="1">
+      <c r="A43" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="90">
+        <v>60.0</v>
+      </c>
+      <c r="H43" s="48">
+        <v>3.0</v>
+      </c>
+      <c r="I43" s="54">
+        <v>45944.0</v>
+      </c>
+      <c r="J43" s="54">
+        <v>45947.0</v>
+      </c>
+      <c r="K43" s="71">
+        <v>45950.0</v>
+      </c>
+      <c r="L43" s="71"/>
+      <c r="M43" s="39">
+        <f>IF(ISBLANK(L43), NETWORKDAYS(J43, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J43, L43, Hoja2!$A$1:$A$18))</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="54"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q43" s="43" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" ht="29.25" customHeight="1">
       <c r="A44" s="98"/>
@@ -42014,19 +42060,19 @@
     </row>
     <row r="2" ht="29.25" customHeight="1">
       <c r="A2" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B2" s="139" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D2" s="139" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F2" s="141" t="s">
         <v>21</v>
@@ -42061,19 +42107,19 @@
     </row>
     <row r="3" ht="29.25" customHeight="1">
       <c r="A3" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B3" s="139" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D3" s="139" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="139" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F3" s="141" t="s">
         <v>21</v>
@@ -42108,19 +42154,19 @@
     </row>
     <row r="4" ht="39.0" customHeight="1">
       <c r="A4" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B4" s="139" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D4" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F4" s="141" t="s">
         <v>21</v>
@@ -42159,19 +42205,19 @@
     </row>
     <row r="5">
       <c r="A5" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B5" s="139" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D5" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>21</v>
@@ -42210,19 +42256,19 @@
     </row>
     <row r="6" ht="29.25" customHeight="1">
       <c r="A6" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B6" s="139" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D6" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F6" s="158" t="s">
         <v>21</v>
@@ -42261,19 +42307,19 @@
     </row>
     <row r="7" ht="29.25" customHeight="1">
       <c r="A7" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B7" s="139" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D7" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="139" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F7" s="160" t="s">
         <v>21</v>
@@ -42312,19 +42358,19 @@
     </row>
     <row r="8" ht="29.25" customHeight="1">
       <c r="A8" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B8" s="139" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D8" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="162" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F8" s="141" t="s">
         <v>21</v>
@@ -42359,17 +42405,17 @@
     </row>
     <row r="9" ht="29.25" customHeight="1">
       <c r="A9" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B9" s="139" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D9" s="167"/>
       <c r="E9" s="139" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F9" s="160" t="s">
         <v>21</v>
@@ -42406,17 +42452,17 @@
     </row>
     <row r="10" ht="93.0" customHeight="1">
       <c r="A10" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B10" s="139" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D10" s="167"/>
       <c r="E10" s="139" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F10" s="160" t="s">
         <v>21</v>
@@ -42451,19 +42497,19 @@
     </row>
     <row r="11">
       <c r="A11" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B11" s="139" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D11" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="169" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F11" s="160" t="s">
         <v>21</v>
@@ -42500,19 +42546,19 @@
     </row>
     <row r="12" ht="29.25" customHeight="1">
       <c r="A12" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B12" s="139" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="170" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D12" s="139" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="139" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F12" s="160" t="s">
         <v>21</v>
@@ -42549,19 +42595,19 @@
     </row>
     <row r="13" ht="29.25" customHeight="1">
       <c r="A13" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B13" s="139" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="166" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D13" s="139" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="139" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F13" s="160" t="s">
         <v>21</v>
@@ -42596,7 +42642,7 @@
     </row>
     <row r="14" ht="29.25" customHeight="1">
       <c r="A14" s="138" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B14" s="139" t="s">
         <v>60</v>
@@ -42606,7 +42652,7 @@
       </c>
       <c r="D14" s="171"/>
       <c r="E14" s="157" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F14" s="165" t="s">
         <v>21</v>
@@ -42684,7 +42730,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="172" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B1" s="172" t="s">
         <v>2</v>
@@ -42711,13 +42757,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="175" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K1" s="172" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L1" s="176" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M1" s="177"/>
       <c r="N1" s="177"/>
@@ -42736,14 +42782,14 @@
     </row>
     <row r="2">
       <c r="A2" s="178" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B2" s="179" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C2" s="180"/>
       <c r="D2" s="181" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E2" s="182">
         <v>45526.0</v>
@@ -42757,7 +42803,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
       <c r="L2" s="180" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M2" s="183"/>
       <c r="N2" s="183"/>
@@ -42776,13 +42822,13 @@
     </row>
     <row r="3">
       <c r="A3" s="184" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B3" s="185" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C3" s="186" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D3" s="186" t="s">
         <v>21</v>
@@ -42806,7 +42852,7 @@
       </c>
       <c r="K3" s="188"/>
       <c r="L3" s="190" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M3" s="177"/>
       <c r="N3" s="177"/>
@@ -42825,16 +42871,16 @@
     </row>
     <row r="4">
       <c r="A4" s="191" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B4" s="192" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C4" s="191" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D4" s="193" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E4" s="194">
         <v>45581.0</v>
@@ -42857,7 +42903,7 @@
       </c>
       <c r="K4" s="194"/>
       <c r="L4" s="191" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M4" s="197"/>
       <c r="N4" s="197"/>
@@ -42876,13 +42922,13 @@
     </row>
     <row r="5">
       <c r="A5" s="176" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B5" s="192" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C5" s="186" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D5" s="198" t="s">
         <v>106</v>
@@ -42906,7 +42952,7 @@
       </c>
       <c r="K5" s="187"/>
       <c r="L5" s="190" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M5" s="177"/>
       <c r="N5" s="177"/>
@@ -42925,16 +42971,16 @@
     </row>
     <row r="6">
       <c r="A6" s="199" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B6" s="199" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C6" s="193" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E6" s="200">
         <v>45602.0</v>
@@ -42955,7 +43001,7 @@
         <v>45602.0</v>
       </c>
       <c r="L6" s="201" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M6" s="202"/>
       <c r="N6" s="203"/>
@@ -42974,13 +43020,13 @@
     </row>
     <row r="7">
       <c r="A7" s="176" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B7" s="185" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C7" s="204" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D7" s="198" t="s">
         <v>106</v>
@@ -43004,7 +43050,7 @@
       </c>
       <c r="K7" s="198"/>
       <c r="L7" s="206" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
@@ -43023,14 +43069,14 @@
     </row>
     <row r="8">
       <c r="A8" s="208" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B8" s="209" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C8" s="210"/>
       <c r="D8" s="210" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E8" s="211">
         <v>45603.0</v>
@@ -43051,7 +43097,7 @@
       </c>
       <c r="K8" s="211"/>
       <c r="L8" s="213" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M8" s="177"/>
       <c r="N8" s="177"/>
@@ -43070,16 +43116,16 @@
     </row>
     <row r="9">
       <c r="A9" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B9" s="215" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C9" s="216" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D9" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E9" s="218">
         <v>45671.0</v>
@@ -43088,7 +43134,7 @@
         <v>45673.0</v>
       </c>
       <c r="G9" s="216" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H9" s="218">
         <v>45680.0</v>
@@ -43102,7 +43148,7 @@
       </c>
       <c r="K9" s="216"/>
       <c r="L9" s="220" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M9" s="221"/>
       <c r="N9" s="221"/>
@@ -43121,14 +43167,14 @@
     </row>
     <row r="10">
       <c r="A10" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B10" s="222"/>
       <c r="C10" s="220" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D10" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E10" s="218">
         <v>45671.0</v>
@@ -43147,7 +43193,7 @@
       <c r="J10" s="216"/>
       <c r="K10" s="216"/>
       <c r="L10" s="220" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M10" s="221"/>
       <c r="N10" s="221"/>
@@ -43166,14 +43212,14 @@
     </row>
     <row r="11">
       <c r="A11" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B11" s="222"/>
       <c r="C11" s="220" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E11" s="218">
         <v>45671.0</v>
@@ -43192,7 +43238,7 @@
       <c r="J11" s="216"/>
       <c r="K11" s="216"/>
       <c r="L11" s="220" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M11" s="221"/>
       <c r="N11" s="221"/>
@@ -43211,14 +43257,14 @@
     </row>
     <row r="12">
       <c r="A12" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="220" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D12" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E12" s="218">
         <v>45671.0</v>
@@ -43237,7 +43283,7 @@
       <c r="J12" s="216"/>
       <c r="K12" s="216"/>
       <c r="L12" s="220" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M12" s="221"/>
       <c r="N12" s="221"/>
@@ -43256,14 +43302,14 @@
     </row>
     <row r="13">
       <c r="A13" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B13" s="222"/>
       <c r="C13" s="220" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="217" t="s">
         <v>207</v>
-      </c>
-      <c r="D13" s="217" t="s">
-        <v>200</v>
       </c>
       <c r="E13" s="218">
         <v>45671.0</v>
@@ -43282,7 +43328,7 @@
       <c r="J13" s="216"/>
       <c r="K13" s="216"/>
       <c r="L13" s="220" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="M13" s="221"/>
       <c r="N13" s="221"/>
@@ -43301,14 +43347,14 @@
     </row>
     <row r="14">
       <c r="A14" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B14" s="222"/>
       <c r="C14" s="220" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D14" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E14" s="218">
         <v>45671.0</v>
@@ -43327,7 +43373,7 @@
       <c r="J14" s="216"/>
       <c r="K14" s="216"/>
       <c r="L14" s="216" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M14" s="221"/>
       <c r="N14" s="221"/>
@@ -43346,14 +43392,14 @@
     </row>
     <row r="15">
       <c r="A15" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B15" s="222"/>
       <c r="C15" s="220" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D15" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E15" s="218">
         <v>45671.0</v>
@@ -43372,7 +43418,7 @@
       <c r="J15" s="216"/>
       <c r="K15" s="216"/>
       <c r="L15" s="216" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M15" s="221"/>
       <c r="N15" s="221"/>
@@ -43391,14 +43437,14 @@
     </row>
     <row r="16">
       <c r="A16" s="214" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B16" s="223"/>
       <c r="C16" s="224" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D16" s="217" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E16" s="218">
         <v>45681.0</v>
@@ -43417,7 +43463,7 @@
       <c r="J16" s="216"/>
       <c r="K16" s="216"/>
       <c r="L16" s="220" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M16" s="221"/>
       <c r="N16" s="221"/>
@@ -49953,7 +49999,7 @@
         <v>45292.0</v>
       </c>
       <c r="B1" s="221" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
@@ -49961,7 +50007,7 @@
         <v>45299.0</v>
       </c>
       <c r="B2" s="221" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -49969,7 +50015,7 @@
         <v>45376.0</v>
       </c>
       <c r="B3" s="221" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -49977,7 +50023,7 @@
         <v>45379.0</v>
       </c>
       <c r="B4" s="221" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
@@ -49985,7 +50031,7 @@
         <v>45380.0</v>
       </c>
       <c r="B5" s="221" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
@@ -49993,7 +50039,7 @@
         <v>45413.0</v>
       </c>
       <c r="B6" s="221" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
@@ -50001,7 +50047,7 @@
         <v>45425.0</v>
       </c>
       <c r="B7" s="221" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
@@ -50009,7 +50055,7 @@
         <v>45446.0</v>
       </c>
       <c r="B8" s="221" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
@@ -50017,7 +50063,7 @@
         <v>45453.0</v>
       </c>
       <c r="B9" s="221" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -50025,7 +50071,7 @@
         <v>45474.0</v>
       </c>
       <c r="B10" s="221" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -50033,7 +50079,7 @@
         <v>45493.0</v>
       </c>
       <c r="B11" s="221" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -50041,7 +50087,7 @@
         <v>45511.0</v>
       </c>
       <c r="B12" s="221" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -50049,7 +50095,7 @@
         <v>45523.0</v>
       </c>
       <c r="B13" s="221" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -50057,7 +50103,7 @@
         <v>45579.0</v>
       </c>
       <c r="B14" s="221" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -50065,7 +50111,7 @@
         <v>45600.0</v>
       </c>
       <c r="B15" s="221" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -50073,7 +50119,7 @@
         <v>45607.0</v>
       </c>
       <c r="B16" s="221" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -50081,7 +50127,7 @@
         <v>45634.0</v>
       </c>
       <c r="B17" s="221" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -50089,7 +50135,7 @@
         <v>45651.0</v>
       </c>
       <c r="B18" s="221" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1"/>
@@ -51105,7 +51151,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="226" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B1" s="221"/>
       <c r="C1" s="221"/>
@@ -51163,7 +51209,7 @@
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" s="227" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B3" s="228">
         <v>45596.0</v>
@@ -51456,261 +51502,261 @@
     </row>
     <row r="4" ht="30.75" customHeight="1">
       <c r="A4" s="231" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B4" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C4" s="233" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O4" s="234" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P4" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="T4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="U4" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="V4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE4" s="236" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="AF4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL4" s="236" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="AM4" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AN4" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AO4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP4" s="236" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AQ4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS4" s="236" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AT4" s="237" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AV4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY4" s="236" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="AZ4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BA4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BB4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BH4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI4" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ4" s="236" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="BK4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BL4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BM4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BN4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BP4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BQ4" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="BR4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BL4" s="235" t="s">
+      <c r="BS4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BM4" s="235" t="s">
+      <c r="BT4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BN4" s="235" t="s">
+      <c r="BU4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BO4" s="235" t="s">
+      <c r="BV4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BP4" s="235" t="s">
+      <c r="BW4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BQ4" s="235" t="s">
+      <c r="BX4" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BR4" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="BS4" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="BT4" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="BU4" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="BV4" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="BW4" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="BX4" s="234" t="s">
-        <v>233</v>
-      </c>
       <c r="BY4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CA4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CC4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CD4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG4" s="234"/>
       <c r="CH4" s="234"/>
       <c r="CI4" s="236" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="CJ4" s="234"/>
       <c r="CK4" s="234"/>
@@ -51722,249 +51768,249 @@
       <c r="CQ4" s="234"/>
       <c r="CR4" s="234"/>
       <c r="CS4" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="231" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B5" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L5" s="234" t="s">
+        <v>247</v>
+      </c>
+      <c r="M5" s="234" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="234" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="234" t="s">
+        <v>247</v>
+      </c>
+      <c r="P5" s="235" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q5" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="M5" s="234" t="s">
+      <c r="R5" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="N5" s="234" t="s">
+      <c r="S5" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="O5" s="234" t="s">
+      <c r="T5" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="P5" s="235" t="s">
+      <c r="U5" s="235" t="s">
         <v>240</v>
       </c>
-      <c r="Q5" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="R5" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="S5" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="T5" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="U5" s="235" t="s">
-        <v>233</v>
-      </c>
       <c r="V5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE5" s="238"/>
       <c r="AF5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL5" s="238"/>
       <c r="AM5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP5" s="238"/>
       <c r="AQ5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AR5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AS5" s="238"/>
       <c r="AT5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AU5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AV5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AW5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AX5" s="234" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="AY5" s="238"/>
       <c r="AZ5" s="234" t="s">
+        <v>247</v>
+      </c>
+      <c r="BA5" s="234" t="s">
         <v>240</v>
       </c>
-      <c r="BA5" s="234" t="s">
-        <v>233</v>
-      </c>
       <c r="BB5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BH5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI5" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ5" s="238"/>
       <c r="BK5" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL5" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN5" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BP5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BQ5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BS5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BT5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BU5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BX5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BY5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CA5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CC5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CD5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG5" s="234"/>
       <c r="CH5" s="234"/>
@@ -51979,249 +52025,249 @@
       <c r="CQ5" s="234"/>
       <c r="CR5" s="234"/>
       <c r="CS5" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="231" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B6" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K6" s="239" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" s="234" t="s">
+        <v>240</v>
+      </c>
+      <c r="M6" s="234" t="s">
+        <v>240</v>
+      </c>
+      <c r="N6" s="234" t="s">
+        <v>240</v>
+      </c>
+      <c r="O6" s="234" t="s">
         <v>242</v>
       </c>
-      <c r="L6" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="M6" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="N6" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="O6" s="234" t="s">
-        <v>235</v>
-      </c>
       <c r="P6" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="T6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="U6" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="V6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE6" s="238"/>
       <c r="AF6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL6" s="238"/>
       <c r="AM6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP6" s="238"/>
       <c r="AQ6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS6" s="238"/>
       <c r="AT6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AV6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY6" s="238"/>
       <c r="AZ6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BA6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BB6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BH6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI6" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ6" s="238"/>
       <c r="BK6" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL6" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM6" s="234" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="BN6" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BP6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BQ6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BS6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BT6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BU6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BX6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BY6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CA6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CC6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CD6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG6" s="234"/>
       <c r="CH6" s="234"/>
@@ -52236,198 +52282,198 @@
       <c r="CQ6" s="234"/>
       <c r="CR6" s="234"/>
       <c r="CS6" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="231" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B7" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L7" s="239" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" s="234" t="s">
+        <v>240</v>
+      </c>
+      <c r="N7" s="234" t="s">
+        <v>240</v>
+      </c>
+      <c r="O7" s="234" t="s">
         <v>242</v>
       </c>
-      <c r="M7" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="N7" s="234" t="s">
-        <v>233</v>
-      </c>
-      <c r="O7" s="234" t="s">
-        <v>235</v>
-      </c>
       <c r="P7" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="T7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="U7" s="235" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="V7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z7" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AA7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE7" s="238"/>
       <c r="AF7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL7" s="238"/>
       <c r="AM7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP7" s="238"/>
       <c r="AQ7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS7" s="238"/>
       <c r="AT7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU7" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AV7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY7" s="238"/>
       <c r="AZ7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BA7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BB7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BH7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI7" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ7" s="238"/>
       <c r="BK7" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL7" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN7" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO7" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BP7" s="234"/>
       <c r="BQ7" s="234"/>
@@ -52435,16 +52481,16 @@
       <c r="BS7" s="234"/>
       <c r="BT7" s="234"/>
       <c r="BU7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BX7" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BY7" s="234"/>
       <c r="BZ7" s="234"/>
@@ -52470,220 +52516,220 @@
     </row>
     <row r="8" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="231" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B8" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L8" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O8" s="234" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P8" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="T8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="U8" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="V8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W8" s="234" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="X8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB8" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AC8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE8" s="238"/>
       <c r="AF8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL8" s="238"/>
       <c r="AM8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN8" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AO8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP8" s="238"/>
       <c r="AQ8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS8" s="238"/>
       <c r="AT8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AV8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY8" s="238"/>
       <c r="AZ8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BA8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BB8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG8" s="234" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="BH8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI8" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ8" s="238"/>
       <c r="BK8" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL8" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN8" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BP8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BQ8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BS8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BT8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BU8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW8" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BX8" s="234" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="BY8" s="234"/>
       <c r="BZ8" s="234"/>
@@ -52709,244 +52755,244 @@
     </row>
     <row r="9">
       <c r="A9" s="231" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B9" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O9" s="239" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="P9" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="T9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="U9" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="V9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE9" s="238"/>
       <c r="AF9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL9" s="238"/>
       <c r="AM9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP9" s="238"/>
       <c r="AQ9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS9" s="238"/>
       <c r="AT9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AV9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY9" s="238"/>
       <c r="AZ9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BA9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BB9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BH9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI9" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ9" s="238"/>
       <c r="BK9" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL9" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN9" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BP9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BQ9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BS9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BT9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BU9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BX9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BY9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CA9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CC9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CD9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG9" s="234"/>
       <c r="CH9" s="234"/>
@@ -52961,249 +53007,249 @@
       <c r="CQ9" s="234"/>
       <c r="CR9" s="234"/>
       <c r="CS9" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="231" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B10" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O10" s="234" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P10" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="R10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="T10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="U10" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="V10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AE10" s="238"/>
       <c r="AF10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AL10" s="238"/>
       <c r="AM10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AN10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP10" s="238"/>
       <c r="AQ10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS10" s="238"/>
       <c r="AT10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AV10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY10" s="238"/>
       <c r="AZ10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BA10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BB10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BC10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BD10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BE10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BF10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BG10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BH10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI10" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ10" s="238"/>
       <c r="BK10" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL10" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN10" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BP10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BQ10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BS10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BT10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BU10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW10" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BX10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BY10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CA10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CC10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CD10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG10" s="234"/>
       <c r="CH10" s="234"/>
@@ -53218,249 +53264,249 @@
       <c r="CQ10" s="234"/>
       <c r="CR10" s="234"/>
       <c r="CS10" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="231" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B11" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="G11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="H11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="J11" s="234" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O11" s="234" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P11" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="R11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="S11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="T11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="U11" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="V11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Y11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Z11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AB11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AC11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AE11" s="238"/>
       <c r="AF11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AG11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AH11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AI11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL11" s="238"/>
       <c r="AM11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AN11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AO11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AP11" s="238"/>
       <c r="AQ11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AR11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AS11" s="238"/>
       <c r="AT11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AU11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AV11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AW11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AY11" s="238"/>
       <c r="AZ11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BA11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BB11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BC11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BE11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BF11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BG11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BH11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI11" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BJ11" s="238"/>
       <c r="BK11" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BL11" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BM11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN11" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BO11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BP11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BQ11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BR11" s="234" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="BS11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BT11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BU11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BX11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BY11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CA11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CB11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CC11" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CD11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG11" s="234"/>
       <c r="CH11" s="234"/>
@@ -53475,249 +53521,249 @@
       <c r="CQ11" s="234"/>
       <c r="CR11" s="234"/>
       <c r="CS11" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="231" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B12" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="E12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="I12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="M12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O12" s="234" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P12" s="235" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="R12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="S12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="T12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="U12" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="V12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="W12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="X12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Z12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AA12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AB12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AC12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AE12" s="238"/>
       <c r="AF12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AG12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AH12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AI12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AJ12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AK12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL12" s="238"/>
       <c r="AM12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AN12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AO12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AP12" s="238"/>
       <c r="AQ12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AR12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AS12" s="238"/>
       <c r="AT12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AU12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AV12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AW12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AX12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AY12" s="238"/>
       <c r="AZ12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BA12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BB12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BC12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BD12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BE12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BF12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BG12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BH12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BI12" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BJ12" s="238"/>
       <c r="BK12" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BL12" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BM12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BN12" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BO12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BP12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BQ12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BR12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BS12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BT12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BU12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BV12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BW12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BX12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BY12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="BZ12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CA12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CB12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CC12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CD12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CE12" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CG12" s="234"/>
       <c r="CH12" s="234"/>
@@ -53732,249 +53778,249 @@
       <c r="CQ12" s="234"/>
       <c r="CR12" s="234"/>
       <c r="CS12" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="231" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B13" s="232" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="G13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="I13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="J13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="K13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="O13" s="234" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P13" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="R13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="S13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="T13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="U13" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="V13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="W13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="X13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Z13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AA13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AB13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AC13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AD13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AE13" s="240"/>
       <c r="AF13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AG13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AH13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AI13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AJ13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AK13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AL13" s="240"/>
       <c r="AM13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AN13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AO13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AP13" s="240"/>
       <c r="AQ13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AR13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AS13" s="240"/>
       <c r="AT13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AU13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AV13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AW13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AX13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AY13" s="240"/>
       <c r="AZ13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BA13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BB13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BC13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BD13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BE13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BF13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BG13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BH13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BI13" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BJ13" s="240"/>
       <c r="BK13" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BL13" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BM13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BN13" s="235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BO13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BP13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BQ13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BR13" s="234" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="BS13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BT13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BU13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BV13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BW13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BX13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BY13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="BZ13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CA13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CB13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CC13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="CD13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CE13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CF13" s="234" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="CG13" s="234"/>
       <c r="CH13" s="234"/>
@@ -53989,7 +54035,7 @@
       <c r="CQ13" s="234"/>
       <c r="CR13" s="234"/>
       <c r="CS13" s="234" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -55015,7 +55061,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="241" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B1" s="241" t="s">
         <v>2</v>
@@ -55042,13 +55088,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="245" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K1" s="246" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="L1" s="244" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M1" s="247"/>
       <c r="N1" s="247"/>
@@ -55067,10 +55113,10 @@
     </row>
     <row r="2">
       <c r="A2" s="248" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B2" s="249" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C2" s="250"/>
       <c r="D2" s="250" t="s">
@@ -55097,7 +55143,7 @@
       </c>
       <c r="K2" s="253"/>
       <c r="L2" s="254" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M2" s="247"/>
       <c r="N2" s="247"/>
@@ -55116,16 +55162,16 @@
     </row>
     <row r="3">
       <c r="A3" s="248" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B3" s="255" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C3" s="256" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D3" s="250" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E3" s="251">
         <v>45575.0</v>
@@ -55144,7 +55190,7 @@
       </c>
       <c r="K3" s="251"/>
       <c r="L3" s="254" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M3" s="257"/>
       <c r="N3" s="247"/>
@@ -55163,14 +55209,14 @@
     </row>
     <row r="4">
       <c r="A4" s="248" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B4" s="238"/>
       <c r="C4" s="258" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D4" s="250" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E4" s="251">
         <v>45575.0</v>
@@ -55189,7 +55235,7 @@
       </c>
       <c r="K4" s="259"/>
       <c r="L4" s="262" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M4" s="257"/>
       <c r="N4" s="247"/>
@@ -55208,16 +55254,16 @@
     </row>
     <row r="5">
       <c r="A5" s="248" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B5" s="244" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C5" s="250" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D5" s="250" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E5" s="251">
         <v>45575.0</v>
@@ -55236,7 +55282,7 @@
       </c>
       <c r="K5" s="251"/>
       <c r="L5" s="254" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M5" s="257"/>
       <c r="N5" s="247"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="EN PROCESO (Proteccíon)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="pruebas i" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Proteccíon)'!$A$1:$Q$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Proteccíon)'!$A$1:$Q$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PRUEBAS BOLIVAR'!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="305">
   <si>
     <t>Asignado a</t>
   </si>
@@ -605,7 +605,59 @@
     <t>Migración de lógica de FILENET para gestionar validaciones en IMAGINE</t>
   </si>
   <si>
-    <t>06/11/2025 Seidentifica la viabilidad mas se debe probar todas las opciones manejadas en FILENET para verificar que todo puede ser migrado</t>
+    <t>06/11/2025 Seidentifica la viabilidad mas se debe probar todas las opciones manejadas en FILENET para verificar que todo puede ser migrado
+12/11/2025 Seidentificó la forma que realiza la conexión fileNet con el proceso de interés a cada uno de sus recursos y en principio se puede replicar</t>
+  </si>
+  <si>
+    <t>Interno-H15-2</t>
+  </si>
+  <si>
+    <t>Creación de la base del proyecto y de la lógica para la extracción de datos para la bandeja de validación</t>
+  </si>
+  <si>
+    <t>19/11/2025 Se construye la base para la identificación de los datos para la validación. Se encontraron muchas barreras en las que fallaba la comunicación debido al contexto de ejecución y el teimpo de sesión</t>
+  </si>
+  <si>
+    <t>Interno-H15-3</t>
+  </si>
+  <si>
+    <t>Creación del servicio que ejecuta la extracción de los datos diariamente y creación del plan de trabajo</t>
+  </si>
+  <si>
+    <t>24/11/2025 Se integra el servicio a la malla de sistema distribuido</t>
+  </si>
+  <si>
+    <t>Interno-H15-4</t>
+  </si>
+  <si>
+    <t>Creación de la bandeja y front del proyecto de validación</t>
+  </si>
+  <si>
+    <t>24/11/2025 Se crea la estructura para la validación desde Imagine y se muestra al equipo para la retroalimentación</t>
+  </si>
+  <si>
+    <t>Interno-H15-5</t>
+  </si>
+  <si>
+    <t>Organización y asociación del front con el back, identificación de los consumos y extracción de los documentos. Además, de migración del proyectyo de un ambiente local al de producción</t>
+  </si>
+  <si>
+    <t>24/11/2025 Se tiene la base del proyecto funcial en producción, falta la ejecución de las validaciones</t>
+  </si>
+  <si>
+    <t>Interno-H15-6</t>
+  </si>
+  <si>
+    <t>Ejecución de validaciones, afinamiento del proyecto y entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/11/2025 Se entrega todo el proyecto y se esta a la espera de retroalimentación para modificación </t>
+  </si>
+  <si>
+    <t>Interno-H15-7</t>
+  </si>
+  <si>
+    <t>Proceso de validación, estabilidad y modificación del proyecto</t>
   </si>
   <si>
     <t>Alejandro Cardona Ocampo</t>
@@ -1067,7 +1119,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>False</t>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1131,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;-&quot;mm&quot;-&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1180,12 +1232,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Quattrocento Sans"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Quattrocento Sans"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1876,7 +1922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1955,22 +2001,20 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2000,9 +2044,7 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2012,31 +2054,31 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2048,7 +2090,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2060,10 +2102,10 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,7 +2123,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2099,22 +2141,22 @@
     <xf numFmtId="165" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="34" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2132,13 +2174,13 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2165,13 +2207,13 @@
     <xf numFmtId="14" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2198,16 +2240,16 @@
     <xf numFmtId="14" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,16 +2276,16 @@
     <xf numFmtId="14" fontId="15" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2273,28 +2315,28 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2336,28 +2378,28 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2369,198 +2411,198 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="55" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="39" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="39" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="57" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="57" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="57" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="56" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="40" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="40" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="58" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="58" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="58" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2625,14 +2667,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3012,8 +3055,8 @@
   <dimension ref="A1:AM940"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3158,7 +3201,7 @@
         <v>22</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
@@ -3206,7 +3249,7 @@
         <v>25</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="29.25" customHeight="1">
@@ -3258,7 +3301,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="29.25" customHeight="1">
@@ -3310,7 +3353,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
@@ -3362,7 +3405,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
@@ -3414,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
@@ -3462,7 +3505,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
@@ -3510,7 +3553,7 @@
         <v>45</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="R9" s="61"/>
       <c r="S9" s="61"/>
@@ -3578,7 +3621,7 @@
         <v>48</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
@@ -3650,7 +3693,7 @@
         <v>51</v>
       </c>
       <c r="Q11" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
@@ -3722,7 +3765,7 @@
         <v>55</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
@@ -3792,7 +3835,7 @@
         <v>59</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="R13" s="61"/>
       <c r="S13" s="61"/>
@@ -3860,7 +3903,7 @@
         <v>62</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="R14" s="68"/>
       <c r="S14" s="68"/>
@@ -3930,7 +3973,7 @@
         <v>65</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="40.5" customHeight="1">
@@ -3978,7 +4021,7 @@
         <v>68</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="48" customHeight="1">
@@ -4026,7 +4069,7 @@
         <v>71</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="42" customHeight="1">
@@ -4074,7 +4117,7 @@
         <v>74</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29.25" customHeight="1">
@@ -4122,7 +4165,7 @@
         <v>77</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="29.25" customHeight="1">
@@ -4158,7 +4201,7 @@
       <c r="L20" s="82"/>
       <c r="M20" s="24">
         <f ca="1">IF(ISBLANK(L20), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L20, Hoja2!$A$1:$A$18))</f>
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="57"/>
@@ -4166,7 +4209,7 @@
         <v>80</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39" customHeight="1">
@@ -4193,7 +4236,7 @@
       <c r="L21" s="85"/>
       <c r="M21" s="39">
         <f ca="1">IF(ISBLANK(L21), NETWORKDAYS(I20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(I20, L21, Hoja2!$A$1:$A$18))</f>
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="N21" s="72"/>
       <c r="O21" s="60"/>
@@ -4201,7 +4244,7 @@
         <v>84</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="129.75" customHeight="1">
@@ -4251,7 +4294,7 @@
         <v>87</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="69" customHeight="1">
@@ -4299,7 +4342,7 @@
         <v>90</v>
       </c>
       <c r="Q23" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="78.75" customHeight="1">
@@ -4347,7 +4390,7 @@
         <v>93</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="63" customHeight="1">
@@ -4399,7 +4442,7 @@
         <v>97</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="67.5" customHeight="1">
@@ -4447,7 +4490,7 @@
         <v>101</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="55.5" customHeight="1">
@@ -4477,13 +4520,13 @@
       <c r="L27" s="85"/>
       <c r="M27" s="39">
         <f ca="1">IF(ISBLANK(L27), NETWORKDAYS(J27, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J27, L27, Hoja2!$A$1:$A$18))</f>
-        <v>32819</v>
+        <v>32847</v>
       </c>
       <c r="N27" s="72"/>
       <c r="O27" s="60"/>
       <c r="P27" s="93"/>
-      <c r="Q27" s="43" t="s">
-        <v>287</v>
+      <c r="Q27" s="264" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="138" customHeight="1">
@@ -4531,7 +4574,7 @@
         <v>106</v>
       </c>
       <c r="Q28" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="67.5" customHeight="1">
@@ -4579,7 +4622,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="85.5">
@@ -4625,7 +4668,7 @@
       <c r="O30" s="57"/>
       <c r="P30" s="94"/>
       <c r="Q30" s="28" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="71.25">
@@ -4671,7 +4714,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="43" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="42.75">
@@ -4715,10 +4758,10 @@
       <c r="O32" s="57"/>
       <c r="P32" s="94"/>
       <c r="Q32" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39" ht="76.5" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="76.5" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>17</v>
       </c>
@@ -4763,10 +4806,10 @@
         <v>116</v>
       </c>
       <c r="Q33" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" ht="38.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="38.25">
       <c r="A34" s="15" t="s">
         <v>17</v>
       </c>
@@ -4813,10 +4856,10 @@
         <v>120</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39" ht="42.75">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="42.75">
       <c r="A35" s="29" t="s">
         <v>17</v>
       </c>
@@ -4863,10 +4906,10 @@
         <v>120</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="93" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="93" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>17</v>
       </c>
@@ -4913,10 +4956,10 @@
         <v>125</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:39" ht="76.5" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="76.5" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>17</v>
       </c>
@@ -4963,10 +5006,10 @@
         <v>129</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:39" ht="120.75" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="120.75" customHeight="1">
       <c r="A38" s="15" t="s">
         <v>17</v>
       </c>
@@ -5001,7 +5044,7 @@
       <c r="L38" s="67"/>
       <c r="M38" s="24">
         <f ca="1">IF(ISBLANK(L38), NETWORKDAYS(J38, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L38, Hoja2!$A$1:$A$18))</f>
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N38" s="67"/>
       <c r="O38" s="57"/>
@@ -5009,10 +5052,10 @@
         <v>134</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" ht="162" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="162" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>17</v>
       </c>
@@ -5059,10 +5102,10 @@
         <v>137</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="93" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="93" customHeight="1">
       <c r="A40" s="15" t="s">
         <v>17</v>
       </c>
@@ -5111,10 +5154,10 @@
         <v>140</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" ht="93" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="93" customHeight="1">
       <c r="A41" s="29" t="s">
         <v>17</v>
       </c>
@@ -5161,10 +5204,10 @@
         <v>145</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:39" ht="67.5" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="67.5" customHeight="1">
       <c r="A42" s="15" t="s">
         <v>17</v>
       </c>
@@ -5213,10 +5256,10 @@
         <v>148</v>
       </c>
       <c r="Q42" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" ht="93" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="93" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>17</v>
       </c>
@@ -5265,10 +5308,10 @@
         <v>152</v>
       </c>
       <c r="Q43" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="44" spans="1:39" ht="93" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="93" customHeight="1">
       <c r="A44" s="15" t="s">
         <v>17</v>
       </c>
@@ -5317,10 +5360,10 @@
         <v>156</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="93" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="93" customHeight="1">
       <c r="A45" s="29" t="s">
         <v>17</v>
       </c>
@@ -5369,10 +5412,10 @@
         <v>160</v>
       </c>
       <c r="Q45" s="43" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="162" customHeight="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="162" customHeight="1">
       <c r="A46" s="15" t="s">
         <v>17</v>
       </c>
@@ -5387,10 +5430,10 @@
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="58" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="G46" s="20">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H46" s="65">
         <v>5</v>
@@ -5404,265 +5447,329 @@
       <c r="K46" s="67">
         <v>45971</v>
       </c>
-      <c r="L46" s="67"/>
+      <c r="L46" s="67">
+        <v>45971</v>
+      </c>
       <c r="M46" s="24">
         <f ca="1">IF(ISBLANK(N46), NETWORKDAYS(J46, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J46, N46, Hoja2!$A$1:$A$18))</f>
-        <v>4</v>
-      </c>
-      <c r="N46" s="67"/>
-      <c r="O46" s="57"/>
+        <v>5</v>
+      </c>
+      <c r="N46" s="67">
+        <v>45971</v>
+      </c>
+      <c r="O46" s="67">
+        <v>45992</v>
+      </c>
       <c r="P46" s="94" t="s">
         <v>164</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="47" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A47" s="98"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="61"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="61"/>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
-      <c r="Z47" s="61"/>
-      <c r="AA47" s="61"/>
-      <c r="AB47" s="61"/>
-      <c r="AC47" s="61"/>
-      <c r="AD47" s="61"/>
-      <c r="AE47" s="61"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="61"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="61"/>
-      <c r="AL47" s="61"/>
-      <c r="AM47" s="62"/>
-    </row>
-    <row r="48" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A48" s="110"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="117"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="68"/>
-      <c r="AK48" s="68"/>
-      <c r="AL48" s="68"/>
-      <c r="AM48" s="69"/>
-    </row>
-    <row r="49" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A49" s="98"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="105"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="61"/>
-      <c r="S49" s="61"/>
-      <c r="T49" s="61"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
-      <c r="Z49" s="61"/>
-      <c r="AA49" s="61"/>
-      <c r="AB49" s="61"/>
-      <c r="AC49" s="61"/>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="61"/>
-      <c r="AH49" s="61"/>
-      <c r="AI49" s="61"/>
-      <c r="AJ49" s="61"/>
-      <c r="AK49" s="61"/>
-      <c r="AL49" s="61"/>
-      <c r="AM49" s="62"/>
-    </row>
-    <row r="50" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A50" s="110"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="118"/>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="117"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="121"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="68"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="68"/>
-      <c r="Z50" s="68"/>
-      <c r="AA50" s="68"/>
-      <c r="AB50" s="68"/>
-      <c r="AC50" s="68"/>
-      <c r="AD50" s="68"/>
-      <c r="AE50" s="68"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="68"/>
-      <c r="AH50" s="68"/>
-      <c r="AI50" s="68"/>
-      <c r="AJ50" s="68"/>
-      <c r="AK50" s="68"/>
-      <c r="AL50" s="68"/>
-      <c r="AM50" s="69"/>
-    </row>
-    <row r="51" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="99"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="106"/>
-      <c r="K51" s="106"/>
-      <c r="L51" s="106"/>
-      <c r="M51" s="107"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="108"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
-      <c r="U51" s="61"/>
-      <c r="V51" s="61"/>
-      <c r="W51" s="61"/>
-      <c r="X51" s="61"/>
-      <c r="Y51" s="61"/>
-      <c r="Z51" s="61"/>
-      <c r="AA51" s="61"/>
-      <c r="AB51" s="61"/>
-      <c r="AC51" s="61"/>
-      <c r="AD51" s="61"/>
-      <c r="AE51" s="61"/>
-      <c r="AF51" s="61"/>
-      <c r="AG51" s="61"/>
-      <c r="AH51" s="61"/>
-      <c r="AI51" s="61"/>
-      <c r="AJ51" s="61"/>
-      <c r="AK51" s="61"/>
-      <c r="AL51" s="61"/>
-      <c r="AM51" s="62"/>
-    </row>
-    <row r="52" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A52" s="110"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="112"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="114"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="117"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="121"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
-      <c r="W52" s="68"/>
-      <c r="X52" s="68"/>
-      <c r="Y52" s="68"/>
-      <c r="Z52" s="68"/>
-      <c r="AA52" s="68"/>
-      <c r="AB52" s="68"/>
-      <c r="AC52" s="68"/>
-      <c r="AD52" s="68"/>
-      <c r="AE52" s="68"/>
-      <c r="AF52" s="68"/>
-      <c r="AG52" s="68"/>
-      <c r="AH52" s="68"/>
-      <c r="AI52" s="68"/>
-      <c r="AJ52" s="68"/>
-      <c r="AK52" s="68"/>
-      <c r="AL52" s="68"/>
-      <c r="AM52" s="69"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="162" customHeight="1">
+      <c r="A47" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="34">
+        <v>100</v>
+      </c>
+      <c r="H47" s="48">
+        <v>5</v>
+      </c>
+      <c r="I47" s="54">
+        <v>45971</v>
+      </c>
+      <c r="J47" s="54">
+        <v>45971</v>
+      </c>
+      <c r="K47" s="71">
+        <v>45985</v>
+      </c>
+      <c r="L47" s="71">
+        <v>45980</v>
+      </c>
+      <c r="M47" s="39">
+        <f ca="1">IF(ISBLANK(N47), NETWORKDAYS(J47, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J47, N47, Hoja2!$A$1:$A$18))</f>
+        <v>8</v>
+      </c>
+      <c r="N47" s="71">
+        <v>45980</v>
+      </c>
+      <c r="O47" s="71">
+        <v>45992</v>
+      </c>
+      <c r="P47" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q47" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="162" customHeight="1">
+      <c r="A48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="20">
+        <v>100</v>
+      </c>
+      <c r="H48" s="65">
+        <v>5</v>
+      </c>
+      <c r="I48" s="66">
+        <v>45981</v>
+      </c>
+      <c r="J48" s="66">
+        <v>45981</v>
+      </c>
+      <c r="K48" s="67">
+        <v>45985</v>
+      </c>
+      <c r="L48" s="67">
+        <v>45985</v>
+      </c>
+      <c r="M48" s="24">
+        <f ca="1">IF(ISBLANK(N48), NETWORKDAYS(J48, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J48, N48, Hoja2!$A$1:$A$18))</f>
+        <v>3</v>
+      </c>
+      <c r="N48" s="67">
+        <v>45985</v>
+      </c>
+      <c r="O48" s="67">
+        <v>45992</v>
+      </c>
+      <c r="P48" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q48" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="162" customHeight="1">
+      <c r="A49" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="34">
+        <v>100</v>
+      </c>
+      <c r="H49" s="48">
+        <v>5</v>
+      </c>
+      <c r="I49" s="54">
+        <v>45985</v>
+      </c>
+      <c r="J49" s="54">
+        <v>45985</v>
+      </c>
+      <c r="K49" s="71">
+        <v>45987</v>
+      </c>
+      <c r="L49" s="71">
+        <v>45987</v>
+      </c>
+      <c r="M49" s="39">
+        <f ca="1">IF(ISBLANK(N49), NETWORKDAYS(J49, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J49, N49, Hoja2!$A$1:$A$18))</f>
+        <v>3</v>
+      </c>
+      <c r="N49" s="71">
+        <v>45987</v>
+      </c>
+      <c r="O49" s="71">
+        <v>45992</v>
+      </c>
+      <c r="P49" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q49" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" ht="162" customHeight="1">
+      <c r="A50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="18"/>
+      <c r="F50" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="20">
+        <v>100</v>
+      </c>
+      <c r="H50" s="65">
+        <v>5</v>
+      </c>
+      <c r="I50" s="66">
+        <v>45987</v>
+      </c>
+      <c r="J50" s="66">
+        <v>45987</v>
+      </c>
+      <c r="K50" s="67">
+        <v>45992</v>
+      </c>
+      <c r="L50" s="67">
+        <v>45992</v>
+      </c>
+      <c r="M50" s="24">
+        <f ca="1">IF(ISBLANK(N50), NETWORKDAYS(J50, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J50, N50, Hoja2!$A$1:$A$18))</f>
+        <v>4</v>
+      </c>
+      <c r="N50" s="67">
+        <v>45992</v>
+      </c>
+      <c r="O50" s="67">
+        <v>45992</v>
+      </c>
+      <c r="P50" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" ht="162" customHeight="1">
+      <c r="A51" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="F51" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="34">
+        <v>100</v>
+      </c>
+      <c r="H51" s="48">
+        <v>5</v>
+      </c>
+      <c r="I51" s="54">
+        <v>45992</v>
+      </c>
+      <c r="J51" s="54">
+        <v>45992</v>
+      </c>
+      <c r="K51" s="71">
+        <v>46001</v>
+      </c>
+      <c r="L51" s="71">
+        <v>46001</v>
+      </c>
+      <c r="M51" s="39">
+        <f ca="1">IF(ISBLANK(N51), NETWORKDAYS(J51, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J51, N51, Hoja2!$A$1:$A$18))</f>
+        <v>7</v>
+      </c>
+      <c r="N51" s="71">
+        <v>46000</v>
+      </c>
+      <c r="O51" s="71">
+        <v>46000</v>
+      </c>
+      <c r="P51" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q51" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" ht="162" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="18"/>
+      <c r="F52" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="20">
+        <v>20</v>
+      </c>
+      <c r="H52" s="65">
+        <v>5</v>
+      </c>
+      <c r="I52" s="66">
+        <v>46000</v>
+      </c>
+      <c r="J52" s="66">
+        <v>46000</v>
+      </c>
+      <c r="K52" s="67">
+        <v>46013</v>
+      </c>
+      <c r="L52" s="67"/>
+      <c r="M52" s="24">
+        <f ca="1">IF(ISBLANK(N52), NETWORKDAYS(J52, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J52, N52, Hoja2!$A$1:$A$18))</f>
+        <v>7</v>
+      </c>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="28" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="53" spans="1:39" ht="29.25" customHeight="1">
       <c r="A53" s="98"/>
@@ -42073,7 +42180,7 @@
       <c r="AM940" s="135"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q30"/>
+  <autoFilter ref="A1:Q52"/>
   <conditionalFormatting sqref="B1:B940">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(B$2:B$16,B2)&gt;1</formula>
@@ -42180,19 +42287,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B2" s="139" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D2" s="139" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F2" s="141" t="s">
         <v>21</v>
@@ -42227,19 +42334,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B3" s="139" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="D3" s="139" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="139" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="F3" s="141" t="s">
         <v>21</v>
@@ -42274,19 +42381,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B4" s="139" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D4" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="F4" s="141" t="s">
         <v>21</v>
@@ -42325,19 +42432,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B5" s="139" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D5" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>21</v>
@@ -42376,19 +42483,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B6" s="139" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D6" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F6" s="158" t="s">
         <v>21</v>
@@ -42427,19 +42534,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B7" s="139" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D7" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="139" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F7" s="160" t="s">
         <v>21</v>
@@ -42478,19 +42585,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B8" s="139" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D8" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="162" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F8" s="141" t="s">
         <v>21</v>
@@ -42525,17 +42632,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B9" s="139" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D9" s="167"/>
       <c r="E9" s="139" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="F9" s="160" t="s">
         <v>21</v>
@@ -42572,17 +42679,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B10" s="139" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="D10" s="167"/>
       <c r="E10" s="139" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F10" s="160" t="s">
         <v>21</v>
@@ -42617,19 +42724,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B11" s="139" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D11" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="169" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="F11" s="160" t="s">
         <v>21</v>
@@ -42666,19 +42773,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B12" s="139" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="170" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="D12" s="139" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="139" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="F12" s="160" t="s">
         <v>21</v>
@@ -42715,19 +42822,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B13" s="139" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="166" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D13" s="139" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="139" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="F13" s="160" t="s">
         <v>21</v>
@@ -42762,7 +42869,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="138" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B14" s="139" t="s">
         <v>60</v>
@@ -42772,7 +42879,7 @@
       </c>
       <c r="D14" s="171"/>
       <c r="E14" s="157" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F14" s="165" t="s">
         <v>21</v>
@@ -42850,7 +42957,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30">
       <c r="A1" s="172" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B1" s="172" t="s">
         <v>2</v>
@@ -42877,13 +42984,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="175" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K1" s="172" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L1" s="176" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M1" s="177"/>
       <c r="N1" s="177"/>
@@ -42902,14 +43009,14 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" s="178" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B2" s="179" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C2" s="180"/>
       <c r="D2" s="181" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E2" s="182">
         <v>45526</v>
@@ -42923,7 +43030,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
       <c r="L2" s="180" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M2" s="183"/>
       <c r="N2" s="183"/>
@@ -42942,13 +43049,13 @@
     </row>
     <row r="3" spans="1:26" ht="28.5">
       <c r="A3" s="184" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B3" s="185" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C3" s="186" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D3" s="186" t="s">
         <v>21</v>
@@ -42972,7 +43079,7 @@
       </c>
       <c r="K3" s="188"/>
       <c r="L3" s="190" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M3" s="177"/>
       <c r="N3" s="177"/>
@@ -42991,16 +43098,16 @@
     </row>
     <row r="4" spans="1:26" ht="186">
       <c r="A4" s="191" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B4" s="192" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="C4" s="191" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D4" s="193" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="E4" s="194">
         <v>45581</v>
@@ -43023,7 +43130,7 @@
       </c>
       <c r="K4" s="194"/>
       <c r="L4" s="191" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M4" s="197"/>
       <c r="N4" s="197"/>
@@ -43042,16 +43149,16 @@
     </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" s="176" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B5" s="192" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C5" s="186" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D5" s="198" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E5" s="187">
         <v>45572</v>
@@ -43072,7 +43179,7 @@
       </c>
       <c r="K5" s="187"/>
       <c r="L5" s="190" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M5" s="177"/>
       <c r="N5" s="177"/>
@@ -43091,16 +43198,16 @@
     </row>
     <row r="6" spans="1:26" ht="117">
       <c r="A6" s="199" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B6" s="199" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C6" s="193" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E6" s="200">
         <v>45602</v>
@@ -43121,7 +43228,7 @@
         <v>45602</v>
       </c>
       <c r="L6" s="201" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="M6" s="202"/>
       <c r="N6" s="203"/>
@@ -43140,16 +43247,16 @@
     </row>
     <row r="7" spans="1:26" ht="99.75">
       <c r="A7" s="176" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B7" s="185" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C7" s="204" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="D7" s="198" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E7" s="187">
         <v>45589</v>
@@ -43170,7 +43277,7 @@
       </c>
       <c r="K7" s="198"/>
       <c r="L7" s="206" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
@@ -43189,14 +43296,14 @@
     </row>
     <row r="8" spans="1:26" ht="71.25">
       <c r="A8" s="208" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B8" s="209" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C8" s="210"/>
       <c r="D8" s="210" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="E8" s="211">
         <v>45603</v>
@@ -43217,7 +43324,7 @@
       </c>
       <c r="K8" s="211"/>
       <c r="L8" s="213" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M8" s="177"/>
       <c r="N8" s="177"/>
@@ -43236,16 +43343,16 @@
     </row>
     <row r="9" spans="1:26" ht="42.75">
       <c r="A9" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B9" s="215" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C9" s="216" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D9" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E9" s="218">
         <v>45671</v>
@@ -43254,7 +43361,7 @@
         <v>45673</v>
       </c>
       <c r="G9" s="216" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="H9" s="218">
         <v>45680</v>
@@ -43268,7 +43375,7 @@
       </c>
       <c r="K9" s="216"/>
       <c r="L9" s="220" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M9" s="221"/>
       <c r="N9" s="221"/>
@@ -43287,14 +43394,14 @@
     </row>
     <row r="10" spans="1:26" ht="57">
       <c r="A10" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B10" s="222"/>
       <c r="C10" s="220" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="D10" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E10" s="218">
         <v>45671</v>
@@ -43313,7 +43420,7 @@
       <c r="J10" s="216"/>
       <c r="K10" s="216"/>
       <c r="L10" s="220" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M10" s="221"/>
       <c r="N10" s="221"/>
@@ -43332,14 +43439,14 @@
     </row>
     <row r="11" spans="1:26" ht="42.75">
       <c r="A11" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B11" s="222"/>
       <c r="C11" s="220" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E11" s="218">
         <v>45671</v>
@@ -43358,7 +43465,7 @@
       <c r="J11" s="216"/>
       <c r="K11" s="216"/>
       <c r="L11" s="220" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M11" s="221"/>
       <c r="N11" s="221"/>
@@ -43377,14 +43484,14 @@
     </row>
     <row r="12" spans="1:26" ht="42.75">
       <c r="A12" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="220" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="D12" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E12" s="218">
         <v>45671</v>
@@ -43403,7 +43510,7 @@
       <c r="J12" s="216"/>
       <c r="K12" s="216"/>
       <c r="L12" s="220" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M12" s="221"/>
       <c r="N12" s="221"/>
@@ -43422,14 +43529,14 @@
     </row>
     <row r="13" spans="1:26" ht="42.75">
       <c r="A13" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B13" s="222"/>
       <c r="C13" s="220" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D13" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E13" s="218">
         <v>45671</v>
@@ -43448,7 +43555,7 @@
       <c r="J13" s="216"/>
       <c r="K13" s="216"/>
       <c r="L13" s="220" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="M13" s="221"/>
       <c r="N13" s="221"/>
@@ -43467,14 +43574,14 @@
     </row>
     <row r="14" spans="1:26" ht="42.75">
       <c r="A14" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B14" s="222"/>
       <c r="C14" s="220" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="D14" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E14" s="218">
         <v>45671</v>
@@ -43493,7 +43600,7 @@
       <c r="J14" s="216"/>
       <c r="K14" s="216"/>
       <c r="L14" s="216" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M14" s="221"/>
       <c r="N14" s="221"/>
@@ -43512,14 +43619,14 @@
     </row>
     <row r="15" spans="1:26" ht="42.75">
       <c r="A15" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B15" s="222"/>
       <c r="C15" s="220" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="D15" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E15" s="218">
         <v>45671</v>
@@ -43538,7 +43645,7 @@
       <c r="J15" s="216"/>
       <c r="K15" s="216"/>
       <c r="L15" s="216" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M15" s="221"/>
       <c r="N15" s="221"/>
@@ -43557,14 +43664,14 @@
     </row>
     <row r="16" spans="1:26" ht="71.25">
       <c r="A16" s="214" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B16" s="223"/>
       <c r="C16" s="224" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D16" s="217" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="E16" s="218">
         <v>45681</v>
@@ -43583,7 +43690,7 @@
       <c r="J16" s="216"/>
       <c r="K16" s="216"/>
       <c r="L16" s="220" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M16" s="221"/>
       <c r="N16" s="221"/>
@@ -50115,7 +50222,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="221" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -50123,7 +50230,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="221" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -50131,7 +50238,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="221" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -50139,7 +50246,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="221" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -50147,7 +50254,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="221" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -50155,7 +50262,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="221" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -50163,7 +50270,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="221" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -50171,7 +50278,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="221" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -50179,7 +50286,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="221" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -50187,7 +50294,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="221" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -50195,7 +50302,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="221" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -50203,7 +50310,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="221" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -50211,7 +50318,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="221" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -50219,7 +50326,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="221" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -50227,7 +50334,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="221" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -50235,7 +50342,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="221" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -50243,7 +50350,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="221" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -50251,7 +50358,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="221" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1"/>
@@ -51263,7 +51370,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="226" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B1" s="221"/>
       <c r="C1" s="221"/>
@@ -51321,7 +51428,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="227" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B3" s="228">
         <v>45596</v>
@@ -51614,261 +51721,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="231" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B4" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C4" s="233" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="D4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O4" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P4" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="R4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U4" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="V4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE4" s="260" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="AF4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL4" s="260" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="AM4" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN4" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AO4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP4" s="260" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AQ4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS4" s="260" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AT4" s="236" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AV4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY4" s="260" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="AZ4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BA4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BH4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI4" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ4" s="260" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="BK4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BL4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BM4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BN4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BO4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BP4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BQ4" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BR4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CA4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CB4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CC4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CD4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG4" s="234"/>
       <c r="CH4" s="234"/>
       <c r="CI4" s="260" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="CJ4" s="234"/>
       <c r="CK4" s="234"/>
@@ -51880,249 +51987,249 @@
       <c r="CQ4" s="234"/>
       <c r="CR4" s="234"/>
       <c r="CS4" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="231" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B5" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="M5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="N5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="O5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="P5" s="235" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="R5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U5" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="V5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE5" s="261"/>
       <c r="AF5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL5" s="261"/>
       <c r="AM5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AN5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP5" s="261"/>
       <c r="AQ5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AR5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AS5" s="261"/>
       <c r="AT5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AU5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AV5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AW5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AX5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="AY5" s="261"/>
       <c r="AZ5" s="234" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="BA5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BH5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI5" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ5" s="261"/>
       <c r="BK5" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL5" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN5" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BP5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BQ5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BR5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CA5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CB5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CC5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CD5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG5" s="234"/>
       <c r="CH5" s="234"/>
@@ -52137,249 +52244,249 @@
       <c r="CQ5" s="234"/>
       <c r="CR5" s="234"/>
       <c r="CS5" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="231" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B6" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K6" s="237" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O6" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P6" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="R6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U6" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="V6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE6" s="261"/>
       <c r="AF6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL6" s="261"/>
       <c r="AM6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AN6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP6" s="261"/>
       <c r="AQ6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS6" s="261"/>
       <c r="AT6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AV6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY6" s="261"/>
       <c r="AZ6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BA6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BH6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI6" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ6" s="261"/>
       <c r="BK6" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL6" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM6" s="234" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="BN6" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BP6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BQ6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BR6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CA6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CB6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CC6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CD6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG6" s="234"/>
       <c r="CH6" s="234"/>
@@ -52394,198 +52501,198 @@
       <c r="CQ6" s="234"/>
       <c r="CR6" s="234"/>
       <c r="CS6" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="231" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B7" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L7" s="237" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="M7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O7" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P7" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="R7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U7" s="235" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="V7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z7" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AA7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE7" s="261"/>
       <c r="AF7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL7" s="261"/>
       <c r="AM7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AN7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP7" s="261"/>
       <c r="AQ7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS7" s="261"/>
       <c r="AT7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU7" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AV7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY7" s="261"/>
       <c r="AZ7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BA7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BH7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI7" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ7" s="261"/>
       <c r="BK7" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL7" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN7" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO7" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BP7" s="234"/>
       <c r="BQ7" s="234"/>
@@ -52593,16 +52700,16 @@
       <c r="BS7" s="234"/>
       <c r="BT7" s="234"/>
       <c r="BU7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX7" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY7" s="234"/>
       <c r="BZ7" s="234"/>
@@ -52628,220 +52735,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="231" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B8" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L8" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O8" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P8" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="R8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U8" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="V8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W8" s="234" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="X8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB8" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AC8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE8" s="261"/>
       <c r="AF8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL8" s="261"/>
       <c r="AM8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AN8" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AO8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP8" s="261"/>
       <c r="AQ8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS8" s="261"/>
       <c r="AT8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AV8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY8" s="261"/>
       <c r="AZ8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BA8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG8" s="234" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="BH8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI8" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ8" s="261"/>
       <c r="BK8" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL8" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN8" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BP8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BQ8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BR8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW8" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX8" s="234" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="BY8" s="234"/>
       <c r="BZ8" s="234"/>
@@ -52867,244 +52974,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="231" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="232" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="232" t="s">
-        <v>252</v>
-      </c>
       <c r="C9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="J9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O9" s="237" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P9" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="R9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U9" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="V9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE9" s="261"/>
       <c r="AF9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL9" s="261"/>
       <c r="AM9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AN9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP9" s="261"/>
       <c r="AQ9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS9" s="261"/>
       <c r="AT9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AV9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY9" s="261"/>
       <c r="AZ9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BA9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BH9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI9" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ9" s="261"/>
       <c r="BK9" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL9" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN9" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BP9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BQ9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BR9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CA9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CB9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CC9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CD9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG9" s="234"/>
       <c r="CH9" s="234"/>
@@ -53119,249 +53226,249 @@
       <c r="CQ9" s="234"/>
       <c r="CR9" s="234"/>
       <c r="CS9" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="231" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B10" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="G10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="J10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="O10" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P10" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="R10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="S10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="T10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="U10" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="V10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AE10" s="261"/>
       <c r="AF10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AL10" s="261"/>
       <c r="AM10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP10" s="261"/>
       <c r="AQ10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS10" s="261"/>
       <c r="AT10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AV10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY10" s="261"/>
       <c r="AZ10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BA10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BB10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BC10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BD10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BE10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BF10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BG10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BH10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI10" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ10" s="261"/>
       <c r="BK10" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL10" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN10" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BP10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BQ10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BR10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW10" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BX10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CA10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CB10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CC10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CD10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG10" s="234"/>
       <c r="CH10" s="234"/>
@@ -53376,249 +53483,249 @@
       <c r="CQ10" s="234"/>
       <c r="CR10" s="234"/>
       <c r="CS10" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="231" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="232" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="E11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="I11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" s="234" t="s">
+        <v>289</v>
+      </c>
+      <c r="K11" s="234" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" s="234" t="s">
+        <v>272</v>
+      </c>
+      <c r="N11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="O11" s="234" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="232" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="H11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="I11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" s="234" t="s">
+      <c r="P11" s="235" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="R11" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="S11" s="234" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="234" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="M11" s="234" t="s">
-        <v>255</v>
-      </c>
-      <c r="N11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="O11" s="234" t="s">
-        <v>254</v>
-      </c>
-      <c r="P11" s="235" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="R11" s="234" t="s">
-        <v>252</v>
-      </c>
-      <c r="S11" s="234" t="s">
-        <v>255</v>
-      </c>
       <c r="T11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="U11" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="V11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Y11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Z11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AB11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AC11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AE11" s="261"/>
       <c r="AF11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AG11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AH11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AI11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL11" s="261"/>
       <c r="AM11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AN11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AO11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AP11" s="261"/>
       <c r="AQ11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AR11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AS11" s="261"/>
       <c r="AT11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AU11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AV11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AW11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AY11" s="261"/>
       <c r="AZ11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BA11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BB11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BC11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BE11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BF11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BG11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BH11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI11" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BJ11" s="261"/>
       <c r="BK11" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BL11" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BM11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN11" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BO11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BP11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BQ11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BR11" s="234" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="BS11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BT11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BU11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BX11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BY11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CA11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CB11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CC11" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CD11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG11" s="234"/>
       <c r="CH11" s="234"/>
@@ -53633,249 +53740,249 @@
       <c r="CQ11" s="234"/>
       <c r="CR11" s="234"/>
       <c r="CS11" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="231" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B12" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="E12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="I12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="J12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="M12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="N12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="O12" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P12" s="235" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="Q12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="R12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="T12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="U12" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="V12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="W12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="X12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Y12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Z12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AA12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AB12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AC12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AE12" s="261"/>
       <c r="AF12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AH12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AI12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AJ12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AK12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AL12" s="261"/>
       <c r="AM12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AO12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AP12" s="261"/>
       <c r="AQ12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AR12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AS12" s="261"/>
       <c r="AT12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AU12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AV12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AW12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AX12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AY12" s="261"/>
       <c r="AZ12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BA12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BB12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BC12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BD12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BE12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BF12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BG12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BH12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BI12" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BJ12" s="261"/>
       <c r="BK12" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BL12" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BM12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BN12" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BO12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BP12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BQ12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BR12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BS12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BT12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BU12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BV12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BW12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BX12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BY12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="BZ12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CA12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CB12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CC12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CD12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CE12" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CG12" s="234"/>
       <c r="CH12" s="234"/>
@@ -53890,249 +53997,249 @@
       <c r="CQ12" s="234"/>
       <c r="CR12" s="234"/>
       <c r="CS12" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="231" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B13" s="232" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="E13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="I13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="J13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="M13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="O13" s="234" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P13" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="R13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="S13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="T13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="U13" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="V13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="W13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="X13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Y13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Z13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AA13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AB13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AC13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AD13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AE13" s="262"/>
       <c r="AF13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AG13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AH13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AI13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="AJ13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AK13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AL13" s="262"/>
       <c r="AM13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AN13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AO13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AP13" s="262"/>
       <c r="AQ13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AR13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AS13" s="262"/>
       <c r="AT13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AU13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AV13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AW13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AX13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AY13" s="262"/>
       <c r="AZ13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BA13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BB13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BC13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BD13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BE13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BF13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BG13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BH13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BI13" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BJ13" s="262"/>
       <c r="BK13" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BL13" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BM13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BN13" s="235" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BO13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BP13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BQ13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BR13" s="234" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="BS13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BT13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BU13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BV13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BW13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BX13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BY13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="BZ13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CA13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CB13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CC13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="CD13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CE13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CF13" s="234" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="CG13" s="234"/>
       <c r="CH13" s="234"/>
@@ -54147,7 +54254,7 @@
       <c r="CQ13" s="234"/>
       <c r="CR13" s="234"/>
       <c r="CS13" s="234" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -55169,7 +55276,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="238" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B1" s="238" t="s">
         <v>2</v>
@@ -55196,13 +55303,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="242" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="K1" s="243" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="L1" s="241" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M1" s="244"/>
       <c r="N1" s="244"/>
@@ -55221,10 +55328,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="245" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B2" s="246" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C2" s="247"/>
       <c r="D2" s="247" t="s">
@@ -55251,7 +55358,7 @@
       </c>
       <c r="K2" s="250"/>
       <c r="L2" s="251" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="M2" s="244"/>
       <c r="N2" s="244"/>
@@ -55270,16 +55377,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="245" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B3" s="263" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C3" s="252" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D3" s="247" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E3" s="248">
         <v>45575</v>
@@ -55298,7 +55405,7 @@
       </c>
       <c r="K3" s="248"/>
       <c r="L3" s="251" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M3" s="253"/>
       <c r="N3" s="244"/>
@@ -55317,14 +55424,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="245" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B4" s="261"/>
       <c r="C4" s="254" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="D4" s="247" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E4" s="248">
         <v>45575</v>
@@ -55343,7 +55450,7 @@
       </c>
       <c r="K4" s="255"/>
       <c r="L4" s="258" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M4" s="253"/>
       <c r="N4" s="244"/>
@@ -55362,16 +55469,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="245" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B5" s="241" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C5" s="247" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D5" s="247" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="E5" s="248">
         <v>45575</v>
@@ -55390,7 +55497,7 @@
       </c>
       <c r="K5" s="248"/>
       <c r="L5" s="251" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M5" s="253"/>
       <c r="N5" s="244"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -20,7 +20,7 @@
     <sheet name="pruebas i" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Proteccíon)'!$A$1:$Q$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EN PROCESO (Proteccíon)'!$A$1:$Q$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'PRUEBAS BOLIVAR'!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="314">
   <si>
     <t>Asignado a</t>
   </si>
@@ -660,6 +660,35 @@
     <t>Proceso de validación, estabilidad y modificación del proyecto</t>
   </si>
   <si>
+    <t>16/12/2025 Se actualiza el proyecto adicionandole mejoras de visualización de documento. Una opción para abrir el visor en 16/12/2025 Se realizan pruebas de funcionamiento y a excepción de una modificación todo funciona bien</t>
+  </si>
+  <si>
+    <t>Interno-H16</t>
+  </si>
+  <si>
+    <t>Identificación de procesos y validación del proyecto</t>
+  </si>
+  <si>
+    <t>Proyecto de validación automática de documentación de fileNet con integración en BPO e historia laboral</t>
+  </si>
+  <si>
+    <t>16/11/2025 Se corrigienron un gran número de casos de AUF</t>
+  </si>
+  <si>
+    <t>REQ-16</t>
+  </si>
+  <si>
+    <t>Se están identificando muchos casos en varios frentes de soporte caausados para malas prácticas , por ahora se esta identificando las causales y corrigiendo casos manualmente</t>
+  </si>
+  <si>
+    <t>Identificación y corrección de servicios de consumo en Imagine</t>
+  </si>
+  <si>
+    <t>16/11/2025 Se corrigienron un gran número de casos de AUF
+17/11/2025 Se analizaron manualmente una gran cantidad de casos solicitados
+18/11/2025 Se realizó reunió para el analisis de casos que no abrieron notificación</t>
+  </si>
+  <si>
     <t>Alejandro Cardona Ocampo</t>
   </si>
   <si>
@@ -1116,10 +1145,10 @@
     <t>Internal Server Error</t>
   </si>
   <si>
-    <t>True</t>
+    <t>False</t>
   </si>
   <si>
-    <t>false</t>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2675,7 +2704,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3054,9 +3082,9 @@
   </sheetPr>
   <dimension ref="A1:AM940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3201,7 +3229,7 @@
         <v>22</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
@@ -3249,7 +3277,7 @@
         <v>25</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="29.25" customHeight="1">
@@ -3301,7 +3329,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="29.25" customHeight="1">
@@ -3353,7 +3381,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
@@ -3405,7 +3433,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
@@ -3457,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
@@ -3505,7 +3533,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
@@ -3553,7 +3581,7 @@
         <v>45</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R9" s="61"/>
       <c r="S9" s="61"/>
@@ -3621,7 +3649,7 @@
         <v>48</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
@@ -3693,7 +3721,7 @@
         <v>51</v>
       </c>
       <c r="Q11" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
@@ -3765,7 +3793,7 @@
         <v>55</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
@@ -3835,7 +3863,7 @@
         <v>59</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R13" s="61"/>
       <c r="S13" s="61"/>
@@ -3903,7 +3931,7 @@
         <v>62</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="R14" s="68"/>
       <c r="S14" s="68"/>
@@ -3973,7 +4001,7 @@
         <v>65</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="40.5" customHeight="1">
@@ -4021,7 +4049,7 @@
         <v>68</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="48" customHeight="1">
@@ -4069,7 +4097,7 @@
         <v>71</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="42" customHeight="1">
@@ -4117,7 +4145,7 @@
         <v>74</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29.25" customHeight="1">
@@ -4165,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="29.25" customHeight="1">
@@ -4201,7 +4229,7 @@
       <c r="L20" s="82"/>
       <c r="M20" s="24">
         <f ca="1">IF(ISBLANK(L20), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L20, Hoja2!$A$1:$A$18))</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="57"/>
@@ -4209,7 +4237,7 @@
         <v>80</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39" customHeight="1">
@@ -4236,7 +4264,7 @@
       <c r="L21" s="85"/>
       <c r="M21" s="39">
         <f ca="1">IF(ISBLANK(L21), NETWORKDAYS(I20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(I20, L21, Hoja2!$A$1:$A$18))</f>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N21" s="72"/>
       <c r="O21" s="60"/>
@@ -4244,7 +4272,7 @@
         <v>84</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="129.75" customHeight="1">
@@ -4294,7 +4322,7 @@
         <v>87</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="69" customHeight="1">
@@ -4342,7 +4370,7 @@
         <v>90</v>
       </c>
       <c r="Q23" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="78.75" customHeight="1">
@@ -4390,7 +4418,7 @@
         <v>93</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="63" customHeight="1">
@@ -4442,7 +4470,7 @@
         <v>97</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="67.5" customHeight="1">
@@ -4490,7 +4518,7 @@
         <v>101</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="55.5" customHeight="1">
@@ -4520,13 +4548,13 @@
       <c r="L27" s="85"/>
       <c r="M27" s="39">
         <f ca="1">IF(ISBLANK(L27), NETWORKDAYS(J27, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J27, L27, Hoja2!$A$1:$A$18))</f>
-        <v>32847</v>
+        <v>32848</v>
       </c>
       <c r="N27" s="72"/>
       <c r="O27" s="60"/>
       <c r="P27" s="93"/>
-      <c r="Q27" s="264" t="s">
-        <v>304</v>
+      <c r="Q27" s="43" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="138" customHeight="1">
@@ -4574,7 +4602,7 @@
         <v>106</v>
       </c>
       <c r="Q28" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="67.5" customHeight="1">
@@ -4622,7 +4650,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="85.5">
@@ -4668,7 +4696,7 @@
       <c r="O30" s="57"/>
       <c r="P30" s="94"/>
       <c r="Q30" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="71.25">
@@ -4714,7 +4742,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="42.75">
@@ -4758,7 +4786,7 @@
       <c r="O32" s="57"/>
       <c r="P32" s="94"/>
       <c r="Q32" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="76.5" customHeight="1">
@@ -4806,7 +4834,7 @@
         <v>116</v>
       </c>
       <c r="Q33" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="38.25">
@@ -4856,7 +4884,7 @@
         <v>120</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="42.75">
@@ -4906,7 +4934,7 @@
         <v>120</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="93" customHeight="1">
@@ -4956,7 +4984,7 @@
         <v>125</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="76.5" customHeight="1">
@@ -5006,7 +5034,7 @@
         <v>129</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="120.75" customHeight="1">
@@ -5044,7 +5072,7 @@
       <c r="L38" s="67"/>
       <c r="M38" s="24">
         <f ca="1">IF(ISBLANK(L38), NETWORKDAYS(J38, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L38, Hoja2!$A$1:$A$18))</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N38" s="67"/>
       <c r="O38" s="57"/>
@@ -5052,7 +5080,7 @@
         <v>134</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="162" customHeight="1">
@@ -5102,7 +5130,7 @@
         <v>137</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="93" customHeight="1">
@@ -5154,7 +5182,7 @@
         <v>140</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="93" customHeight="1">
@@ -5204,7 +5232,7 @@
         <v>145</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="67.5" customHeight="1">
@@ -5256,7 +5284,7 @@
         <v>148</v>
       </c>
       <c r="Q42" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="93" customHeight="1">
@@ -5308,7 +5336,7 @@
         <v>152</v>
       </c>
       <c r="Q43" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="93" customHeight="1">
@@ -5360,7 +5388,7 @@
         <v>156</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="93" customHeight="1">
@@ -5412,7 +5440,7 @@
         <v>160</v>
       </c>
       <c r="Q45" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="162" customHeight="1">
@@ -5464,7 +5492,7 @@
         <v>164</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="162" customHeight="1">
@@ -5516,7 +5544,7 @@
         <v>167</v>
       </c>
       <c r="Q47" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="162" customHeight="1">
@@ -5568,7 +5596,7 @@
         <v>170</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="162" customHeight="1">
@@ -5620,7 +5648,7 @@
         <v>173</v>
       </c>
       <c r="Q49" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="162" customHeight="1">
@@ -5672,7 +5700,7 @@
         <v>176</v>
       </c>
       <c r="Q50" s="28" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="162" customHeight="1">
@@ -5724,7 +5752,7 @@
         <v>179</v>
       </c>
       <c r="Q51" s="43" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="162" customHeight="1">
@@ -5745,7 +5773,7 @@
         <v>133</v>
       </c>
       <c r="G52" s="20">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H52" s="65">
         <v>5</v>
@@ -5762,96 +5790,108 @@
       <c r="L52" s="67"/>
       <c r="M52" s="24">
         <f ca="1">IF(ISBLANK(N52), NETWORKDAYS(J52, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J52, N52, Hoja2!$A$1:$A$18))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N52" s="67"/>
       <c r="O52" s="67"/>
-      <c r="P52" s="94"/>
+      <c r="P52" s="94" t="s">
+        <v>182</v>
+      </c>
       <c r="Q52" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="106"/>
-      <c r="K53" s="106"/>
-      <c r="L53" s="106"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="61"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="61"/>
-      <c r="AH53" s="61"/>
-      <c r="AI53" s="61"/>
-      <c r="AJ53" s="61"/>
-      <c r="AK53" s="61"/>
-      <c r="AL53" s="61"/>
-      <c r="AM53" s="62"/>
-    </row>
-    <row r="54" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A54" s="110"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="121"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
-      <c r="Z54" s="68"/>
-      <c r="AA54" s="68"/>
-      <c r="AB54" s="68"/>
-      <c r="AC54" s="68"/>
-      <c r="AD54" s="68"/>
-      <c r="AE54" s="68"/>
-      <c r="AF54" s="68"/>
-      <c r="AG54" s="68"/>
-      <c r="AH54" s="68"/>
-      <c r="AI54" s="68"/>
-      <c r="AJ54" s="68"/>
-      <c r="AK54" s="68"/>
-      <c r="AL54" s="68"/>
-      <c r="AM54" s="69"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" ht="162" customHeight="1">
+      <c r="A53" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="32"/>
+      <c r="F53" s="86" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="34">
+        <v>75</v>
+      </c>
+      <c r="H53" s="48">
+        <v>4</v>
+      </c>
+      <c r="I53" s="54">
+        <v>46006</v>
+      </c>
+      <c r="J53" s="54">
+        <v>46006</v>
+      </c>
+      <c r="K53" s="71">
+        <v>46010</v>
+      </c>
+      <c r="L53" s="71"/>
+      <c r="M53" s="39">
+        <f ca="1">IF(ISBLANK(N53), NETWORKDAYS(J53, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J53, N53, Hoja2!$A$1:$A$18))</f>
+        <v>4</v>
+      </c>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q53" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" ht="93" customHeight="1">
+      <c r="A54" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" s="77">
+        <v>25</v>
+      </c>
+      <c r="H54" s="65">
+        <v>15</v>
+      </c>
+      <c r="I54" s="66">
+        <v>46002</v>
+      </c>
+      <c r="J54" s="66">
+        <v>46002</v>
+      </c>
+      <c r="K54" s="67">
+        <v>46017</v>
+      </c>
+      <c r="L54" s="67"/>
+      <c r="M54" s="24">
+        <f ca="1">IF(ISBLANK(L54), NETWORKDAYS(J54, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J54, L54, Hoja2!$A$1:$A$18))</f>
+        <v>6</v>
+      </c>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="55" spans="1:39" ht="29.25" customHeight="1">
       <c r="A55" s="98"/>
@@ -42180,7 +42220,7 @@
       <c r="AM940" s="135"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q52"/>
+  <autoFilter ref="A1:Q30"/>
   <conditionalFormatting sqref="B1:B940">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(B$2:B$16,B2)&gt;1</formula>
@@ -42287,19 +42327,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B2" s="139" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="140" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D2" s="139" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="139" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F2" s="141" t="s">
         <v>21</v>
@@ -42334,19 +42374,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B3" s="139" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="140" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D3" s="139" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="139" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F3" s="141" t="s">
         <v>21</v>
@@ -42381,19 +42421,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B4" s="139" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D4" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F4" s="141" t="s">
         <v>21</v>
@@ -42432,19 +42472,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B5" s="139" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D5" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F5" s="141" t="s">
         <v>21</v>
@@ -42483,19 +42523,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B6" s="139" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D6" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="157" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F6" s="158" t="s">
         <v>21</v>
@@ -42534,19 +42574,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B7" s="139" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D7" s="139" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="139" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F7" s="160" t="s">
         <v>21</v>
@@ -42585,19 +42625,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B8" s="139" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D8" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="162" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="F8" s="141" t="s">
         <v>21</v>
@@ -42632,17 +42672,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B9" s="139" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="166" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="D9" s="167"/>
       <c r="E9" s="139" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F9" s="160" t="s">
         <v>21</v>
@@ -42679,17 +42719,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B10" s="139" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="166" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D10" s="167"/>
       <c r="E10" s="139" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F10" s="160" t="s">
         <v>21</v>
@@ -42724,19 +42764,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B11" s="139" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D11" s="139" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="169" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F11" s="160" t="s">
         <v>21</v>
@@ -42773,19 +42813,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B12" s="139" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="170" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D12" s="139" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="139" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F12" s="160" t="s">
         <v>21</v>
@@ -42822,19 +42862,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B13" s="139" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="166" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D13" s="139" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="139" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F13" s="160" t="s">
         <v>21</v>
@@ -42869,7 +42909,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="138" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B14" s="139" t="s">
         <v>60</v>
@@ -42879,7 +42919,7 @@
       </c>
       <c r="D14" s="171"/>
       <c r="E14" s="157" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F14" s="165" t="s">
         <v>21</v>
@@ -42957,7 +42997,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30">
       <c r="A1" s="172" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B1" s="172" t="s">
         <v>2</v>
@@ -42984,13 +43024,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="175" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K1" s="172" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L1" s="176" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M1" s="177"/>
       <c r="N1" s="177"/>
@@ -43009,14 +43049,14 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" s="178" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B2" s="179" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C2" s="180"/>
       <c r="D2" s="181" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E2" s="182">
         <v>45526</v>
@@ -43030,7 +43070,7 @@
       <c r="J2" s="180"/>
       <c r="K2" s="180"/>
       <c r="L2" s="180" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M2" s="183"/>
       <c r="N2" s="183"/>
@@ -43049,13 +43089,13 @@
     </row>
     <row r="3" spans="1:26" ht="28.5">
       <c r="A3" s="184" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B3" s="185" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C3" s="186" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D3" s="186" t="s">
         <v>21</v>
@@ -43079,7 +43119,7 @@
       </c>
       <c r="K3" s="188"/>
       <c r="L3" s="190" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M3" s="177"/>
       <c r="N3" s="177"/>
@@ -43098,16 +43138,16 @@
     </row>
     <row r="4" spans="1:26" ht="186">
       <c r="A4" s="191" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B4" s="192" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C4" s="191" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D4" s="193" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E4" s="194">
         <v>45581</v>
@@ -43130,7 +43170,7 @@
       </c>
       <c r="K4" s="194"/>
       <c r="L4" s="191" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="M4" s="197"/>
       <c r="N4" s="197"/>
@@ -43149,16 +43189,16 @@
     </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" s="176" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B5" s="192" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C5" s="186" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D5" s="198" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E5" s="187">
         <v>45572</v>
@@ -43179,7 +43219,7 @@
       </c>
       <c r="K5" s="187"/>
       <c r="L5" s="190" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="M5" s="177"/>
       <c r="N5" s="177"/>
@@ -43198,16 +43238,16 @@
     </row>
     <row r="6" spans="1:26" ht="117">
       <c r="A6" s="199" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B6" s="199" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C6" s="193" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E6" s="200">
         <v>45602</v>
@@ -43228,7 +43268,7 @@
         <v>45602</v>
       </c>
       <c r="L6" s="201" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M6" s="202"/>
       <c r="N6" s="203"/>
@@ -43247,16 +43287,16 @@
     </row>
     <row r="7" spans="1:26" ht="99.75">
       <c r="A7" s="176" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B7" s="185" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C7" s="204" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D7" s="198" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="E7" s="187">
         <v>45589</v>
@@ -43277,7 +43317,7 @@
       </c>
       <c r="K7" s="198"/>
       <c r="L7" s="206" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M7" s="207"/>
       <c r="N7" s="207"/>
@@ -43296,14 +43336,14 @@
     </row>
     <row r="8" spans="1:26" ht="71.25">
       <c r="A8" s="208" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B8" s="209" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C8" s="210"/>
       <c r="D8" s="210" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E8" s="211">
         <v>45603</v>
@@ -43324,7 +43364,7 @@
       </c>
       <c r="K8" s="211"/>
       <c r="L8" s="213" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M8" s="177"/>
       <c r="N8" s="177"/>
@@ -43343,16 +43383,16 @@
     </row>
     <row r="9" spans="1:26" ht="42.75">
       <c r="A9" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B9" s="215" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C9" s="216" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D9" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E9" s="218">
         <v>45671</v>
@@ -43361,7 +43401,7 @@
         <v>45673</v>
       </c>
       <c r="G9" s="216" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H9" s="218">
         <v>45680</v>
@@ -43375,7 +43415,7 @@
       </c>
       <c r="K9" s="216"/>
       <c r="L9" s="220" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M9" s="221"/>
       <c r="N9" s="221"/>
@@ -43394,14 +43434,14 @@
     </row>
     <row r="10" spans="1:26" ht="57">
       <c r="A10" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B10" s="222"/>
       <c r="C10" s="220" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D10" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E10" s="218">
         <v>45671</v>
@@ -43420,7 +43460,7 @@
       <c r="J10" s="216"/>
       <c r="K10" s="216"/>
       <c r="L10" s="220" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M10" s="221"/>
       <c r="N10" s="221"/>
@@ -43439,14 +43479,14 @@
     </row>
     <row r="11" spans="1:26" ht="42.75">
       <c r="A11" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B11" s="222"/>
       <c r="C11" s="220" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D11" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E11" s="218">
         <v>45671</v>
@@ -43465,7 +43505,7 @@
       <c r="J11" s="216"/>
       <c r="K11" s="216"/>
       <c r="L11" s="220" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M11" s="221"/>
       <c r="N11" s="221"/>
@@ -43484,14 +43524,14 @@
     </row>
     <row r="12" spans="1:26" ht="42.75">
       <c r="A12" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B12" s="222"/>
       <c r="C12" s="220" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D12" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E12" s="218">
         <v>45671</v>
@@ -43510,7 +43550,7 @@
       <c r="J12" s="216"/>
       <c r="K12" s="216"/>
       <c r="L12" s="220" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M12" s="221"/>
       <c r="N12" s="221"/>
@@ -43529,14 +43569,14 @@
     </row>
     <row r="13" spans="1:26" ht="42.75">
       <c r="A13" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B13" s="222"/>
       <c r="C13" s="220" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D13" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E13" s="218">
         <v>45671</v>
@@ -43555,7 +43595,7 @@
       <c r="J13" s="216"/>
       <c r="K13" s="216"/>
       <c r="L13" s="220" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M13" s="221"/>
       <c r="N13" s="221"/>
@@ -43574,14 +43614,14 @@
     </row>
     <row r="14" spans="1:26" ht="42.75">
       <c r="A14" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B14" s="222"/>
       <c r="C14" s="220" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D14" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E14" s="218">
         <v>45671</v>
@@ -43600,7 +43640,7 @@
       <c r="J14" s="216"/>
       <c r="K14" s="216"/>
       <c r="L14" s="216" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M14" s="221"/>
       <c r="N14" s="221"/>
@@ -43619,14 +43659,14 @@
     </row>
     <row r="15" spans="1:26" ht="42.75">
       <c r="A15" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B15" s="222"/>
       <c r="C15" s="220" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D15" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E15" s="218">
         <v>45671</v>
@@ -43645,7 +43685,7 @@
       <c r="J15" s="216"/>
       <c r="K15" s="216"/>
       <c r="L15" s="216" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="M15" s="221"/>
       <c r="N15" s="221"/>
@@ -43664,14 +43704,14 @@
     </row>
     <row r="16" spans="1:26" ht="71.25">
       <c r="A16" s="214" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B16" s="223"/>
       <c r="C16" s="224" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D16" s="217" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E16" s="218">
         <v>45681</v>
@@ -43690,7 +43730,7 @@
       <c r="J16" s="216"/>
       <c r="K16" s="216"/>
       <c r="L16" s="220" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M16" s="221"/>
       <c r="N16" s="221"/>
@@ -50222,7 +50262,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="221" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -50230,7 +50270,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="221" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -50238,7 +50278,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="221" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -50246,7 +50286,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="221" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -50254,7 +50294,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="221" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -50262,7 +50302,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="221" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -50270,7 +50310,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="221" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -50278,7 +50318,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="221" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -50286,7 +50326,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="221" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -50294,7 +50334,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="221" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -50302,7 +50342,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="221" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -50310,7 +50350,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="221" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -50318,7 +50358,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="221" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -50326,7 +50366,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="221" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -50334,7 +50374,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="221" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -50342,7 +50382,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="221" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -50350,7 +50390,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="221" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -50358,7 +50398,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="221" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1"/>
@@ -51370,7 +51410,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="226" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B1" s="221"/>
       <c r="C1" s="221"/>
@@ -51428,7 +51468,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="227" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B3" s="228">
         <v>45596</v>
@@ -51721,261 +51761,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="231" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B4" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C4" s="233" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O4" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P4" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U4" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="V4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE4" s="260" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AF4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL4" s="260" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AM4" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AN4" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AO4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP4" s="260" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AQ4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS4" s="260" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AT4" s="236" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AV4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY4" s="260" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AZ4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BA4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BH4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI4" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ4" s="260" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="BK4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BL4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BM4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BN4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BO4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BP4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BQ4" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BR4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CA4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CB4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CC4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CD4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG4" s="234"/>
       <c r="CH4" s="234"/>
       <c r="CI4" s="260" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="CJ4" s="234"/>
       <c r="CK4" s="234"/>
@@ -51987,249 +52027,249 @@
       <c r="CQ4" s="234"/>
       <c r="CR4" s="234"/>
       <c r="CS4" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="231" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B5" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="M5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="N5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="O5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P5" s="235" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U5" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="V5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE5" s="261"/>
       <c r="AF5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL5" s="261"/>
       <c r="AM5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AO5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP5" s="261"/>
       <c r="AQ5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AR5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AS5" s="261"/>
       <c r="AT5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AU5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AV5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AW5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AX5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AY5" s="261"/>
       <c r="AZ5" s="234" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BA5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BH5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI5" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ5" s="261"/>
       <c r="BK5" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL5" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN5" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BP5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BQ5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BR5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CA5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CB5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CC5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CD5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG5" s="234"/>
       <c r="CH5" s="234"/>
@@ -52244,249 +52284,249 @@
       <c r="CQ5" s="234"/>
       <c r="CR5" s="234"/>
       <c r="CS5" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="231" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B6" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K6" s="237" t="s">
+        <v>287</v>
+      </c>
+      <c r="L6" s="234" t="s">
         <v>278</v>
       </c>
-      <c r="L6" s="234" t="s">
-        <v>269</v>
-      </c>
       <c r="M6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O6" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P6" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U6" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="V6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE6" s="261"/>
       <c r="AF6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL6" s="261"/>
       <c r="AM6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AO6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP6" s="261"/>
       <c r="AQ6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS6" s="261"/>
       <c r="AT6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AV6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY6" s="261"/>
       <c r="AZ6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BA6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BH6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI6" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ6" s="261"/>
       <c r="BK6" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL6" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM6" s="234" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="BN6" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BP6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BQ6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BR6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CA6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CB6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CC6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CD6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG6" s="234"/>
       <c r="CH6" s="234"/>
@@ -52501,198 +52541,198 @@
       <c r="CQ6" s="234"/>
       <c r="CR6" s="234"/>
       <c r="CS6" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="231" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="232" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="J7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="K7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="L7" s="237" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="N7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="O7" s="234" t="s">
         <v>280</v>
       </c>
-      <c r="B7" s="232" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="F7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="K7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="L7" s="237" t="s">
+      <c r="P7" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="M7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="N7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="O7" s="234" t="s">
-        <v>271</v>
-      </c>
-      <c r="P7" s="235" t="s">
-        <v>269</v>
-      </c>
       <c r="Q7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U7" s="235" t="s">
+        <v>290</v>
+      </c>
+      <c r="V7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="W7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="X7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y7" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z7" s="234" t="s">
         <v>281</v>
       </c>
-      <c r="V7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="W7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="X7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y7" s="234" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z7" s="234" t="s">
-        <v>272</v>
-      </c>
       <c r="AA7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE7" s="261"/>
       <c r="AF7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL7" s="261"/>
       <c r="AM7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AO7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP7" s="261"/>
       <c r="AQ7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS7" s="261"/>
       <c r="AT7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU7" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AV7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY7" s="261"/>
       <c r="AZ7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BA7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BH7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI7" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ7" s="261"/>
       <c r="BK7" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL7" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN7" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO7" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BP7" s="234"/>
       <c r="BQ7" s="234"/>
@@ -52700,16 +52740,16 @@
       <c r="BS7" s="234"/>
       <c r="BT7" s="234"/>
       <c r="BU7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX7" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY7" s="234"/>
       <c r="BZ7" s="234"/>
@@ -52735,220 +52775,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="231" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B8" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L8" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O8" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P8" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U8" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="V8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W8" s="234" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="X8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB8" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AC8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE8" s="261"/>
       <c r="AF8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL8" s="261"/>
       <c r="AM8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN8" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AO8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP8" s="261"/>
       <c r="AQ8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS8" s="261"/>
       <c r="AT8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AV8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY8" s="261"/>
       <c r="AZ8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BA8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG8" s="234" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="BH8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI8" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ8" s="261"/>
       <c r="BK8" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL8" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN8" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BP8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BQ8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BR8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW8" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX8" s="234" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="BY8" s="234"/>
       <c r="BZ8" s="234"/>
@@ -52974,244 +53014,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="231" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B9" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O9" s="237" t="s">
+        <v>287</v>
+      </c>
+      <c r="P9" s="235" t="s">
         <v>278</v>
       </c>
-      <c r="P9" s="235" t="s">
-        <v>269</v>
-      </c>
       <c r="Q9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U9" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="V9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE9" s="261"/>
       <c r="AF9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL9" s="261"/>
       <c r="AM9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AO9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP9" s="261"/>
       <c r="AQ9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS9" s="261"/>
       <c r="AT9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AV9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY9" s="261"/>
       <c r="AZ9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BA9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BH9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI9" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ9" s="261"/>
       <c r="BK9" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL9" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN9" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BP9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BQ9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BR9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CA9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CB9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CC9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CD9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG9" s="234"/>
       <c r="CH9" s="234"/>
@@ -53226,249 +53266,249 @@
       <c r="CQ9" s="234"/>
       <c r="CR9" s="234"/>
       <c r="CS9" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="231" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B10" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="J10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O10" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P10" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="R10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="T10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="U10" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="V10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AE10" s="261"/>
       <c r="AF10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AL10" s="261"/>
       <c r="AM10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AN10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AO10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP10" s="261"/>
       <c r="AQ10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS10" s="261"/>
       <c r="AT10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AV10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY10" s="261"/>
       <c r="AZ10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BA10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BB10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BC10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BD10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BE10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BF10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BG10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BH10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI10" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ10" s="261"/>
       <c r="BK10" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL10" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN10" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BP10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BQ10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BR10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW10" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BX10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CA10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CB10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CC10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CD10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG10" s="234"/>
       <c r="CH10" s="234"/>
@@ -53483,249 +53523,249 @@
       <c r="CQ10" s="234"/>
       <c r="CR10" s="234"/>
       <c r="CS10" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="231" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B11" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="G11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="J11" s="234" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="O11" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P11" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="R11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="S11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="T11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="U11" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="V11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Y11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Z11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AB11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AC11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AE11" s="261"/>
       <c r="AF11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AG11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AH11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AI11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL11" s="261"/>
       <c r="AM11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AN11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AO11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AP11" s="261"/>
       <c r="AQ11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AR11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AS11" s="261"/>
       <c r="AT11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AU11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AV11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AW11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AY11" s="261"/>
       <c r="AZ11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BA11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BB11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BC11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BF11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BG11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BH11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI11" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BJ11" s="261"/>
       <c r="BK11" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BL11" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BM11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN11" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BO11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BP11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BQ11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BR11" s="234" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="BS11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BT11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BU11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BX11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BY11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CA11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CB11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CC11" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CD11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG11" s="234"/>
       <c r="CH11" s="234"/>
@@ -53740,249 +53780,249 @@
       <c r="CQ11" s="234"/>
       <c r="CR11" s="234"/>
       <c r="CS11" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="231" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B12" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="I12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="J12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O12" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P12" s="235" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="R12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="S12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="T12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="U12" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="V12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="W12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="X12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Y12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Z12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AA12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AB12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AC12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AE12" s="261"/>
       <c r="AF12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AG12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AH12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AI12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AJ12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AK12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AL12" s="261"/>
       <c r="AM12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AN12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AO12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AP12" s="261"/>
       <c r="AQ12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AR12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AS12" s="261"/>
       <c r="AT12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AU12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AV12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AW12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AX12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AY12" s="261"/>
       <c r="AZ12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BA12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BB12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BC12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BD12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BE12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BF12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BG12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BH12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BI12" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BJ12" s="261"/>
       <c r="BK12" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BL12" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BM12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BN12" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BO12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BP12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BQ12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BR12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BS12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BT12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BU12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BV12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BW12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BX12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BY12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BZ12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CA12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CB12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CC12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CD12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CE12" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CG12" s="234"/>
       <c r="CH12" s="234"/>
@@ -53997,249 +54037,249 @@
       <c r="CQ12" s="234"/>
       <c r="CR12" s="234"/>
       <c r="CS12" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="231" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B13" s="232" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="I13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="J13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="K13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="N13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="O13" s="234" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P13" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="R13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="S13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="T13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="U13" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="V13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="W13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="X13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Y13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="Z13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AA13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AB13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AC13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AD13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AE13" s="262"/>
       <c r="AF13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AG13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AH13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AI13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="AJ13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AK13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AL13" s="262"/>
       <c r="AM13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AN13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AO13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AP13" s="262"/>
       <c r="AQ13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AR13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AS13" s="262"/>
       <c r="AT13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AU13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AV13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AW13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AX13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AY13" s="262"/>
       <c r="AZ13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BA13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BB13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BC13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BD13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BE13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BF13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BG13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BH13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BI13" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BJ13" s="262"/>
       <c r="BK13" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BL13" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BM13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BN13" s="235" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BO13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BP13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BQ13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BR13" s="234" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="BS13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BT13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BU13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BV13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BW13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BX13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BY13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BZ13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CA13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CB13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CC13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="CD13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CE13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CF13" s="234" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="CG13" s="234"/>
       <c r="CH13" s="234"/>
@@ -54254,7 +54294,7 @@
       <c r="CQ13" s="234"/>
       <c r="CR13" s="234"/>
       <c r="CS13" s="234" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -55276,7 +55316,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="238" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B1" s="238" t="s">
         <v>2</v>
@@ -55303,13 +55343,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="242" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K1" s="243" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L1" s="241" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="M1" s="244"/>
       <c r="N1" s="244"/>
@@ -55328,10 +55368,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="245" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B2" s="246" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C2" s="247"/>
       <c r="D2" s="247" t="s">
@@ -55358,7 +55398,7 @@
       </c>
       <c r="K2" s="250"/>
       <c r="L2" s="251" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="M2" s="244"/>
       <c r="N2" s="244"/>
@@ -55377,16 +55417,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="245" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B3" s="263" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C3" s="252" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D3" s="247" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E3" s="248">
         <v>45575</v>
@@ -55405,7 +55445,7 @@
       </c>
       <c r="K3" s="248"/>
       <c r="L3" s="251" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M3" s="253"/>
       <c r="N3" s="244"/>
@@ -55424,14 +55464,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="245" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B4" s="261"/>
       <c r="C4" s="254" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D4" s="247" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E4" s="248">
         <v>45575</v>
@@ -55450,7 +55490,7 @@
       </c>
       <c r="K4" s="255"/>
       <c r="L4" s="258" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M4" s="253"/>
       <c r="N4" s="244"/>
@@ -55469,16 +55509,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="245" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B5" s="241" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C5" s="247" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D5" s="247" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E5" s="248">
         <v>45575</v>
@@ -55497,7 +55537,7 @@
       </c>
       <c r="K5" s="248"/>
       <c r="L5" s="251" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M5" s="253"/>
       <c r="N5" s="244"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="330">
   <si>
     <t>Asignado a</t>
   </si>
@@ -713,7 +713,8 @@
     <t>Creacion de servicio para la captura y trabajo dentro de la plataforma de bonos</t>
   </si>
   <si>
-    <t xml:space="preserve">05/01/2026 Se crea servicio que se comunica con la extracción de filente y que además captura el inicio de sesión de la plataforma para empezar a trabajar automatizadamente con esta </t>
+    <t xml:space="preserve">05/01/2026 Se crea servicio que se comunica con la extracción de filente y que además captura el inicio de sesión de la plataforma para empezar a trabajar automatizadamente con esta 
+13/01/2026 se completa el servicio, se se divide la lógica en tareas ejecutables y se desarrolla la persistencia </t>
   </si>
   <si>
     <t>Identificación de documentos y modificación de necesidad</t>
@@ -723,6 +724,27 @@
   </si>
   <si>
     <t>07/01/2026 Se termina la identificación y se modifica el proceso</t>
+  </si>
+  <si>
+    <t>Interno-H16-4</t>
+  </si>
+  <si>
+    <t>Creacion de servicio place holder con agentes para la identificación de información capturada y análisis OCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/01/2026 Se crea lógica de persistencia para activar servicio </t>
+  </si>
+  <si>
+    <t>REQ-17</t>
+  </si>
+  <si>
+    <t>Radicados con fallos en la trazabilidad se deben analizar y de corregir</t>
+  </si>
+  <si>
+    <t>Modificación de trazabilidad radicados prestaciones</t>
+  </si>
+  <si>
+    <t>14/01/2026 Se analiza y se corrige la trazabilidad para mas de 100 radicados con situación de falla</t>
   </si>
   <si>
     <t>Alejandro Cardona Ocampo</t>
@@ -1181,7 +1203,7 @@
     <t>True</t>
   </si>
   <si>
-    <t>false</t>
+    <t>False</t>
   </si>
 </sst>
 </file>
@@ -3116,9 +3138,9 @@
   </sheetPr>
   <dimension ref="A1:AM940"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -3263,7 +3285,7 @@
         <v>22</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
@@ -3311,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="29.25" customHeight="1">
@@ -3363,7 +3385,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:39" ht="29.25" customHeight="1">
@@ -3415,7 +3437,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
@@ -3467,7 +3489,7 @@
         <v>35</v>
       </c>
       <c r="Q6" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
@@ -3519,7 +3541,7 @@
         <v>38</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
@@ -3567,7 +3589,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
@@ -3615,7 +3637,7 @@
         <v>45</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R9" s="61"/>
       <c r="S9" s="61"/>
@@ -3683,7 +3705,7 @@
         <v>48</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
@@ -3755,7 +3777,7 @@
         <v>51</v>
       </c>
       <c r="Q11" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R11" s="61"/>
       <c r="S11" s="61"/>
@@ -3827,7 +3849,7 @@
         <v>55</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
@@ -3897,7 +3919,7 @@
         <v>59</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R13" s="61"/>
       <c r="S13" s="61"/>
@@ -3965,7 +3987,7 @@
         <v>62</v>
       </c>
       <c r="Q14" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="R14" s="68"/>
       <c r="S14" s="68"/>
@@ -4035,7 +4057,7 @@
         <v>65</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="40.5" customHeight="1">
@@ -4083,7 +4105,7 @@
         <v>68</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="48" customHeight="1">
@@ -4131,7 +4153,7 @@
         <v>71</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="42" customHeight="1">
@@ -4179,7 +4201,7 @@
         <v>74</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="29.25" customHeight="1">
@@ -4227,7 +4249,7 @@
         <v>77</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="29.25" customHeight="1">
@@ -4263,7 +4285,7 @@
       <c r="L20" s="82"/>
       <c r="M20" s="24">
         <f ca="1">IF(ISBLANK(L20), NETWORKDAYS(J20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J20, L20, Hoja2!$A$1:$A$18))</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N20" s="56"/>
       <c r="O20" s="57"/>
@@ -4271,7 +4293,7 @@
         <v>80</v>
       </c>
       <c r="Q20" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="39" customHeight="1">
@@ -4298,7 +4320,7 @@
       <c r="L21" s="85"/>
       <c r="M21" s="39">
         <f ca="1">IF(ISBLANK(L21), NETWORKDAYS(I20, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(I20, L21, Hoja2!$A$1:$A$18))</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N21" s="72"/>
       <c r="O21" s="60"/>
@@ -4306,7 +4328,7 @@
         <v>84</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="129.75" customHeight="1">
@@ -4356,7 +4378,7 @@
         <v>87</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="69" customHeight="1">
@@ -4404,7 +4426,7 @@
         <v>90</v>
       </c>
       <c r="Q23" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="78.75" customHeight="1">
@@ -4452,7 +4474,7 @@
         <v>93</v>
       </c>
       <c r="Q24" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="63" customHeight="1">
@@ -4504,7 +4526,7 @@
         <v>97</v>
       </c>
       <c r="Q25" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="67.5" customHeight="1">
@@ -4552,7 +4574,7 @@
         <v>101</v>
       </c>
       <c r="Q26" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="55.5" customHeight="1">
@@ -4582,13 +4604,13 @@
       <c r="L27" s="85"/>
       <c r="M27" s="39">
         <f ca="1">IF(ISBLANK(L27), NETWORKDAYS(J27, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J27, L27, Hoja2!$A$1:$A$18))</f>
-        <v>32867</v>
+        <v>32869</v>
       </c>
       <c r="N27" s="72"/>
       <c r="O27" s="60"/>
       <c r="P27" s="93"/>
       <c r="Q27" s="43" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="138" customHeight="1">
@@ -4636,7 +4658,7 @@
         <v>106</v>
       </c>
       <c r="Q28" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="67.5" customHeight="1">
@@ -4684,7 +4706,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="85.5">
@@ -4730,7 +4752,7 @@
       <c r="O30" s="57"/>
       <c r="P30" s="94"/>
       <c r="Q30" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="71.25">
@@ -4776,7 +4798,7 @@
       <c r="O31" s="60"/>
       <c r="P31" s="95"/>
       <c r="Q31" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="42.75">
@@ -4820,7 +4842,7 @@
       <c r="O32" s="57"/>
       <c r="P32" s="94"/>
       <c r="Q32" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="76.5" customHeight="1">
@@ -4868,7 +4890,7 @@
         <v>116</v>
       </c>
       <c r="Q33" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="38.25">
@@ -4918,7 +4940,7 @@
         <v>120</v>
       </c>
       <c r="Q34" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="42.75">
@@ -4968,7 +4990,7 @@
         <v>120</v>
       </c>
       <c r="Q35" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="93" customHeight="1">
@@ -5018,7 +5040,7 @@
         <v>125</v>
       </c>
       <c r="Q36" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="76.5" customHeight="1">
@@ -5068,7 +5090,7 @@
         <v>129</v>
       </c>
       <c r="Q37" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="120.75" customHeight="1">
@@ -5106,7 +5128,7 @@
       <c r="L38" s="67"/>
       <c r="M38" s="24">
         <f ca="1">IF(ISBLANK(L38), NETWORKDAYS(J38, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J38, L38, Hoja2!$A$1:$A$18))</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N38" s="67"/>
       <c r="O38" s="57"/>
@@ -5114,7 +5136,7 @@
         <v>134</v>
       </c>
       <c r="Q38" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="162" customHeight="1">
@@ -5164,7 +5186,7 @@
         <v>137</v>
       </c>
       <c r="Q39" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="93" customHeight="1">
@@ -5216,7 +5238,7 @@
         <v>140</v>
       </c>
       <c r="Q40" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="93" customHeight="1">
@@ -5266,7 +5288,7 @@
         <v>145</v>
       </c>
       <c r="Q41" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="67.5" customHeight="1">
@@ -5318,7 +5340,7 @@
         <v>148</v>
       </c>
       <c r="Q42" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="93" customHeight="1">
@@ -5370,7 +5392,7 @@
         <v>152</v>
       </c>
       <c r="Q43" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="93" customHeight="1">
@@ -5422,7 +5444,7 @@
         <v>156</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="93" customHeight="1">
@@ -5474,7 +5496,7 @@
         <v>160</v>
       </c>
       <c r="Q45" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="162" customHeight="1">
@@ -5526,7 +5548,7 @@
         <v>164</v>
       </c>
       <c r="Q46" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="162" customHeight="1">
@@ -5578,7 +5600,7 @@
         <v>167</v>
       </c>
       <c r="Q47" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="162" customHeight="1">
@@ -5630,7 +5652,7 @@
         <v>170</v>
       </c>
       <c r="Q48" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="1:39" ht="162" customHeight="1">
@@ -5682,7 +5704,7 @@
         <v>173</v>
       </c>
       <c r="Q49" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:39" ht="162" customHeight="1">
@@ -5734,7 +5756,7 @@
         <v>176</v>
       </c>
       <c r="Q50" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="1:39" ht="162" customHeight="1">
@@ -5786,7 +5808,7 @@
         <v>179</v>
       </c>
       <c r="Q51" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:39" ht="162" customHeight="1">
@@ -5836,7 +5858,7 @@
         <v>182</v>
       </c>
       <c r="Q52" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:39" ht="101.25" customHeight="1">
@@ -5886,7 +5908,7 @@
         <v>186</v>
       </c>
       <c r="Q53" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:39" ht="110.25" customHeight="1">
@@ -5936,7 +5958,7 @@
         <v>190</v>
       </c>
       <c r="Q54" s="28" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:39" ht="162" customHeight="1">
@@ -5957,7 +5979,7 @@
         <v>193</v>
       </c>
       <c r="G55" s="34">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H55" s="48">
         <v>4</v>
@@ -5986,7 +6008,7 @@
         <v>194</v>
       </c>
       <c r="Q55" s="43" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:39" ht="162" customHeight="1">
@@ -6004,7 +6026,7 @@
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="58" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="G56" s="20">
         <v>90</v>
@@ -6021,15 +6043,22 @@
       <c r="K56" s="67">
         <v>46031</v>
       </c>
-      <c r="L56" s="67"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="67"/>
+      <c r="L56" s="67">
+        <v>46035</v>
+      </c>
+      <c r="M56" s="24">
+        <f ca="1">IF(ISBLANK(N56), NETWORKDAYS(J56, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J56, N56, Hoja2!$A$1:$A$18))</f>
+        <v>11</v>
+      </c>
+      <c r="N56" s="67">
+        <v>46035</v>
+      </c>
       <c r="O56" s="67"/>
       <c r="P56" s="94" t="s">
         <v>197</v>
       </c>
       <c r="Q56" s="98" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:39" ht="110.25" customHeight="1">
@@ -6081,90 +6110,106 @@
         <v>200</v>
       </c>
       <c r="Q57" s="43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="106"/>
-      <c r="J58" s="107"/>
-      <c r="K58" s="107"/>
-      <c r="L58" s="107"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="106"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
-      <c r="AE58" s="68"/>
-      <c r="AF58" s="68"/>
-      <c r="AG58" s="68"/>
-      <c r="AH58" s="68"/>
-      <c r="AI58" s="68"/>
-      <c r="AJ58" s="68"/>
-      <c r="AK58" s="68"/>
-      <c r="AL58" s="68"/>
-      <c r="AM58" s="69"/>
-    </row>
-    <row r="59" spans="1:39" ht="29.25" customHeight="1">
-      <c r="A59" s="111"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="119"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="121"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="122"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
-      <c r="AB59" s="61"/>
-      <c r="AC59" s="61"/>
-      <c r="AD59" s="61"/>
-      <c r="AE59" s="61"/>
-      <c r="AF59" s="61"/>
-      <c r="AG59" s="61"/>
-      <c r="AH59" s="61"/>
-      <c r="AI59" s="61"/>
-      <c r="AJ59" s="61"/>
-      <c r="AK59" s="61"/>
-      <c r="AL59" s="61"/>
-      <c r="AM59" s="62"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" ht="162" customHeight="1">
+      <c r="A58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" s="20">
+        <v>10</v>
+      </c>
+      <c r="H58" s="65">
+        <v>6</v>
+      </c>
+      <c r="I58" s="66">
+        <v>46036</v>
+      </c>
+      <c r="J58" s="66">
+        <v>46036</v>
+      </c>
+      <c r="K58" s="67">
+        <v>46041</v>
+      </c>
+      <c r="L58" s="67"/>
+      <c r="M58" s="24">
+        <f ca="1">IF(ISBLANK(N58), NETWORKDAYS(J58, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J58, N58, Hoja2!$A$1:$A$18))</f>
+        <v>3</v>
+      </c>
+      <c r="N58" s="67"/>
+      <c r="O58" s="67"/>
+      <c r="P58" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q58" s="98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" ht="110.25" customHeight="1">
+      <c r="A59" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="F59" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="90">
+        <v>100</v>
+      </c>
+      <c r="H59" s="48">
+        <v>2</v>
+      </c>
+      <c r="I59" s="54">
+        <v>46035</v>
+      </c>
+      <c r="J59" s="54">
+        <v>46036</v>
+      </c>
+      <c r="K59" s="71">
+        <v>46036</v>
+      </c>
+      <c r="L59" s="71">
+        <v>46036</v>
+      </c>
+      <c r="M59" s="39">
+        <f ca="1">IF(ISBLANK(L59), NETWORKDAYS(J59, TODAY(),Hoja2!$A$1:$A$18), NETWORKDAYS(J59, L59, Hoja2!$A$1:$A$18))</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="71">
+        <v>46036</v>
+      </c>
+      <c r="O59" s="71">
+        <v>46036</v>
+      </c>
+      <c r="P59" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q59" s="43" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="60" spans="1:39" ht="29.25" customHeight="1">
       <c r="A60" s="99"/>
@@ -42395,19 +42440,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B2" s="140" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D2" s="140" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="140" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F2" s="142" t="s">
         <v>21</v>
@@ -42442,19 +42487,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B3" s="140" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="141" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D3" s="140" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F3" s="142" t="s">
         <v>21</v>
@@ -42489,19 +42534,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B4" s="140" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D4" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="F4" s="142" t="s">
         <v>21</v>
@@ -42540,19 +42585,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B5" s="140" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="141" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D5" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="156" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F5" s="142" t="s">
         <v>21</v>
@@ -42591,19 +42636,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B6" s="140" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="141" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D6" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="158" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F6" s="159" t="s">
         <v>21</v>
@@ -42642,19 +42687,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B7" s="140" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="141" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D7" s="140" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="140" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F7" s="161" t="s">
         <v>21</v>
@@ -42693,19 +42738,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B8" s="140" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="141" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D8" s="140" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="163" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F8" s="142" t="s">
         <v>21</v>
@@ -42740,17 +42785,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B9" s="140" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="167" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D9" s="168"/>
       <c r="E9" s="140" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F9" s="161" t="s">
         <v>21</v>
@@ -42787,17 +42832,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B10" s="140" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="167" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D10" s="168"/>
       <c r="E10" s="140" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F10" s="161" t="s">
         <v>21</v>
@@ -42832,19 +42877,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B11" s="140" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="141" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D11" s="140" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="170" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="F11" s="161" t="s">
         <v>21</v>
@@ -42881,19 +42926,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B12" s="140" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="171" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D12" s="140" t="s">
         <v>54</v>
       </c>
       <c r="E12" s="140" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F12" s="161" t="s">
         <v>21</v>
@@ -42930,19 +42975,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B13" s="140" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="167" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D13" s="140" t="s">
         <v>58</v>
       </c>
       <c r="E13" s="140" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F13" s="161" t="s">
         <v>21</v>
@@ -42977,7 +43022,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="139" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B14" s="140" t="s">
         <v>60</v>
@@ -42987,7 +43032,7 @@
       </c>
       <c r="D14" s="172"/>
       <c r="E14" s="158" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F14" s="166" t="s">
         <v>21</v>
@@ -43065,7 +43110,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30">
       <c r="A1" s="173" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B1" s="173" t="s">
         <v>2</v>
@@ -43092,13 +43137,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="176" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K1" s="173" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L1" s="177" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M1" s="178"/>
       <c r="N1" s="178"/>
@@ -43117,14 +43162,14 @@
     </row>
     <row r="2" spans="1:26" ht="30">
       <c r="A2" s="179" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B2" s="180" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C2" s="181"/>
       <c r="D2" s="182" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E2" s="183">
         <v>45526</v>
@@ -43138,7 +43183,7 @@
       <c r="J2" s="181"/>
       <c r="K2" s="181"/>
       <c r="L2" s="181" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="M2" s="184"/>
       <c r="N2" s="184"/>
@@ -43157,13 +43202,13 @@
     </row>
     <row r="3" spans="1:26" ht="28.5">
       <c r="A3" s="185" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B3" s="186" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C3" s="187" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D3" s="187" t="s">
         <v>21</v>
@@ -43187,7 +43232,7 @@
       </c>
       <c r="K3" s="189"/>
       <c r="L3" s="191" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M3" s="178"/>
       <c r="N3" s="178"/>
@@ -43206,16 +43251,16 @@
     </row>
     <row r="4" spans="1:26" ht="186">
       <c r="A4" s="192" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B4" s="193" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C4" s="192" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="D4" s="194" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E4" s="195">
         <v>45581</v>
@@ -43238,7 +43283,7 @@
       </c>
       <c r="K4" s="195"/>
       <c r="L4" s="192" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M4" s="198"/>
       <c r="N4" s="198"/>
@@ -43257,13 +43302,13 @@
     </row>
     <row r="5" spans="1:26" ht="30">
       <c r="A5" s="177" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B5" s="193" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C5" s="187" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D5" s="199" t="s">
         <v>193</v>
@@ -43287,7 +43332,7 @@
       </c>
       <c r="K5" s="188"/>
       <c r="L5" s="191" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M5" s="178"/>
       <c r="N5" s="178"/>
@@ -43306,16 +43351,16 @@
     </row>
     <row r="6" spans="1:26" ht="117">
       <c r="A6" s="200" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B6" s="200" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C6" s="194" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="E6" s="201">
         <v>45602</v>
@@ -43336,7 +43381,7 @@
         <v>45602</v>
       </c>
       <c r="L6" s="202" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M6" s="203"/>
       <c r="N6" s="204"/>
@@ -43355,13 +43400,13 @@
     </row>
     <row r="7" spans="1:26" ht="99.75">
       <c r="A7" s="177" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B7" s="186" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C7" s="205" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D7" s="199" t="s">
         <v>193</v>
@@ -43385,7 +43430,7 @@
       </c>
       <c r="K7" s="199"/>
       <c r="L7" s="207" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="M7" s="208"/>
       <c r="N7" s="208"/>
@@ -43404,14 +43449,14 @@
     </row>
     <row r="8" spans="1:26" ht="71.25">
       <c r="A8" s="209" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B8" s="210" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C8" s="211"/>
       <c r="D8" s="211" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E8" s="212">
         <v>45603</v>
@@ -43432,7 +43477,7 @@
       </c>
       <c r="K8" s="212"/>
       <c r="L8" s="214" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="M8" s="178"/>
       <c r="N8" s="178"/>
@@ -43451,16 +43496,16 @@
     </row>
     <row r="9" spans="1:26" ht="42.75">
       <c r="A9" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B9" s="216" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C9" s="217" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D9" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E9" s="219">
         <v>45671</v>
@@ -43469,7 +43514,7 @@
         <v>45673</v>
       </c>
       <c r="G9" s="217" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="H9" s="219">
         <v>45680</v>
@@ -43483,7 +43528,7 @@
       </c>
       <c r="K9" s="217"/>
       <c r="L9" s="221" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M9" s="222"/>
       <c r="N9" s="222"/>
@@ -43502,14 +43547,14 @@
     </row>
     <row r="10" spans="1:26" ht="57">
       <c r="A10" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B10" s="223"/>
       <c r="C10" s="221" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D10" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E10" s="219">
         <v>45671</v>
@@ -43528,7 +43573,7 @@
       <c r="J10" s="217"/>
       <c r="K10" s="217"/>
       <c r="L10" s="221" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M10" s="222"/>
       <c r="N10" s="222"/>
@@ -43547,14 +43592,14 @@
     </row>
     <row r="11" spans="1:26" ht="42.75">
       <c r="A11" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B11" s="223"/>
       <c r="C11" s="221" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D11" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E11" s="219">
         <v>45671</v>
@@ -43573,7 +43618,7 @@
       <c r="J11" s="217"/>
       <c r="K11" s="217"/>
       <c r="L11" s="221" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M11" s="222"/>
       <c r="N11" s="222"/>
@@ -43592,14 +43637,14 @@
     </row>
     <row r="12" spans="1:26" ht="42.75">
       <c r="A12" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B12" s="223"/>
       <c r="C12" s="221" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D12" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E12" s="219">
         <v>45671</v>
@@ -43618,7 +43663,7 @@
       <c r="J12" s="217"/>
       <c r="K12" s="217"/>
       <c r="L12" s="221" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M12" s="222"/>
       <c r="N12" s="222"/>
@@ -43637,14 +43682,14 @@
     </row>
     <row r="13" spans="1:26" ht="42.75">
       <c r="A13" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B13" s="223"/>
       <c r="C13" s="221" t="s">
+        <v>268</v>
+      </c>
+      <c r="D13" s="218" t="s">
         <v>261</v>
-      </c>
-      <c r="D13" s="218" t="s">
-        <v>254</v>
       </c>
       <c r="E13" s="219">
         <v>45671</v>
@@ -43663,7 +43708,7 @@
       <c r="J13" s="217"/>
       <c r="K13" s="217"/>
       <c r="L13" s="221" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M13" s="222"/>
       <c r="N13" s="222"/>
@@ -43682,14 +43727,14 @@
     </row>
     <row r="14" spans="1:26" ht="42.75">
       <c r="A14" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B14" s="223"/>
       <c r="C14" s="221" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D14" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E14" s="219">
         <v>45671</v>
@@ -43708,7 +43753,7 @@
       <c r="J14" s="217"/>
       <c r="K14" s="217"/>
       <c r="L14" s="217" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M14" s="222"/>
       <c r="N14" s="222"/>
@@ -43727,14 +43772,14 @@
     </row>
     <row r="15" spans="1:26" ht="42.75">
       <c r="A15" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B15" s="223"/>
       <c r="C15" s="221" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D15" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E15" s="219">
         <v>45671</v>
@@ -43753,7 +43798,7 @@
       <c r="J15" s="217"/>
       <c r="K15" s="217"/>
       <c r="L15" s="217" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="M15" s="222"/>
       <c r="N15" s="222"/>
@@ -43772,14 +43817,14 @@
     </row>
     <row r="16" spans="1:26" ht="71.25">
       <c r="A16" s="215" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B16" s="224"/>
       <c r="C16" s="225" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D16" s="218" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E16" s="219">
         <v>45681</v>
@@ -43798,7 +43843,7 @@
       <c r="J16" s="217"/>
       <c r="K16" s="217"/>
       <c r="L16" s="221" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M16" s="222"/>
       <c r="N16" s="222"/>
@@ -50330,7 +50375,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="222" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -50338,7 +50383,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="222" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -50346,7 +50391,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="222" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -50354,7 +50399,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="222" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -50362,7 +50407,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="222" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -50370,7 +50415,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="222" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -50378,7 +50423,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="222" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -50386,7 +50431,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="222" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -50394,7 +50439,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="222" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -50402,7 +50447,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="222" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -50410,7 +50455,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="222" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -50418,7 +50463,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="222" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -50426,7 +50471,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="222" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -50434,7 +50479,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="222" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -50442,7 +50487,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="222" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -50450,7 +50495,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="222" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -50458,7 +50503,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="222" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -50466,7 +50511,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="222" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1"/>
@@ -51478,7 +51523,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="227" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B1" s="222"/>
       <c r="C1" s="222"/>
@@ -51536,7 +51581,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="228" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B3" s="229">
         <v>45596</v>
@@ -51829,261 +51874,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="232" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B4" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C4" s="234" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="D4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O4" s="235" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P4" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="R4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="U4" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="V4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE4" s="261" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AF4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL4" s="261" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AM4" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AN4" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AO4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP4" s="261" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AQ4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS4" s="261" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AT4" s="237" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AV4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY4" s="261" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="AZ4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BA4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BB4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BH4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI4" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ4" s="261" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="BK4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BL4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BN4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BO4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BP4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BQ4" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="BR4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BL4" s="236" t="s">
+      <c r="BS4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BM4" s="236" t="s">
+      <c r="BT4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BN4" s="236" t="s">
+      <c r="BU4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BO4" s="236" t="s">
+      <c r="BV4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BP4" s="236" t="s">
+      <c r="BW4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BQ4" s="236" t="s">
+      <c r="BX4" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BR4" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="BS4" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="BT4" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="BU4" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="BV4" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="BW4" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="BX4" s="235" t="s">
-        <v>287</v>
-      </c>
       <c r="BY4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CA4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CB4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CC4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CD4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG4" s="235"/>
       <c r="CH4" s="235"/>
       <c r="CI4" s="261" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="CJ4" s="235"/>
       <c r="CK4" s="235"/>
@@ -52095,249 +52140,249 @@
       <c r="CQ4" s="235"/>
       <c r="CR4" s="235"/>
       <c r="CS4" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="232" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B5" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L5" s="235" t="s">
+        <v>301</v>
+      </c>
+      <c r="M5" s="235" t="s">
+        <v>301</v>
+      </c>
+      <c r="N5" s="235" t="s">
+        <v>301</v>
+      </c>
+      <c r="O5" s="235" t="s">
+        <v>301</v>
+      </c>
+      <c r="P5" s="236" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q5" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="M5" s="235" t="s">
+      <c r="R5" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="N5" s="235" t="s">
+      <c r="S5" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="O5" s="235" t="s">
+      <c r="T5" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="P5" s="236" t="s">
+      <c r="U5" s="236" t="s">
         <v>294</v>
       </c>
-      <c r="Q5" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="R5" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="S5" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="T5" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="U5" s="236" t="s">
-        <v>287</v>
-      </c>
       <c r="V5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE5" s="262"/>
       <c r="AF5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL5" s="262"/>
       <c r="AM5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AO5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP5" s="262"/>
       <c r="AQ5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AR5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AS5" s="262"/>
       <c r="AT5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AU5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AV5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AW5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AX5" s="235" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="AY5" s="262"/>
       <c r="AZ5" s="235" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA5" s="235" t="s">
         <v>294</v>
       </c>
-      <c r="BA5" s="235" t="s">
-        <v>287</v>
-      </c>
       <c r="BB5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BH5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI5" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ5" s="262"/>
       <c r="BK5" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL5" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN5" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BP5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BQ5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BR5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BS5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BT5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BU5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BX5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CA5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CB5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CC5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CD5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG5" s="235"/>
       <c r="CH5" s="235"/>
@@ -52352,249 +52397,249 @@
       <c r="CQ5" s="235"/>
       <c r="CR5" s="235"/>
       <c r="CS5" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="232" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B6" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K6" s="238" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="M6" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="N6" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="O6" s="235" t="s">
         <v>296</v>
       </c>
-      <c r="L6" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="M6" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="N6" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="O6" s="235" t="s">
-        <v>289</v>
-      </c>
       <c r="P6" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="R6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="U6" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE6" s="262"/>
       <c r="AF6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL6" s="262"/>
       <c r="AM6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AO6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP6" s="262"/>
       <c r="AQ6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS6" s="262"/>
       <c r="AT6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AV6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY6" s="262"/>
       <c r="AZ6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BA6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BB6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BH6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI6" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ6" s="262"/>
       <c r="BK6" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL6" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM6" s="235" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="BN6" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BP6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BQ6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BR6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BS6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BT6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BU6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BX6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CA6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CB6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CC6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CD6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG6" s="235"/>
       <c r="CH6" s="235"/>
@@ -52609,198 +52654,198 @@
       <c r="CQ6" s="235"/>
       <c r="CR6" s="235"/>
       <c r="CS6" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="232" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B7" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L7" s="238" t="s">
+        <v>303</v>
+      </c>
+      <c r="M7" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="N7" s="235" t="s">
+        <v>294</v>
+      </c>
+      <c r="O7" s="235" t="s">
         <v>296</v>
       </c>
-      <c r="M7" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="N7" s="235" t="s">
-        <v>287</v>
-      </c>
-      <c r="O7" s="235" t="s">
-        <v>289</v>
-      </c>
       <c r="P7" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="R7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="U7" s="236" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="V7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z7" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AA7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE7" s="262"/>
       <c r="AF7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL7" s="262"/>
       <c r="AM7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AO7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP7" s="262"/>
       <c r="AQ7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS7" s="262"/>
       <c r="AT7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU7" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AV7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY7" s="262"/>
       <c r="AZ7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BA7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BB7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BH7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI7" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ7" s="262"/>
       <c r="BK7" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL7" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN7" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO7" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BP7" s="235"/>
       <c r="BQ7" s="235"/>
@@ -52808,16 +52853,16 @@
       <c r="BS7" s="235"/>
       <c r="BT7" s="235"/>
       <c r="BU7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BX7" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY7" s="235"/>
       <c r="BZ7" s="235"/>
@@ -52843,220 +52888,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="232" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B8" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L8" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O8" s="235" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P8" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="R8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="U8" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W8" s="235" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="X8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB8" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AC8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE8" s="262"/>
       <c r="AF8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL8" s="262"/>
       <c r="AM8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN8" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AO8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP8" s="262"/>
       <c r="AQ8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS8" s="262"/>
       <c r="AT8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AV8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY8" s="262"/>
       <c r="AZ8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BA8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BB8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG8" s="235" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="BH8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI8" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ8" s="262"/>
       <c r="BK8" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL8" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN8" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BP8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BQ8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BR8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BS8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BT8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BU8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW8" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BX8" s="235" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="BY8" s="235"/>
       <c r="BZ8" s="235"/>
@@ -53082,244 +53127,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="232" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B9" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O9" s="238" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P9" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="R9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="U9" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="V9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE9" s="262"/>
       <c r="AF9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL9" s="262"/>
       <c r="AM9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AO9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP9" s="262"/>
       <c r="AQ9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS9" s="262"/>
       <c r="AT9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AV9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY9" s="262"/>
       <c r="AZ9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BA9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BB9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BH9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI9" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ9" s="262"/>
       <c r="BK9" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL9" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN9" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BP9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BQ9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BR9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BS9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BT9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BU9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BX9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CA9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CB9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CC9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CD9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG9" s="235"/>
       <c r="CH9" s="235"/>
@@ -53334,249 +53379,249 @@
       <c r="CQ9" s="235"/>
       <c r="CR9" s="235"/>
       <c r="CS9" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="232" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B10" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O10" s="235" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P10" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="R10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="T10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="U10" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="V10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AE10" s="262"/>
       <c r="AF10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AL10" s="262"/>
       <c r="AM10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AN10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AO10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP10" s="262"/>
       <c r="AQ10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS10" s="262"/>
       <c r="AT10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AV10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY10" s="262"/>
       <c r="AZ10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BA10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BB10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BC10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BD10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BE10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BF10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BG10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BH10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI10" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ10" s="262"/>
       <c r="BK10" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL10" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN10" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BP10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BQ10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BR10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BS10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BT10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BU10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW10" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BX10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CA10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CB10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CC10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CD10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG10" s="235"/>
       <c r="CH10" s="235"/>
@@ -53591,249 +53636,249 @@
       <c r="CQ10" s="235"/>
       <c r="CR10" s="235"/>
       <c r="CS10" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="232" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B11" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="H11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="J11" s="235" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O11" s="235" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P11" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="R11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="S11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="T11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="U11" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="V11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Y11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Z11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AB11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AC11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AE11" s="262"/>
       <c r="AF11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AG11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AH11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AI11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL11" s="262"/>
       <c r="AM11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AN11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AO11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AP11" s="262"/>
       <c r="AQ11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AR11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AS11" s="262"/>
       <c r="AT11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AU11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AV11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AW11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AY11" s="262"/>
       <c r="AZ11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BA11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BB11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BC11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BE11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BF11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BG11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BH11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI11" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BJ11" s="262"/>
       <c r="BK11" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BL11" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BM11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN11" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BO11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BP11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BQ11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BR11" s="235" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="BS11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BT11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BU11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BX11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BY11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CA11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CB11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CC11" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CD11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG11" s="235"/>
       <c r="CH11" s="235"/>
@@ -53848,249 +53893,249 @@
       <c r="CQ11" s="235"/>
       <c r="CR11" s="235"/>
       <c r="CS11" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="232" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B12" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="E12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="I12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="N12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O12" s="235" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P12" s="236" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="R12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="S12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="T12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="U12" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="V12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="W12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="X12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Y12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Z12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AA12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AB12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AC12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AE12" s="262"/>
       <c r="AF12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AG12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AH12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AI12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AJ12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AK12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AL12" s="262"/>
       <c r="AM12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AN12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AO12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AP12" s="262"/>
       <c r="AQ12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AR12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AS12" s="262"/>
       <c r="AT12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AU12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AV12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AW12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AX12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AY12" s="262"/>
       <c r="AZ12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BA12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BB12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BC12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BD12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BE12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BF12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BG12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BH12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BI12" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BJ12" s="262"/>
       <c r="BK12" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BL12" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BM12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BN12" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BO12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BP12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BQ12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BR12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BS12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BT12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BU12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BV12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BW12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BX12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BY12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="BZ12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CA12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CB12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CC12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CD12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CE12" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CG12" s="235"/>
       <c r="CH12" s="235"/>
@@ -54105,249 +54150,249 @@
       <c r="CQ12" s="235"/>
       <c r="CR12" s="235"/>
       <c r="CS12" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="232" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B13" s="233" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="E13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="F13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="I13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="J13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="K13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="O13" s="235" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P13" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="R13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="S13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="T13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="U13" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="V13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="W13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="X13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Y13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Z13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AA13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AB13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AC13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AD13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AE13" s="263"/>
       <c r="AF13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AG13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AH13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AI13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="AJ13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AK13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AL13" s="263"/>
       <c r="AM13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AN13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AO13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AP13" s="263"/>
       <c r="AQ13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AR13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AS13" s="263"/>
       <c r="AT13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AU13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AV13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AW13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AX13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AY13" s="263"/>
       <c r="AZ13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BA13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BB13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BC13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BD13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BE13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BF13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BG13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BH13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BI13" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BJ13" s="263"/>
       <c r="BK13" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BL13" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BM13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BN13" s="236" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BO13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BP13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BQ13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BR13" s="235" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="BS13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BT13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BU13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BV13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BW13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BX13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BY13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="BZ13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CA13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CB13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CC13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CD13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CE13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CF13" s="235" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="CG13" s="235"/>
       <c r="CH13" s="235"/>
@@ -54362,7 +54407,7 @@
       <c r="CQ13" s="235"/>
       <c r="CR13" s="235"/>
       <c r="CS13" s="235" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -55384,7 +55429,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="239" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B1" s="239" t="s">
         <v>2</v>
@@ -55411,13 +55456,13 @@
         <v>12</v>
       </c>
       <c r="J1" s="243" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K1" s="244" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L1" s="242" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M1" s="245"/>
       <c r="N1" s="245"/>
@@ -55436,10 +55481,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="246" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B2" s="247" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C2" s="248"/>
       <c r="D2" s="248" t="s">
@@ -55466,7 +55511,7 @@
       </c>
       <c r="K2" s="251"/>
       <c r="L2" s="252" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M2" s="245"/>
       <c r="N2" s="245"/>
@@ -55485,16 +55530,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="246" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B3" s="264" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C3" s="253" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D3" s="248" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E3" s="249">
         <v>45575</v>
@@ -55513,7 +55558,7 @@
       </c>
       <c r="K3" s="249"/>
       <c r="L3" s="252" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M3" s="254"/>
       <c r="N3" s="245"/>
@@ -55532,14 +55577,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="246" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B4" s="262"/>
       <c r="C4" s="255" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D4" s="248" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E4" s="249">
         <v>45575</v>
@@ -55558,7 +55603,7 @@
       </c>
       <c r="K4" s="256"/>
       <c r="L4" s="259" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M4" s="254"/>
       <c r="N4" s="245"/>
@@ -55577,16 +55622,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="246" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B5" s="242" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C5" s="248" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D5" s="248" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E5" s="249">
         <v>45575</v>
@@ -55605,7 +55650,7 @@
       </c>
       <c r="K5" s="249"/>
       <c r="L5" s="252" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M5" s="254"/>
       <c r="N5" s="245"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="363">
   <si>
     <t>Asignado a</t>
   </si>
@@ -866,6 +866,34 @@
   </si>
   <si>
     <t>Modificación de obtención de motivos y causas de rechazo. Se necesita crear lógica asincrona para mejorar tiempos de procedimiento</t>
+  </si>
+  <si>
+    <t>04/02/2026 Se cambia la lógica actual que estaba presentando lentitud en la gestión del operador por una asyncrona que se renueva todos los días</t>
+  </si>
+  <si>
+    <t>Interno-H16-12</t>
+  </si>
+  <si>
+    <t>Procesos de mejora de rendimiento de tiempo al aprovar y rechazar un documento. Trasladando el proceso síncrono a uno asíncrono</t>
+  </si>
+  <si>
+    <t>05/02/2026 Se agrega termina de cambiar la lógica y de agregar el script que ejecute asíncronamente el envió 
+06/02/2026 Se esta en proceso de pruebas y cambiosdebido a que se han presentado situaciones que deben de darse mantenimiento</t>
+  </si>
+  <si>
+    <t>Interno-H16-13</t>
+  </si>
+  <si>
+    <t>Adición de modulos para la asignación y filtro de información</t>
+  </si>
+  <si>
+    <t>05/02/2026 Se agrega los nuevos módulos, se prueban y se pasan a producción</t>
+  </si>
+  <si>
+    <t>Interno-H16-14</t>
+  </si>
+  <si>
+    <t>Identificación de problemas con el servidor al momento de hacer cargues pesados</t>
   </si>
   <si>
     <t>dias estimados</t>
@@ -1204,10 +1232,10 @@
     <t>Internal Server Error</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,6 +2350,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2698,11 +2732,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2858,7 +2892,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="29.25" customHeight="1">
@@ -2913,7 +2947,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="29.25" customHeight="1">
@@ -2972,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="29.25" customHeight="1">
@@ -3031,7 +3065,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="29.25" customHeight="1">
@@ -3090,7 +3124,7 @@
         <v>36</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="29.25" customHeight="1">
@@ -3149,7 +3183,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="29.25" customHeight="1">
@@ -3204,7 +3238,7 @@
         <v>43</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="29.25" customHeight="1">
@@ -3259,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -3334,7 +3368,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -3413,7 +3447,7 @@
         <v>52</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
@@ -3492,7 +3526,7 @@
         <v>56</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -3569,7 +3603,7 @@
         <v>60</v>
       </c>
       <c r="R13" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
@@ -3644,7 +3678,7 @@
         <v>63</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
@@ -3721,7 +3755,7 @@
         <v>66</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="40.5" customHeight="1">
@@ -3776,7 +3810,7 @@
         <v>69</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="48" customHeight="1">
@@ -3831,7 +3865,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="42" customHeight="1">
@@ -3886,7 +3920,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="29.25" customHeight="1">
@@ -3941,7 +3975,7 @@
         <v>78</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1">
@@ -3983,7 +4017,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -3992,7 +4026,7 @@
         <v>81</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="39" customHeight="1">
@@ -4037,7 +4071,7 @@
         <v>85</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="129.75" customHeight="1">
@@ -4094,7 +4128,7 @@
         <v>88</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="69" customHeight="1">
@@ -4151,7 +4185,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1">
@@ -4206,7 +4240,7 @@
         <v>95</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="63" customHeight="1">
@@ -4265,7 +4299,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="67.5" customHeight="1">
@@ -4320,7 +4354,7 @@
         <v>103</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="55.5" customHeight="1">
@@ -4365,7 +4399,7 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="77"/>
       <c r="R27" s="44" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="138" customHeight="1">
@@ -4420,7 +4454,7 @@
         <v>109</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="67.5" customHeight="1">
@@ -4475,7 +4509,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="85.5">
@@ -4528,7 +4562,7 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="71.25">
@@ -4581,7 +4615,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="42.75">
@@ -4632,7 +4666,7 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="76.5" customHeight="1">
@@ -4687,7 +4721,7 @@
         <v>120</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="38.25">
@@ -4744,7 +4778,7 @@
         <v>124</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="42.75">
@@ -4801,7 +4835,7 @@
         <v>124</v>
       </c>
       <c r="R35" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="93" customHeight="1">
@@ -4858,7 +4892,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="76.5" customHeight="1">
@@ -4915,7 +4949,7 @@
         <v>134</v>
       </c>
       <c r="R37" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="120.75" customHeight="1">
@@ -4959,7 +4993,7 @@
       NETWORKDAYS(J38,L38,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -4968,7 +5002,7 @@
         <v>139</v>
       </c>
       <c r="R38" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="162" customHeight="1">
@@ -5025,7 +5059,7 @@
         <v>142</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="93" customHeight="1">
@@ -5084,7 +5118,7 @@
         <v>146</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="93" customHeight="1">
@@ -5141,7 +5175,7 @@
         <v>151</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="67.5" customHeight="1">
@@ -5200,7 +5234,7 @@
         <v>154</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="93" customHeight="1">
@@ -5259,7 +5293,7 @@
         <v>158</v>
       </c>
       <c r="R43" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="93" customHeight="1">
@@ -5318,7 +5352,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="93" customHeight="1">
@@ -5377,7 +5411,7 @@
         <v>166</v>
       </c>
       <c r="R45" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="162" customHeight="1">
@@ -5436,7 +5470,7 @@
         <v>170</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="162" customHeight="1">
@@ -5495,7 +5529,7 @@
         <v>173</v>
       </c>
       <c r="R47" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="162" customHeight="1">
@@ -5554,7 +5588,7 @@
         <v>176</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="162" customHeight="1">
@@ -5613,7 +5647,7 @@
         <v>179</v>
       </c>
       <c r="R49" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="162" customHeight="1">
@@ -5672,7 +5706,7 @@
         <v>182</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="162" customHeight="1">
@@ -5731,7 +5765,7 @@
         <v>185</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="162" customHeight="1">
@@ -5788,7 +5822,7 @@
         <v>188</v>
       </c>
       <c r="R52" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="101.25" customHeight="1">
@@ -5845,7 +5879,7 @@
         <v>192</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="110.25" customHeight="1">
@@ -5902,7 +5936,7 @@
         <v>196</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="162" customHeight="1">
@@ -5959,7 +5993,7 @@
         <v>200</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="162" customHeight="1">
@@ -6016,7 +6050,7 @@
         <v>203</v>
       </c>
       <c r="R56" s="80" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="110.25" customHeight="1">
@@ -6075,7 +6109,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="162" customHeight="1">
@@ -6132,7 +6166,7 @@
         <v>210</v>
       </c>
       <c r="R58" s="80" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="110.25" customHeight="1">
@@ -6191,7 +6225,7 @@
         <v>214</v>
       </c>
       <c r="R59" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="162" customHeight="1">
@@ -6248,7 +6282,7 @@
         <v>217</v>
       </c>
       <c r="R60" s="80" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="162" customHeight="1">
@@ -6307,7 +6341,7 @@
         <v>220</v>
       </c>
       <c r="R61" s="81" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="110.25" customHeight="1">
@@ -6366,7 +6400,7 @@
         <v>223</v>
       </c>
       <c r="R62" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="162" customHeight="1">
@@ -6410,14 +6444,14 @@
       NETWORKDAYS(J63,L63,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="79"/>
       <c r="R63" s="81" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="132.75" customHeight="1">
@@ -6476,7 +6510,7 @@
         <v>229</v>
       </c>
       <c r="R64" s="29" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="132.75" customHeight="1">
@@ -6535,7 +6569,7 @@
         <v>233</v>
       </c>
       <c r="R65" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="162" customHeight="1">
@@ -6592,7 +6626,7 @@
         <v>236</v>
       </c>
       <c r="R66" s="80" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="162" customHeight="1">
@@ -6649,7 +6683,7 @@
         <v>239</v>
       </c>
       <c r="R67" s="81" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="162" customHeight="1">
@@ -6706,7 +6740,7 @@
         <v>239</v>
       </c>
       <c r="R68" s="80" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="132.75" customHeight="1">
@@ -6764,7 +6798,7 @@
         <v>245</v>
       </c>
       <c r="R69" s="44" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="162" customHeight="1">
@@ -6782,10 +6816,10 @@
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="54" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="G70" s="21">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H70" s="22">
         <f>IF(OR(J70="",K70="",K70&lt;J70),0,NETWORKDAYS(J70,K70,Hoja2!$A$2:$A$53))</f>
@@ -6800,7 +6834,9 @@
       <c r="K70" s="24">
         <v>46057</v>
       </c>
-      <c r="L70" s="24"/>
+      <c r="L70" s="24">
+        <v>46057</v>
+      </c>
       <c r="M70" s="25">
         <f ca="1">IF(OR(J70="",AND(L70="",TODAY()&lt;J70),AND(L70&lt;&gt;"",L70&lt;J70)),0,
    IF(L70="",
@@ -6811,25 +6847,196 @@
         <v>2</v>
       </c>
       <c r="N70" s="24"/>
-      <c r="O70" s="24"/>
+      <c r="O70" s="24">
+        <v>46057</v>
+      </c>
       <c r="P70" s="24"/>
-      <c r="Q70" s="78"/>
+      <c r="Q70" s="78" t="s">
+        <v>248</v>
+      </c>
       <c r="R70" s="80" t="s">
-        <v>352</v>
-      </c>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="162" customHeight="1">
+      <c r="A71" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G71" s="35">
+        <v>80</v>
+      </c>
+      <c r="H71" s="36">
+        <v>2</v>
+      </c>
+      <c r="I71" s="38">
+        <v>46057</v>
+      </c>
+      <c r="J71" s="38">
+        <v>46057</v>
+      </c>
+      <c r="K71" s="39">
+        <v>46057</v>
+      </c>
+      <c r="L71" s="39"/>
+      <c r="M71" s="40">
+        <f ca="1">IF(OR(J71="",AND(L71="",TODAY()&lt;J71),AND(L71&lt;&gt;"",L71&lt;J71)),0,
+   IF(L71="",
+      NETWORKDAYS(J71,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J71,L71,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>3</v>
+      </c>
+      <c r="N71" s="39"/>
+      <c r="O71" s="39">
+        <v>46057</v>
+      </c>
+      <c r="P71" s="39"/>
+      <c r="Q71" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="R71" s="81" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="162" customHeight="1">
+      <c r="A72" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" s="19"/>
+      <c r="F72" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="G72" s="21">
+        <v>100</v>
+      </c>
+      <c r="H72" s="22">
+        <f>IF(OR(J72="",K72="",K72&lt;J72),0,NETWORKDAYS(J72,K72,Hoja2!$A$2:$A$53))</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="45">
+        <v>46057</v>
+      </c>
+      <c r="J72" s="45">
+        <v>46057</v>
+      </c>
+      <c r="K72" s="24">
+        <v>46057</v>
+      </c>
+      <c r="L72" s="24">
+        <v>46058</v>
+      </c>
+      <c r="M72" s="25">
+        <f ca="1">IF(OR(J72="",AND(L72="",TODAY()&lt;J72),AND(L72&lt;&gt;"",L72&lt;J72)),0,
+   IF(L72="",
+      NETWORKDAYS(J72,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J72,L72,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="N72" s="24"/>
+      <c r="O72" s="24">
+        <v>46058</v>
+      </c>
+      <c r="P72" s="24">
+        <v>46058</v>
+      </c>
+      <c r="Q72" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="R72" s="80" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="162" customHeight="1">
+      <c r="A73" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="164" t="s">
+        <v>255</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="33"/>
+      <c r="F73" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G73" s="35">
+        <v>25</v>
+      </c>
+      <c r="H73" s="36">
+        <f>IF(OR(J73="",K73="",K73&lt;J73),0,NETWORKDAYS(J73,K73,Hoja2!$A$2:$A$53))</f>
+        <v>2</v>
+      </c>
+      <c r="I73" s="38">
+        <v>46059</v>
+      </c>
+      <c r="J73" s="38">
+        <v>46059</v>
+      </c>
+      <c r="K73" s="39">
+        <v>46062</v>
+      </c>
+      <c r="L73" s="39"/>
+      <c r="M73" s="40">
+        <f ca="1">IF(OR(J73="",AND(L73="",TODAY()&lt;J73),AND(L73&lt;&gt;"",L73&lt;J73)),0,
+   IF(L73="",
+      NETWORKDAYS(J73,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J73,L73,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N73" s="39"/>
+      <c r="O73" s="39"/>
+      <c r="P73" s="39"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="81" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="15" customHeight="1">
+      <c r="B74" s="165"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R30"/>
-  <conditionalFormatting sqref="B1:B70">
+  <conditionalFormatting sqref="B1:B74">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>COUNTIF(B$1:B$70, B1)&gt;1</formula>
+      <formula>COUNTIF(B$1:B$73, B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L70 N2:P70">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L73 N2:P73">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F70">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F73">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6875,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>8</v>
@@ -6890,7 +7097,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>14</v>
@@ -6926,19 +7133,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B2" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>22</v>
@@ -6973,19 +7180,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B3" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F3" s="91" t="s">
         <v>22</v>
@@ -7020,19 +7227,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>22</v>
@@ -7071,19 +7278,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>22</v>
@@ -7122,19 +7329,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="107" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F6" s="108" t="s">
         <v>22</v>
@@ -7173,19 +7380,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="F7" s="110" t="s">
         <v>22</v>
@@ -7224,19 +7431,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>22</v>
@@ -7271,17 +7478,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="89" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>22</v>
@@ -7318,17 +7525,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="89" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>22</v>
@@ -7363,19 +7570,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>22</v>
@@ -7412,19 +7619,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>22</v>
@@ -7461,19 +7668,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>22</v>
@@ -7508,7 +7715,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="88" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>61</v>
@@ -7518,7 +7725,7 @@
       </c>
       <c r="D14" s="121"/>
       <c r="E14" s="107" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>22</v>
@@ -7584,7 +7791,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -7592,7 +7799,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -7600,7 +7807,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -7608,7 +7815,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -7616,7 +7823,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -7624,7 +7831,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -7632,7 +7839,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -7640,7 +7847,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -7648,7 +7855,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -7656,7 +7863,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -7664,7 +7871,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -7672,7 +7879,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -7680,7 +7887,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -7688,7 +7895,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -7696,7 +7903,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -7704,7 +7911,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -7712,7 +7919,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -7720,7 +7927,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -7728,7 +7935,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -7736,7 +7943,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -7744,7 +7951,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -7752,7 +7959,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -7760,7 +7967,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -7768,7 +7975,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -7776,7 +7983,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -7784,7 +7991,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -7792,7 +7999,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -7800,7 +8007,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -7808,7 +8015,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -7816,7 +8023,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -7824,7 +8031,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -7832,7 +8039,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -7840,7 +8047,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -7848,7 +8055,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -7856,7 +8063,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -7864,7 +8071,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -7872,7 +8079,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -7880,7 +8087,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -7888,7 +8095,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -7896,7 +8103,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -7904,7 +8111,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -7912,7 +8119,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -7920,7 +8127,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -7928,7 +8135,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -7936,7 +8143,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -7944,7 +8151,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -7952,7 +8159,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -7960,7 +8167,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -7968,7 +8175,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -7976,7 +8183,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="124" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -7984,7 +8191,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="124" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -7992,7 +8199,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="124" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -8000,7 +8207,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="124" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
@@ -8977,7 +9184,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="125" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -9035,7 +9242,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="127" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B3" s="128">
         <v>45596</v>
@@ -9328,261 +9535,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="131" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O4" s="134" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P4" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U4" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="V4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE4" s="160" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AF4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL4" s="160" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AM4" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AN4" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AO4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP4" s="160" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AQ4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS4" s="160" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AT4" s="136" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AV4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY4" s="160" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AZ4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BA4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BH4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI4" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ4" s="160" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="BK4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BL4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BM4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BN4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BO4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BP4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BQ4" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BR4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CA4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CB4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CC4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CD4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG4" s="134"/>
       <c r="CH4" s="134"/>
       <c r="CI4" s="160" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="CJ4" s="134"/>
       <c r="CK4" s="134"/>
@@ -9594,249 +9801,249 @@
       <c r="CQ4" s="134"/>
       <c r="CR4" s="134"/>
       <c r="CS4" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="131" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="N5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="O5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="P5" s="135" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U5" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="V5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE5" s="161"/>
       <c r="AF5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL5" s="161"/>
       <c r="AM5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AO5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP5" s="161"/>
       <c r="AQ5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AR5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AS5" s="161"/>
       <c r="AT5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AU5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AV5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AW5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AX5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="AY5" s="161"/>
       <c r="AZ5" s="134" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="BA5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BH5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI5" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ5" s="161"/>
       <c r="BK5" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL5" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN5" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BP5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BQ5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BR5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CA5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CB5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CC5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CD5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG5" s="134"/>
       <c r="CH5" s="134"/>
@@ -9851,249 +10058,249 @@
       <c r="CQ5" s="134"/>
       <c r="CR5" s="134"/>
       <c r="CS5" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="131" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K6" s="137" t="s">
+        <v>331</v>
+      </c>
+      <c r="L6" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="N6" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="O6" s="134" t="s">
         <v>322</v>
       </c>
-      <c r="L6" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="M6" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="N6" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="O6" s="134" t="s">
-        <v>313</v>
-      </c>
       <c r="P6" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U6" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="V6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE6" s="161"/>
       <c r="AF6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL6" s="161"/>
       <c r="AM6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AO6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS6" s="161"/>
       <c r="AT6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AV6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY6" s="161"/>
       <c r="AZ6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BA6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BH6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI6" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ6" s="161"/>
       <c r="BK6" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL6" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM6" s="134" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="BN6" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BP6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BQ6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BR6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CA6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CB6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CC6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CD6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG6" s="134"/>
       <c r="CH6" s="134"/>
@@ -10108,198 +10315,198 @@
       <c r="CQ6" s="134"/>
       <c r="CR6" s="134"/>
       <c r="CS6" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="131" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L7" s="137" t="s">
+        <v>331</v>
+      </c>
+      <c r="M7" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="N7" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="O7" s="134" t="s">
         <v>322</v>
       </c>
-      <c r="M7" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="N7" s="134" t="s">
-        <v>311</v>
-      </c>
-      <c r="O7" s="134" t="s">
-        <v>313</v>
-      </c>
       <c r="P7" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U7" s="135" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="V7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z7" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AA7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE7" s="161"/>
       <c r="AF7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL7" s="161"/>
       <c r="AM7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AO7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP7" s="161"/>
       <c r="AQ7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS7" s="161"/>
       <c r="AT7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU7" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AV7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY7" s="161"/>
       <c r="AZ7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BA7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BH7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI7" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ7" s="161"/>
       <c r="BK7" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL7" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN7" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO7" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BP7" s="134"/>
       <c r="BQ7" s="134"/>
@@ -10307,16 +10514,16 @@
       <c r="BS7" s="134"/>
       <c r="BT7" s="134"/>
       <c r="BU7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX7" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY7" s="134"/>
       <c r="BZ7" s="134"/>
@@ -10342,220 +10549,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="131" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L8" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O8" s="134" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P8" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U8" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="V8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W8" s="134" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="X8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB8" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AC8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE8" s="161"/>
       <c r="AF8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL8" s="161"/>
       <c r="AM8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN8" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AO8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP8" s="161"/>
       <c r="AQ8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS8" s="161"/>
       <c r="AT8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AV8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY8" s="161"/>
       <c r="AZ8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BA8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG8" s="134" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="BH8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI8" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ8" s="161"/>
       <c r="BK8" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL8" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN8" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BP8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BQ8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BR8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW8" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX8" s="134" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="BY8" s="134"/>
       <c r="BZ8" s="134"/>
@@ -10581,244 +10788,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="131" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O9" s="137" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="P9" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U9" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="V9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE9" s="161"/>
       <c r="AF9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL9" s="161"/>
       <c r="AM9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AO9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP9" s="161"/>
       <c r="AQ9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS9" s="161"/>
       <c r="AT9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AV9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY9" s="161"/>
       <c r="AZ9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BA9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BH9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI9" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ9" s="161"/>
       <c r="BK9" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL9" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN9" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BP9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BQ9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BR9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CA9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CB9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CC9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CD9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG9" s="134"/>
       <c r="CH9" s="134"/>
@@ -10833,249 +11040,249 @@
       <c r="CQ9" s="134"/>
       <c r="CR9" s="134"/>
       <c r="CS9" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="131" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B10" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P10" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="U10" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="V10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AE10" s="161"/>
       <c r="AF10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AL10" s="161"/>
       <c r="AM10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AN10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AO10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP10" s="161"/>
       <c r="AQ10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS10" s="161"/>
       <c r="AT10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AV10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY10" s="161"/>
       <c r="AZ10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BA10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BB10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BC10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BD10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BE10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BF10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BG10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BH10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI10" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ10" s="161"/>
       <c r="BK10" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL10" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN10" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BP10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BQ10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BR10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW10" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BX10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CA10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CB10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CC10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CD10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG10" s="134"/>
       <c r="CH10" s="134"/>
@@ -11090,249 +11297,249 @@
       <c r="CQ10" s="134"/>
       <c r="CR10" s="134"/>
       <c r="CS10" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="131" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="G11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="N11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O11" s="134" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P11" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="R11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="S11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="T11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="U11" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="V11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Y11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Z11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AB11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AC11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AE11" s="161"/>
       <c r="AF11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AH11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AI11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL11" s="161"/>
       <c r="AM11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AN11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AO11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AP11" s="161"/>
       <c r="AQ11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AR11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AS11" s="161"/>
       <c r="AT11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AU11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AV11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AW11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AY11" s="161"/>
       <c r="AZ11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BA11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BB11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BC11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BE11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BF11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BG11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI11" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BJ11" s="161"/>
       <c r="BK11" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BL11" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BM11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN11" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BO11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BP11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BQ11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BR11" s="134" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="BS11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BT11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BU11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BX11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BY11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CA11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CB11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CC11" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CD11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG11" s="134"/>
       <c r="CH11" s="134"/>
@@ -11347,249 +11554,249 @@
       <c r="CQ11" s="134"/>
       <c r="CR11" s="134"/>
       <c r="CS11" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="131" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="N12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="O12" s="134" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P12" s="135" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="R12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="S12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="T12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="U12" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="V12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="W12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="X12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Y12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Z12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AA12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AB12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AC12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AE12" s="161"/>
       <c r="AF12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AG12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AH12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AI12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AJ12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AK12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AL12" s="161"/>
       <c r="AM12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AN12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AO12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AP12" s="161"/>
       <c r="AQ12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AR12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AS12" s="161"/>
       <c r="AT12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AU12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AV12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AW12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AX12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AY12" s="161"/>
       <c r="AZ12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BA12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BB12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BC12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BE12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BF12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BG12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BH12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BI12" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BJ12" s="161"/>
       <c r="BK12" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BL12" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BM12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BN12" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BO12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BP12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BQ12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BR12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BS12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BT12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BU12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BV12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BW12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BX12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BY12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BZ12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CA12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CB12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CC12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CD12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CE12" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CG12" s="134"/>
       <c r="CH12" s="134"/>
@@ -11604,249 +11811,249 @@
       <c r="CQ12" s="134"/>
       <c r="CR12" s="134"/>
       <c r="CS12" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="131" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B13" s="132" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="G13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="J13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="L13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="N13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="O13" s="134" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="P13" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="R13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="S13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="T13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="U13" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="V13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="W13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="X13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Y13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="Z13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AA13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AB13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AC13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AD13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AE13" s="162"/>
       <c r="AF13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AG13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AH13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AI13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AJ13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AK13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AL13" s="162"/>
       <c r="AM13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AN13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AO13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AP13" s="162"/>
       <c r="AQ13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AR13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AS13" s="162"/>
       <c r="AT13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AU13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AV13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AW13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AX13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AY13" s="162"/>
       <c r="AZ13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BA13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BB13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BC13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BD13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BE13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BF13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BG13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BH13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BI13" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BJ13" s="162"/>
       <c r="BK13" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BL13" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BM13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BN13" s="135" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BO13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BP13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BQ13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BR13" s="134" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="BS13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BT13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BU13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BV13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BW13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BX13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BY13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BZ13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CA13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CB13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CC13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="CD13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CE13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CF13" s="134" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="CG13" s="134"/>
       <c r="CH13" s="134"/>
@@ -11861,7 +12068,7 @@
       <c r="CQ13" s="134"/>
       <c r="CR13" s="134"/>
       <c r="CS13" s="134" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -12883,7 +13090,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="138" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B1" s="138" t="s">
         <v>2</v>
@@ -12907,16 +13114,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="141" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J1" s="142" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="K1" s="143" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="L1" s="141" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="M1" s="144"/>
       <c r="N1" s="144"/>
@@ -12935,10 +13142,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="145" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147" t="s">
@@ -12965,7 +13172,7 @@
       </c>
       <c r="K2" s="150"/>
       <c r="L2" s="151" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="M2" s="144"/>
       <c r="N2" s="144"/>
@@ -12984,16 +13191,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="145" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E3" s="148">
         <v>45575</v>
@@ -13012,7 +13219,7 @@
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="151" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="144"/>
@@ -13031,14 +13238,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="145" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B4" s="161"/>
       <c r="C4" s="154" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E4" s="148">
         <v>45575</v>
@@ -13057,7 +13264,7 @@
       </c>
       <c r="K4" s="155"/>
       <c r="L4" s="158" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="144"/>
@@ -13076,16 +13283,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="145" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B5" s="141" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C5" s="147" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="D5" s="147" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E5" s="148">
         <v>45575</v>
@@ -13104,7 +13311,7 @@
       </c>
       <c r="K5" s="148"/>
       <c r="L5" s="151" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="144"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="367">
   <si>
     <t>Asignado a</t>
   </si>
@@ -894,6 +894,19 @@
   </si>
   <si>
     <t>Identificación de problemas con el servidor al momento de hacer cargues pesados</t>
+  </si>
+  <si>
+    <t>06/02/2026 Se identifica lentitud y se empieza un proceso de migración de servicios a producción que originalmente estaban en pruebas
+09/02/2026 Se monta la solución en producción y se espera confirmación de funcionamiento</t>
+  </si>
+  <si>
+    <t>Interno-H16-15</t>
+  </si>
+  <si>
+    <t>Creación de servicio que accedera a FileNet y descargará los archivos asociados a la documentación por validar y acoplamiento a los dos proyectos de fileNet</t>
+  </si>
+  <si>
+    <t>Modificación para los módulo de validación filenet y creación de servicio para el acceso a archivos</t>
   </si>
   <si>
     <t>dias estimados</t>
@@ -1232,10 +1245,10 @@
     <t>Internal Server Error</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2350,12 +2363,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2735,8 +2742,8 @@
   <dimension ref="A1:AN74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F70" sqref="F70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2892,7 +2899,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="29.25" customHeight="1">
@@ -2947,7 +2954,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="29.25" customHeight="1">
@@ -3006,7 +3013,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="29.25" customHeight="1">
@@ -3065,7 +3072,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="29.25" customHeight="1">
@@ -3124,7 +3131,7 @@
         <v>36</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="29.25" customHeight="1">
@@ -3183,7 +3190,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="29.25" customHeight="1">
@@ -3238,7 +3245,7 @@
         <v>43</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="29.25" customHeight="1">
@@ -3293,7 +3300,7 @@
         <v>46</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -3368,7 +3375,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -3447,7 +3454,7 @@
         <v>52</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
@@ -3526,7 +3533,7 @@
         <v>56</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -3603,7 +3610,7 @@
         <v>60</v>
       </c>
       <c r="R13" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
@@ -3678,7 +3685,7 @@
         <v>63</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
@@ -3755,7 +3762,7 @@
         <v>66</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="40.5" customHeight="1">
@@ -3810,7 +3817,7 @@
         <v>69</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="48" customHeight="1">
@@ -3865,7 +3872,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="42" customHeight="1">
@@ -3920,7 +3927,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="29.25" customHeight="1">
@@ -3975,7 +3982,7 @@
         <v>78</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1">
@@ -4017,7 +4024,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -4026,7 +4033,7 @@
         <v>81</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="39" customHeight="1">
@@ -4071,7 +4078,7 @@
         <v>85</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="129.75" customHeight="1">
@@ -4128,7 +4135,7 @@
         <v>88</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="69" customHeight="1">
@@ -4185,7 +4192,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1">
@@ -4240,7 +4247,7 @@
         <v>95</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="63" customHeight="1">
@@ -4299,7 +4306,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="67.5" customHeight="1">
@@ -4354,7 +4361,7 @@
         <v>103</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="55.5" customHeight="1">
@@ -4399,7 +4406,7 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="77"/>
       <c r="R27" s="44" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="138" customHeight="1">
@@ -4454,7 +4461,7 @@
         <v>109</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="67.5" customHeight="1">
@@ -4509,7 +4516,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="85.5">
@@ -4562,7 +4569,7 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="71.25">
@@ -4615,7 +4622,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="42.75">
@@ -4666,7 +4673,7 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="76.5" customHeight="1">
@@ -4721,7 +4728,7 @@
         <v>120</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="38.25">
@@ -4778,7 +4785,7 @@
         <v>124</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="42.75">
@@ -4835,7 +4842,7 @@
         <v>124</v>
       </c>
       <c r="R35" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="93" customHeight="1">
@@ -4892,7 +4899,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="76.5" customHeight="1">
@@ -4949,7 +4956,7 @@
         <v>134</v>
       </c>
       <c r="R37" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="120.75" customHeight="1">
@@ -4993,7 +5000,7 @@
       NETWORKDAYS(J38,L38,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -5002,7 +5009,7 @@
         <v>139</v>
       </c>
       <c r="R38" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="162" customHeight="1">
@@ -5059,7 +5066,7 @@
         <v>142</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="93" customHeight="1">
@@ -5118,7 +5125,7 @@
         <v>146</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="93" customHeight="1">
@@ -5175,7 +5182,7 @@
         <v>151</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="67.5" customHeight="1">
@@ -5234,7 +5241,7 @@
         <v>154</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="93" customHeight="1">
@@ -5293,7 +5300,7 @@
         <v>158</v>
       </c>
       <c r="R43" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="93" customHeight="1">
@@ -5352,7 +5359,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="93" customHeight="1">
@@ -5411,7 +5418,7 @@
         <v>166</v>
       </c>
       <c r="R45" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="162" customHeight="1">
@@ -5470,7 +5477,7 @@
         <v>170</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="162" customHeight="1">
@@ -5529,7 +5536,7 @@
         <v>173</v>
       </c>
       <c r="R47" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="162" customHeight="1">
@@ -5588,7 +5595,7 @@
         <v>176</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="162" customHeight="1">
@@ -5647,7 +5654,7 @@
         <v>179</v>
       </c>
       <c r="R49" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="162" customHeight="1">
@@ -5706,7 +5713,7 @@
         <v>182</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="162" customHeight="1">
@@ -5765,7 +5772,7 @@
         <v>185</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="162" customHeight="1">
@@ -5822,7 +5829,7 @@
         <v>188</v>
       </c>
       <c r="R52" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="101.25" customHeight="1">
@@ -5879,7 +5886,7 @@
         <v>192</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="110.25" customHeight="1">
@@ -5936,7 +5943,7 @@
         <v>196</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="162" customHeight="1">
@@ -5993,7 +6000,7 @@
         <v>200</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="162" customHeight="1">
@@ -6050,7 +6057,7 @@
         <v>203</v>
       </c>
       <c r="R56" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="110.25" customHeight="1">
@@ -6109,7 +6116,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="162" customHeight="1">
@@ -6166,7 +6173,7 @@
         <v>210</v>
       </c>
       <c r="R58" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="110.25" customHeight="1">
@@ -6225,7 +6232,7 @@
         <v>214</v>
       </c>
       <c r="R59" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="162" customHeight="1">
@@ -6282,7 +6289,7 @@
         <v>217</v>
       </c>
       <c r="R60" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="162" customHeight="1">
@@ -6341,7 +6348,7 @@
         <v>220</v>
       </c>
       <c r="R61" s="81" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="110.25" customHeight="1">
@@ -6400,7 +6407,7 @@
         <v>223</v>
       </c>
       <c r="R62" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="162" customHeight="1">
@@ -6444,14 +6451,14 @@
       NETWORKDAYS(J63,L63,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="79"/>
       <c r="R63" s="81" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="132.75" customHeight="1">
@@ -6510,7 +6517,7 @@
         <v>229</v>
       </c>
       <c r="R64" s="29" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="132.75" customHeight="1">
@@ -6569,7 +6576,7 @@
         <v>233</v>
       </c>
       <c r="R65" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="162" customHeight="1">
@@ -6626,7 +6633,7 @@
         <v>236</v>
       </c>
       <c r="R66" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="162" customHeight="1">
@@ -6683,7 +6690,7 @@
         <v>239</v>
       </c>
       <c r="R67" s="81" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="162" customHeight="1">
@@ -6740,7 +6747,7 @@
         <v>239</v>
       </c>
       <c r="R68" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="132.75" customHeight="1">
@@ -6798,7 +6805,7 @@
         <v>245</v>
       </c>
       <c r="R69" s="44" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="162" customHeight="1">
@@ -6855,7 +6862,7 @@
         <v>248</v>
       </c>
       <c r="R70" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="162" customHeight="1">
@@ -6898,7 +6905,7 @@
       NETWORKDAYS(J71,L71,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N71" s="39"/>
       <c r="O71" s="39">
@@ -6909,7 +6916,7 @@
         <v>251</v>
       </c>
       <c r="R71" s="81" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="162" customHeight="1">
@@ -6968,14 +6975,14 @@
         <v>254</v>
       </c>
       <c r="R72" s="80" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="162" customHeight="1">
       <c r="A73" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="164" t="s">
+      <c r="B73" s="31" t="s">
         <v>255</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -6986,10 +6993,10 @@
       </c>
       <c r="E73" s="33"/>
       <c r="F73" s="72" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="G73" s="35">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H73" s="36">
         <f>IF(OR(J73="",K73="",K73&lt;J73),0,NETWORKDAYS(J73,K73,Hoja2!$A$2:$A$53))</f>
@@ -7004,7 +7011,9 @@
       <c r="K73" s="39">
         <v>46062</v>
       </c>
-      <c r="L73" s="39"/>
+      <c r="L73" s="39">
+        <v>46062</v>
+      </c>
       <c r="M73" s="40">
         <f ca="1">IF(OR(J73="",AND(L73="",TODAY()&lt;J73),AND(L73&lt;&gt;"",L73&lt;J73)),0,
    IF(L73="",
@@ -7012,31 +7021,87 @@
       NETWORKDAYS(J73,L73,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="79"/>
+      <c r="O73" s="39">
+        <v>46062</v>
+      </c>
+      <c r="P73" s="39">
+        <v>46062</v>
+      </c>
+      <c r="Q73" s="79" t="s">
+        <v>257</v>
+      </c>
       <c r="R73" s="81" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="15" customHeight="1">
-      <c r="B74" s="165"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="162" customHeight="1">
+      <c r="A74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E74" s="19"/>
+      <c r="F74" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G74" s="21">
+        <v>50</v>
+      </c>
+      <c r="H74" s="22">
+        <f>IF(OR(J74="",K74="",K74&lt;J74),0,NETWORKDAYS(J74,K74,Hoja2!$A$2:$A$53))</f>
+        <v>3</v>
+      </c>
+      <c r="I74" s="45">
+        <v>46062</v>
+      </c>
+      <c r="J74" s="45">
+        <v>46063</v>
+      </c>
+      <c r="K74" s="24">
+        <v>46065</v>
+      </c>
+      <c r="L74" s="24"/>
+      <c r="M74" s="25">
+        <f ca="1">IF(OR(J74="",AND(L74="",TODAY()&lt;J74),AND(L74&lt;&gt;"",L74&lt;J74)),0,
+   IF(L74="",
+      NETWORKDAYS(J74,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J74,L74,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="R74" s="80" t="s">
+        <v>365</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R30"/>
   <conditionalFormatting sqref="B1:B74">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>COUNTIF(B$1:B$73, B1)&gt;1</formula>
+      <formula>COUNTIF(B$1:B$74, B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L73 N2:P73">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L74 N2:P74">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F73">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F74">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7082,7 +7147,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>8</v>
@@ -7097,7 +7162,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>14</v>
@@ -7133,19 +7198,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>22</v>
@@ -7180,19 +7245,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B3" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F3" s="91" t="s">
         <v>22</v>
@@ -7227,19 +7292,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>22</v>
@@ -7278,19 +7343,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>22</v>
@@ -7329,19 +7394,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="107" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F6" s="108" t="s">
         <v>22</v>
@@ -7380,19 +7445,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F7" s="110" t="s">
         <v>22</v>
@@ -7431,19 +7496,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>22</v>
@@ -7478,17 +7543,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="89" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>22</v>
@@ -7525,17 +7590,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="89" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>22</v>
@@ -7570,19 +7635,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>22</v>
@@ -7619,19 +7684,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>22</v>
@@ -7668,19 +7733,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>22</v>
@@ -7715,7 +7780,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>61</v>
@@ -7725,7 +7790,7 @@
       </c>
       <c r="D14" s="121"/>
       <c r="E14" s="107" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>22</v>
@@ -7791,7 +7856,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -7799,7 +7864,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -7807,7 +7872,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -7815,7 +7880,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -7823,7 +7888,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -7831,7 +7896,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -7839,7 +7904,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -7847,7 +7912,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -7855,7 +7920,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -7863,7 +7928,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -7871,7 +7936,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -7879,7 +7944,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -7887,7 +7952,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -7895,7 +7960,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -7903,7 +7968,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -7911,7 +7976,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -7919,7 +7984,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -7927,7 +7992,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -7935,7 +8000,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -7943,7 +8008,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -7951,7 +8016,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -7959,7 +8024,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -7967,7 +8032,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -7975,7 +8040,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -7983,7 +8048,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -7991,7 +8056,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -7999,7 +8064,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -8007,7 +8072,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -8015,7 +8080,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -8023,7 +8088,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -8031,7 +8096,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -8039,7 +8104,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -8047,7 +8112,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -8055,7 +8120,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -8063,7 +8128,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -8071,7 +8136,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -8079,7 +8144,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -8087,7 +8152,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -8095,7 +8160,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -8103,7 +8168,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -8111,7 +8176,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -8119,7 +8184,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -8127,7 +8192,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -8135,7 +8200,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -8143,7 +8208,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -8151,7 +8216,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -8159,7 +8224,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -8167,7 +8232,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -8175,7 +8240,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -8183,7 +8248,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="124" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -8191,7 +8256,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="124" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -8199,7 +8264,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="124" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -8207,7 +8272,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="124" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
@@ -9184,7 +9249,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="125" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -9242,7 +9307,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="127" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" s="128">
         <v>45596</v>
@@ -9535,261 +9600,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="131" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O4" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P4" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U4" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="V4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE4" s="160" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AF4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL4" s="160" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AM4" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AN4" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP4" s="160" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AQ4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS4" s="160" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AT4" s="136" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AV4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY4" s="160" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AZ4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BA4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI4" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ4" s="160" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="BK4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BL4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BM4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BN4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BO4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BP4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BQ4" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BR4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CB4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CC4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CD4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG4" s="134"/>
       <c r="CH4" s="134"/>
       <c r="CI4" s="160" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="CJ4" s="134"/>
       <c r="CK4" s="134"/>
@@ -9801,249 +9866,249 @@
       <c r="CQ4" s="134"/>
       <c r="CR4" s="134"/>
       <c r="CS4" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="131" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="N5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="O5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P5" s="135" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U5" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE5" s="161"/>
       <c r="AF5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL5" s="161"/>
       <c r="AM5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP5" s="161"/>
       <c r="AQ5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AR5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AS5" s="161"/>
       <c r="AT5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AU5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AV5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AW5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AX5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AY5" s="161"/>
       <c r="AZ5" s="134" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BA5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI5" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ5" s="161"/>
       <c r="BK5" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL5" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN5" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BP5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BQ5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BR5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CB5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CC5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CD5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG5" s="134"/>
       <c r="CH5" s="134"/>
@@ -10058,249 +10123,249 @@
       <c r="CQ5" s="134"/>
       <c r="CR5" s="134"/>
       <c r="CS5" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="131" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K6" s="137" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O6" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P6" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U6" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE6" s="161"/>
       <c r="AF6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL6" s="161"/>
       <c r="AM6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS6" s="161"/>
       <c r="AT6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AV6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY6" s="161"/>
       <c r="AZ6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BA6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI6" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ6" s="161"/>
       <c r="BK6" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL6" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN6" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BP6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BQ6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BR6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CB6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CC6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CD6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG6" s="134"/>
       <c r="CH6" s="134"/>
@@ -10315,198 +10380,198 @@
       <c r="CQ6" s="134"/>
       <c r="CR6" s="134"/>
       <c r="CS6" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="131" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L7" s="137" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O7" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P7" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U7" s="135" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="V7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z7" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AA7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE7" s="161"/>
       <c r="AF7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL7" s="161"/>
       <c r="AM7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP7" s="161"/>
       <c r="AQ7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS7" s="161"/>
       <c r="AT7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU7" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AV7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY7" s="161"/>
       <c r="AZ7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BA7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI7" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ7" s="161"/>
       <c r="BK7" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL7" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN7" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO7" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BP7" s="134"/>
       <c r="BQ7" s="134"/>
@@ -10514,16 +10579,16 @@
       <c r="BS7" s="134"/>
       <c r="BT7" s="134"/>
       <c r="BU7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX7" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY7" s="134"/>
       <c r="BZ7" s="134"/>
@@ -10549,220 +10614,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="131" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L8" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O8" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P8" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U8" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W8" s="134" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="X8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB8" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AC8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE8" s="161"/>
       <c r="AF8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL8" s="161"/>
       <c r="AM8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN8" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP8" s="161"/>
       <c r="AQ8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS8" s="161"/>
       <c r="AT8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AV8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY8" s="161"/>
       <c r="AZ8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BA8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG8" s="134" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="BH8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI8" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ8" s="161"/>
       <c r="BK8" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL8" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN8" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BP8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BQ8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BR8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW8" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX8" s="134" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="BY8" s="134"/>
       <c r="BZ8" s="134"/>
@@ -10788,244 +10853,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="131" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O9" s="137" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P9" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U9" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE9" s="161"/>
       <c r="AF9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL9" s="161"/>
       <c r="AM9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP9" s="161"/>
       <c r="AQ9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS9" s="161"/>
       <c r="AT9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AV9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY9" s="161"/>
       <c r="AZ9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BA9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI9" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ9" s="161"/>
       <c r="BK9" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL9" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN9" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BP9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BQ9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BR9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CB9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CC9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CD9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG9" s="134"/>
       <c r="CH9" s="134"/>
@@ -11040,249 +11105,249 @@
       <c r="CQ9" s="134"/>
       <c r="CR9" s="134"/>
       <c r="CS9" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="131" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B10" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P10" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="U10" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="V10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AE10" s="161"/>
       <c r="AF10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AL10" s="161"/>
       <c r="AM10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AN10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP10" s="161"/>
       <c r="AQ10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS10" s="161"/>
       <c r="AT10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AV10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY10" s="161"/>
       <c r="AZ10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BA10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BB10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BC10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BD10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BE10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BF10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BG10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BH10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI10" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ10" s="161"/>
       <c r="BK10" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL10" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN10" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BP10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BQ10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BR10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW10" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BX10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CB10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CC10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CD10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG10" s="134"/>
       <c r="CH10" s="134"/>
@@ -11297,249 +11362,249 @@
       <c r="CQ10" s="134"/>
       <c r="CR10" s="134"/>
       <c r="CS10" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="131" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="O11" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P11" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="R11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="S11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="T11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="U11" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="V11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Y11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Z11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AB11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AC11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AE11" s="161"/>
       <c r="AF11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL11" s="161"/>
       <c r="AM11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AO11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AP11" s="161"/>
       <c r="AQ11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AR11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AS11" s="161"/>
       <c r="AT11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AU11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AV11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AW11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AY11" s="161"/>
       <c r="AZ11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BA11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BB11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BC11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BE11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BF11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BG11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI11" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BJ11" s="161"/>
       <c r="BK11" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BL11" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BM11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN11" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BO11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BP11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BQ11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BR11" s="134" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="BS11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BT11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BU11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BX11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BY11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CA11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CB11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CC11" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CD11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG11" s="134"/>
       <c r="CH11" s="134"/>
@@ -11554,249 +11619,249 @@
       <c r="CQ11" s="134"/>
       <c r="CR11" s="134"/>
       <c r="CS11" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="131" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O12" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P12" s="135" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="R12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="S12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="T12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="U12" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="V12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="W12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="X12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Y12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Z12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AA12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AB12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AC12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AE12" s="161"/>
       <c r="AF12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AH12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AI12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AJ12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AK12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AL12" s="161"/>
       <c r="AM12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AN12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AP12" s="161"/>
       <c r="AQ12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AR12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AS12" s="161"/>
       <c r="AT12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AU12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AV12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AX12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AY12" s="161"/>
       <c r="AZ12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BA12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BB12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BC12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BD12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BE12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BF12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BG12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BH12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BI12" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BJ12" s="161"/>
       <c r="BK12" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BL12" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BM12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BN12" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BO12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BP12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BQ12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BR12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BS12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BT12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BU12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BV12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BW12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BX12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BY12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="BZ12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CA12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CB12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CC12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CD12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CE12" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CG12" s="134"/>
       <c r="CH12" s="134"/>
@@ -11811,249 +11876,249 @@
       <c r="CQ12" s="134"/>
       <c r="CR12" s="134"/>
       <c r="CS12" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="131" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B13" s="132" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O13" s="134" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P13" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="R13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="S13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="T13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="U13" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="V13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="W13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="X13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Y13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Z13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AA13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AB13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AC13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AD13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AE13" s="162"/>
       <c r="AF13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AG13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AH13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AI13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AJ13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AK13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AL13" s="162"/>
       <c r="AM13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AN13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AO13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AP13" s="162"/>
       <c r="AQ13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AR13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AS13" s="162"/>
       <c r="AT13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AU13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AV13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AW13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AX13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AY13" s="162"/>
       <c r="AZ13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BA13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BB13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BC13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BD13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BE13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BF13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BG13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BH13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BI13" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BJ13" s="162"/>
       <c r="BK13" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BL13" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BM13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BN13" s="135" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BO13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BP13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BQ13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BR13" s="134" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="BS13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BT13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BU13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BV13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BW13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BX13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BY13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="BZ13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CA13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CB13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CC13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CD13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CE13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CF13" s="134" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CG13" s="134"/>
       <c r="CH13" s="134"/>
@@ -12068,7 +12133,7 @@
       <c r="CQ13" s="134"/>
       <c r="CR13" s="134"/>
       <c r="CS13" s="134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13090,7 +13155,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="138" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B1" s="138" t="s">
         <v>2</v>
@@ -13114,16 +13179,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="141" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J1" s="142" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K1" s="143" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L1" s="141" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M1" s="144"/>
       <c r="N1" s="144"/>
@@ -13142,10 +13207,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="145" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147" t="s">
@@ -13172,7 +13237,7 @@
       </c>
       <c r="K2" s="150"/>
       <c r="L2" s="151" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M2" s="144"/>
       <c r="N2" s="144"/>
@@ -13191,16 +13256,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="145" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E3" s="148">
         <v>45575</v>
@@ -13219,7 +13284,7 @@
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="151" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="144"/>
@@ -13238,14 +13303,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="145" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B4" s="161"/>
       <c r="C4" s="154" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E4" s="148">
         <v>45575</v>
@@ -13264,7 +13329,7 @@
       </c>
       <c r="K4" s="155"/>
       <c r="L4" s="158" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="144"/>
@@ -13283,16 +13348,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="145" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B5" s="141" t="s">
+        <v>363</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="147" t="s">
         <v>359</v>
-      </c>
-      <c r="C5" s="147" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="147" t="s">
-        <v>355</v>
       </c>
       <c r="E5" s="148">
         <v>45575</v>
@@ -13311,7 +13376,7 @@
       </c>
       <c r="K5" s="148"/>
       <c r="L5" s="151" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="144"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="375">
   <si>
     <t>Asignado a</t>
   </si>
@@ -878,7 +878,8 @@
   </si>
   <si>
     <t>05/02/2026 Se agrega termina de cambiar la lógica y de agregar el script que ejecute asíncronamente el envió 
-06/02/2026 Se esta en proceso de pruebas y cambiosdebido a que se han presentado situaciones que deben de darse mantenimiento</t>
+06/02/2026 Se esta en proceso de pruebas y cambiosdebido a que se han presentado situaciones que deben de darse mantenimiento
+17/02/2026 Se habían generado pruebas pero el sistema no se estaba usando hasta hoy debido a que los problemas de la plataforma todavía se trasladaba a nuestro sistema con la carga de documentos sincrónica. Esto se cambio y ya desde el momento en que se trae la información también se trae el documento asociado</t>
   </si>
   <si>
     <t>Interno-H16-13</t>
@@ -907,6 +908,32 @@
   </si>
   <si>
     <t>Modificación para los módulo de validación filenet y creación de servicio para el acceso a archivos</t>
+  </si>
+  <si>
+    <t>05/02/2026 Se agrega los nuevos módulos, se prueban y se pasan a producción
+17/02/2026 Se acopla el servicio de descarga de documentación con el sistema de validación en mesa unificada</t>
+  </si>
+  <si>
+    <t>Interno-H16-14-2</t>
+  </si>
+  <si>
+    <t>corrección en irregularidades en el servicio de cesantías y el de PHP</t>
+  </si>
+  <si>
+    <t>PRUEBAS IMAGINE</t>
+  </si>
+  <si>
+    <t>10/02/2026 Se indican problemas de cargue y al realizar validaciones se encontraron inconsistencias en las configuraciones y versiones del servicio
+16/02/2026 Se sube a producción las correcciones y se está en espera de las pruebas</t>
+  </si>
+  <si>
+    <t>REQ-23</t>
+  </si>
+  <si>
+    <t>Se debe de corregir lógica que identifica el sub estado de un trámite a la hora de rechazar documentación</t>
+  </si>
+  <si>
+    <t>Creación de lóigica para la visualización de sub estados de trámites</t>
   </si>
   <si>
     <t>dias estimados</t>
@@ -2739,11 +2766,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2899,7 +2926,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="29.25" customHeight="1">
@@ -2954,7 +2981,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="29.25" customHeight="1">
@@ -3013,7 +3040,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="29.25" customHeight="1">
@@ -3072,7 +3099,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="29.25" customHeight="1">
@@ -3131,7 +3158,7 @@
         <v>36</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="29.25" customHeight="1">
@@ -3190,7 +3217,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="29.25" customHeight="1">
@@ -3245,7 +3272,7 @@
         <v>43</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="29.25" customHeight="1">
@@ -3300,7 +3327,7 @@
         <v>46</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -3375,7 +3402,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -3454,7 +3481,7 @@
         <v>52</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
@@ -3533,7 +3560,7 @@
         <v>56</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -3610,7 +3637,7 @@
         <v>60</v>
       </c>
       <c r="R13" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
@@ -3685,7 +3712,7 @@
         <v>63</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
@@ -3762,7 +3789,7 @@
         <v>66</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="40.5" customHeight="1">
@@ -3817,7 +3844,7 @@
         <v>69</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="48" customHeight="1">
@@ -3872,7 +3899,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="42" customHeight="1">
@@ -3927,7 +3954,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="29.25" customHeight="1">
@@ -3982,7 +4009,7 @@
         <v>78</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1">
@@ -4024,7 +4051,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -4033,7 +4060,7 @@
         <v>81</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="39" customHeight="1">
@@ -4078,7 +4105,7 @@
         <v>85</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="129.75" customHeight="1">
@@ -4135,7 +4162,7 @@
         <v>88</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="69" customHeight="1">
@@ -4192,7 +4219,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1">
@@ -4247,7 +4274,7 @@
         <v>95</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="63" customHeight="1">
@@ -4306,7 +4333,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="67.5" customHeight="1">
@@ -4361,7 +4388,7 @@
         <v>103</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="55.5" customHeight="1">
@@ -4406,7 +4433,7 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="77"/>
       <c r="R27" s="44" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="138" customHeight="1">
@@ -4461,7 +4488,7 @@
         <v>109</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="67.5" customHeight="1">
@@ -4516,7 +4543,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="85.5">
@@ -4569,7 +4596,7 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="71.25">
@@ -4622,7 +4649,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="42.75">
@@ -4673,7 +4700,7 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="76.5" customHeight="1">
@@ -4728,7 +4755,7 @@
         <v>120</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="38.25">
@@ -4785,7 +4812,7 @@
         <v>124</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="42.75">
@@ -4842,7 +4869,7 @@
         <v>124</v>
       </c>
       <c r="R35" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="93" customHeight="1">
@@ -4899,7 +4926,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="76.5" customHeight="1">
@@ -4956,7 +4983,7 @@
         <v>134</v>
       </c>
       <c r="R37" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="120.75" customHeight="1">
@@ -5000,7 +5027,7 @@
       NETWORKDAYS(J38,L38,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -5009,7 +5036,7 @@
         <v>139</v>
       </c>
       <c r="R38" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="162" customHeight="1">
@@ -5066,7 +5093,7 @@
         <v>142</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="93" customHeight="1">
@@ -5125,7 +5152,7 @@
         <v>146</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="93" customHeight="1">
@@ -5182,7 +5209,7 @@
         <v>151</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="67.5" customHeight="1">
@@ -5241,7 +5268,7 @@
         <v>154</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="93" customHeight="1">
@@ -5300,7 +5327,7 @@
         <v>158</v>
       </c>
       <c r="R43" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="93" customHeight="1">
@@ -5359,7 +5386,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="93" customHeight="1">
@@ -5418,7 +5445,7 @@
         <v>166</v>
       </c>
       <c r="R45" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="162" customHeight="1">
@@ -5477,7 +5504,7 @@
         <v>170</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="162" customHeight="1">
@@ -5536,7 +5563,7 @@
         <v>173</v>
       </c>
       <c r="R47" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="162" customHeight="1">
@@ -5595,7 +5622,7 @@
         <v>176</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="162" customHeight="1">
@@ -5654,7 +5681,7 @@
         <v>179</v>
       </c>
       <c r="R49" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="162" customHeight="1">
@@ -5713,7 +5740,7 @@
         <v>182</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="162" customHeight="1">
@@ -5772,7 +5799,7 @@
         <v>185</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="162" customHeight="1">
@@ -5829,7 +5856,7 @@
         <v>188</v>
       </c>
       <c r="R52" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="101.25" customHeight="1">
@@ -5886,7 +5913,7 @@
         <v>192</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="110.25" customHeight="1">
@@ -5943,7 +5970,7 @@
         <v>196</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="162" customHeight="1">
@@ -6000,7 +6027,7 @@
         <v>200</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="162" customHeight="1">
@@ -6057,7 +6084,7 @@
         <v>203</v>
       </c>
       <c r="R56" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="110.25" customHeight="1">
@@ -6116,7 +6143,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="162" customHeight="1">
@@ -6173,7 +6200,7 @@
         <v>210</v>
       </c>
       <c r="R58" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="110.25" customHeight="1">
@@ -6232,7 +6259,7 @@
         <v>214</v>
       </c>
       <c r="R59" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="162" customHeight="1">
@@ -6289,7 +6316,7 @@
         <v>217</v>
       </c>
       <c r="R60" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="162" customHeight="1">
@@ -6348,7 +6375,7 @@
         <v>220</v>
       </c>
       <c r="R61" s="81" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="110.25" customHeight="1">
@@ -6407,7 +6434,7 @@
         <v>223</v>
       </c>
       <c r="R62" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="162" customHeight="1">
@@ -6451,14 +6478,14 @@
       NETWORKDAYS(J63,L63,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="79"/>
       <c r="R63" s="81" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="132.75" customHeight="1">
@@ -6517,7 +6544,7 @@
         <v>229</v>
       </c>
       <c r="R64" s="29" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="132.75" customHeight="1">
@@ -6576,7 +6603,7 @@
         <v>233</v>
       </c>
       <c r="R65" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="162" customHeight="1">
@@ -6633,7 +6660,7 @@
         <v>236</v>
       </c>
       <c r="R66" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="162" customHeight="1">
@@ -6690,7 +6717,7 @@
         <v>239</v>
       </c>
       <c r="R67" s="81" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="162" customHeight="1">
@@ -6747,7 +6774,7 @@
         <v>239</v>
       </c>
       <c r="R68" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="132.75" customHeight="1">
@@ -6805,7 +6832,7 @@
         <v>245</v>
       </c>
       <c r="R69" s="44" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="162" customHeight="1">
@@ -6862,7 +6889,7 @@
         <v>248</v>
       </c>
       <c r="R70" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="162" customHeight="1">
@@ -6880,10 +6907,10 @@
       </c>
       <c r="E71" s="33"/>
       <c r="F71" s="72" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="G71" s="35">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H71" s="36">
         <v>2</v>
@@ -6897,7 +6924,9 @@
       <c r="K71" s="39">
         <v>46057</v>
       </c>
-      <c r="L71" s="39"/>
+      <c r="L71" s="39">
+        <v>46059</v>
+      </c>
       <c r="M71" s="40">
         <f ca="1">IF(OR(J71="",AND(L71="",TODAY()&lt;J71),AND(L71&lt;&gt;"",L71&lt;J71)),0,
    IF(L71="",
@@ -6905,18 +6934,20 @@
       NETWORKDAYS(J71,L71,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N71" s="39"/>
       <c r="O71" s="39">
         <v>46057</v>
       </c>
-      <c r="P71" s="39"/>
+      <c r="P71" s="39">
+        <v>46070</v>
+      </c>
       <c r="Q71" s="79" t="s">
         <v>251</v>
       </c>
       <c r="R71" s="81" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="162" customHeight="1">
@@ -6975,7 +7006,7 @@
         <v>254</v>
       </c>
       <c r="R72" s="80" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="162" customHeight="1">
@@ -7034,10 +7065,10 @@
         <v>257</v>
       </c>
       <c r="R73" s="81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="162" customHeight="1">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="144" customHeight="1">
       <c r="A74" s="16" t="s">
         <v>18</v>
       </c>
@@ -7052,10 +7083,10 @@
       </c>
       <c r="E74" s="19"/>
       <c r="F74" s="54" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="G74" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H74" s="22">
         <f>IF(OR(J74="",K74="",K74&lt;J74),0,NETWORKDAYS(J74,K74,Hoja2!$A$2:$A$53))</f>
@@ -7070,7 +7101,9 @@
       <c r="K74" s="24">
         <v>46065</v>
       </c>
-      <c r="L74" s="24"/>
+      <c r="L74" s="24">
+        <v>46070</v>
+      </c>
       <c r="M74" s="25">
         <f ca="1">IF(OR(J74="",AND(L74="",TODAY()&lt;J74),AND(L74&lt;&gt;"",L74&lt;J74)),0,
    IF(L74="",
@@ -7078,30 +7111,143 @@
       NETWORKDAYS(J74,L74,Hoja2!$A$2:$A$53)
    )
 )</f>
+        <v>6</v>
+      </c>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24">
+        <v>46070</v>
+      </c>
+      <c r="P74" s="24">
+        <v>46070</v>
+      </c>
+      <c r="Q74" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="R74" s="80" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="162" customHeight="1">
+      <c r="A75" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="33"/>
+      <c r="F75" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="G75" s="35">
+        <v>80</v>
+      </c>
+      <c r="H75" s="36">
+        <f>IF(OR(J75="",K75="",K75&lt;J75),0,NETWORKDAYS(J75,K75,Hoja2!$A$2:$A$53))</f>
         <v>2</v>
       </c>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="R74" s="80" t="s">
-        <v>365</v>
+      <c r="I75" s="38">
+        <v>46063</v>
+      </c>
+      <c r="J75" s="38">
+        <v>46065</v>
+      </c>
+      <c r="K75" s="39">
+        <v>46066</v>
+      </c>
+      <c r="L75" s="39">
+        <v>46069</v>
+      </c>
+      <c r="M75" s="40">
+        <f ca="1">IF(OR(J75="",AND(L75="",TODAY()&lt;J75),AND(L75&lt;&gt;"",L75&lt;J75)),0,
+   IF(L75="",
+      NETWORKDAYS(J75,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J75,L75,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>3</v>
+      </c>
+      <c r="N75" s="39"/>
+      <c r="O75" s="39">
+        <v>46069</v>
+      </c>
+      <c r="P75" s="39">
+        <v>46069</v>
+      </c>
+      <c r="Q75" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="R75" s="81" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="132.75" customHeight="1">
+      <c r="A76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G76" s="66">
+        <v>20</v>
+      </c>
+      <c r="H76" s="22">
+        <v>1</v>
+      </c>
+      <c r="I76" s="45">
+        <v>46070</v>
+      </c>
+      <c r="J76" s="45">
+        <v>46070</v>
+      </c>
+      <c r="K76" s="24">
+        <v>46071</v>
+      </c>
+      <c r="L76" s="24"/>
+      <c r="M76" s="25">
+        <f ca="1">IF(OR(J76="",AND(L76="",TODAY()&lt;J76),AND(L76&lt;&gt;"",L76&lt;J76)),0,
+   IF(L76="",
+      NETWORKDAYS(J76,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J76,L76,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="78"/>
+      <c r="R76" s="29" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R30"/>
-  <conditionalFormatting sqref="B1:B74">
+  <conditionalFormatting sqref="B1:B76">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>COUNTIF(B$1:B$74, B1)&gt;1</formula>
+      <formula>COUNTIF(B$1:B$76, B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L74 N2:P74">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L76 N2:P76">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F74">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F76">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7147,7 +7293,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>8</v>
@@ -7162,7 +7308,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>14</v>
@@ -7198,19 +7344,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B2" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>22</v>
@@ -7245,19 +7391,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B3" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F3" s="91" t="s">
         <v>22</v>
@@ -7292,19 +7438,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>22</v>
@@ -7343,19 +7489,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>22</v>
@@ -7394,19 +7540,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="107" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F6" s="108" t="s">
         <v>22</v>
@@ -7445,19 +7591,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F7" s="110" t="s">
         <v>22</v>
@@ -7496,19 +7642,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>22</v>
@@ -7543,17 +7689,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="89" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>22</v>
@@ -7590,17 +7736,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="89" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>22</v>
@@ -7635,19 +7781,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>22</v>
@@ -7684,19 +7830,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>22</v>
@@ -7733,19 +7879,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>22</v>
@@ -7780,7 +7926,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="88" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>61</v>
@@ -7790,7 +7936,7 @@
       </c>
       <c r="D14" s="121"/>
       <c r="E14" s="107" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>22</v>
@@ -7856,7 +8002,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -7864,7 +8010,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -7872,7 +8018,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -7880,7 +8026,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -7888,7 +8034,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -7896,7 +8042,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -7904,7 +8050,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -7912,7 +8058,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -7920,7 +8066,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -7928,7 +8074,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -7936,7 +8082,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -7944,7 +8090,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -7952,7 +8098,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -7960,7 +8106,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -7968,7 +8114,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -7976,7 +8122,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -7984,7 +8130,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -7992,7 +8138,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -8000,7 +8146,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -8008,7 +8154,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -8016,7 +8162,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -8024,7 +8170,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -8032,7 +8178,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -8040,7 +8186,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -8048,7 +8194,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -8056,7 +8202,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -8064,7 +8210,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -8072,7 +8218,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -8080,7 +8226,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -8088,7 +8234,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -8096,7 +8242,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -8104,7 +8250,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -8112,7 +8258,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -8120,7 +8266,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -8128,7 +8274,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -8136,7 +8282,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -8144,7 +8290,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -8152,7 +8298,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -8160,7 +8306,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -8168,7 +8314,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -8176,7 +8322,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -8184,7 +8330,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -8192,7 +8338,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -8200,7 +8346,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -8208,7 +8354,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -8216,7 +8362,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -8224,7 +8370,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -8232,7 +8378,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -8240,7 +8386,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -8248,7 +8394,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="124" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -8256,7 +8402,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="124" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -8264,7 +8410,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="124" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -8272,7 +8418,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="124" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
@@ -9249,7 +9395,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="125" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -9307,7 +9453,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="127" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B3" s="128">
         <v>45596</v>
@@ -9600,261 +9746,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="131" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O4" s="134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P4" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="R4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U4" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE4" s="160" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AF4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL4" s="160" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="AM4" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AN4" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AO4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP4" s="160" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AQ4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS4" s="160" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AT4" s="136" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AV4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY4" s="160" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AZ4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BA4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BH4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI4" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ4" s="160" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="BK4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BL4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BM4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BN4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BO4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BP4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BQ4" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BR4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CA4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CB4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CC4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CD4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG4" s="134"/>
       <c r="CH4" s="134"/>
       <c r="CI4" s="160" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="CJ4" s="134"/>
       <c r="CK4" s="134"/>
@@ -9866,249 +10012,249 @@
       <c r="CQ4" s="134"/>
       <c r="CR4" s="134"/>
       <c r="CS4" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="131" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="N5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="O5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P5" s="135" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="R5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U5" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="V5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE5" s="161"/>
       <c r="AF5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL5" s="161"/>
       <c r="AM5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP5" s="161"/>
       <c r="AQ5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AR5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AS5" s="161"/>
       <c r="AT5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AU5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AV5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AW5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AX5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AY5" s="161"/>
       <c r="AZ5" s="134" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BA5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BH5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI5" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ5" s="161"/>
       <c r="BK5" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL5" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN5" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BP5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BQ5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BR5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CA5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CB5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CC5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CD5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG5" s="134"/>
       <c r="CH5" s="134"/>
@@ -10123,249 +10269,249 @@
       <c r="CQ5" s="134"/>
       <c r="CR5" s="134"/>
       <c r="CS5" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="131" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="J6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="L6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="M6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="N6" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="O6" s="134" t="s">
         <v>334</v>
       </c>
-      <c r="B6" s="132" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="G6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="H6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="J6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="K6" s="137" t="s">
-        <v>335</v>
-      </c>
-      <c r="L6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="M6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="N6" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="O6" s="134" t="s">
-        <v>326</v>
-      </c>
       <c r="P6" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="R6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U6" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="V6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE6" s="161"/>
       <c r="AF6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL6" s="161"/>
       <c r="AM6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS6" s="161"/>
       <c r="AT6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AV6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY6" s="161"/>
       <c r="AZ6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BA6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BH6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI6" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ6" s="161"/>
       <c r="BK6" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL6" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN6" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BP6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BQ6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BR6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CA6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CB6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CC6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CD6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG6" s="134"/>
       <c r="CH6" s="134"/>
@@ -10380,198 +10526,198 @@
       <c r="CQ6" s="134"/>
       <c r="CR6" s="134"/>
       <c r="CS6" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="131" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L7" s="137" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="N7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="135" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="R7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="S7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="T7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="U7" s="135" t="s">
+        <v>346</v>
+      </c>
+      <c r="V7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="W7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="X7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y7" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="Z7" s="134" t="s">
         <v>335</v>
       </c>
-      <c r="M7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="N7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="O7" s="134" t="s">
-        <v>326</v>
-      </c>
-      <c r="P7" s="135" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="R7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="S7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="T7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="U7" s="135" t="s">
-        <v>338</v>
-      </c>
-      <c r="V7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="W7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="X7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="Y7" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="Z7" s="134" t="s">
-        <v>327</v>
-      </c>
       <c r="AA7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE7" s="161"/>
       <c r="AF7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL7" s="161"/>
       <c r="AM7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP7" s="161"/>
       <c r="AQ7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS7" s="161"/>
       <c r="AT7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU7" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AV7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY7" s="161"/>
       <c r="AZ7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BA7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BH7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI7" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ7" s="161"/>
       <c r="BK7" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL7" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN7" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO7" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BP7" s="134"/>
       <c r="BQ7" s="134"/>
@@ -10579,16 +10725,16 @@
       <c r="BS7" s="134"/>
       <c r="BT7" s="134"/>
       <c r="BU7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX7" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY7" s="134"/>
       <c r="BZ7" s="134"/>
@@ -10614,220 +10760,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="131" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L8" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O8" s="134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P8" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="R8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U8" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="V8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W8" s="134" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="X8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB8" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AC8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE8" s="161"/>
       <c r="AF8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL8" s="161"/>
       <c r="AM8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN8" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AO8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP8" s="161"/>
       <c r="AQ8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS8" s="161"/>
       <c r="AT8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AV8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY8" s="161"/>
       <c r="AZ8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BA8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG8" s="134" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="BH8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI8" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ8" s="161"/>
       <c r="BK8" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL8" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN8" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BP8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BQ8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BR8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW8" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX8" s="134" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BY8" s="134"/>
       <c r="BZ8" s="134"/>
@@ -10853,244 +10999,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="131" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="132" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="L9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="M9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="N9" s="134" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" s="137" t="s">
         <v>343</v>
       </c>
-      <c r="B9" s="132" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="H9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="I9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="J9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="K9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="L9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="M9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="N9" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="O9" s="137" t="s">
-        <v>335</v>
-      </c>
       <c r="P9" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="R9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U9" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="V9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE9" s="161"/>
       <c r="AF9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL9" s="161"/>
       <c r="AM9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP9" s="161"/>
       <c r="AQ9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS9" s="161"/>
       <c r="AT9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AV9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY9" s="161"/>
       <c r="AZ9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BA9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BH9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI9" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ9" s="161"/>
       <c r="BK9" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL9" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN9" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BP9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BQ9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BR9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CA9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CB9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CC9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CD9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG9" s="134"/>
       <c r="CH9" s="134"/>
@@ -11105,249 +11251,249 @@
       <c r="CQ9" s="134"/>
       <c r="CR9" s="134"/>
       <c r="CS9" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="131" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B10" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P10" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="U10" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AE10" s="161"/>
       <c r="AF10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AL10" s="161"/>
       <c r="AM10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AN10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP10" s="161"/>
       <c r="AQ10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS10" s="161"/>
       <c r="AT10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AV10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY10" s="161"/>
       <c r="AZ10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BA10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BB10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BC10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BD10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BE10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BF10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BG10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BH10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI10" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ10" s="161"/>
       <c r="BK10" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL10" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN10" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BP10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BQ10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BR10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW10" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BX10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CA10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CB10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CC10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CD10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG10" s="134"/>
       <c r="CH10" s="134"/>
@@ -11362,249 +11508,249 @@
       <c r="CQ10" s="134"/>
       <c r="CR10" s="134"/>
       <c r="CS10" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="131" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O11" s="134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P11" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="R11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="S11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="T11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="U11" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Z11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AB11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AE11" s="161"/>
       <c r="AF11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AG11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AH11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AI11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL11" s="161"/>
       <c r="AM11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AO11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AP11" s="161"/>
       <c r="AQ11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AR11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AS11" s="161"/>
       <c r="AT11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AU11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AV11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AW11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AY11" s="161"/>
       <c r="AZ11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BA11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BB11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BC11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BE11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BF11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BG11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI11" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BJ11" s="161"/>
       <c r="BK11" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL11" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BM11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN11" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BO11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BP11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BQ11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BR11" s="134" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BS11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BT11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BU11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BX11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BY11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CA11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CB11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CC11" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CD11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG11" s="134"/>
       <c r="CH11" s="134"/>
@@ -11619,249 +11765,249 @@
       <c r="CQ11" s="134"/>
       <c r="CR11" s="134"/>
       <c r="CS11" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="131" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="I12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="N12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O12" s="134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P12" s="135" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="R12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="S12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="T12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="U12" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="W12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="X12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Y12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Z12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AA12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AB12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AC12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AE12" s="161"/>
       <c r="AF12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AG12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AH12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AI12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AJ12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AK12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AL12" s="161"/>
       <c r="AM12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AN12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AO12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AP12" s="161"/>
       <c r="AQ12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AR12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AS12" s="161"/>
       <c r="AT12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AU12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AV12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AW12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AX12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AY12" s="161"/>
       <c r="AZ12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BA12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BB12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BC12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BD12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BE12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BF12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BG12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BH12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BI12" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BJ12" s="161"/>
       <c r="BK12" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BL12" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BM12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BN12" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BO12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BP12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BQ12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BR12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BS12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BT12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BU12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BV12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BW12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BX12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BY12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BZ12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CA12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CB12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CC12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CD12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CE12" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CG12" s="134"/>
       <c r="CH12" s="134"/>
@@ -11876,249 +12022,249 @@
       <c r="CQ12" s="134"/>
       <c r="CR12" s="134"/>
       <c r="CS12" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="131" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B13" s="132" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="N13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="O13" s="134" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P13" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="R13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="S13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="T13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="U13" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="V13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="W13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="X13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Y13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Z13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AA13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AB13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AC13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AD13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AE13" s="162"/>
       <c r="AF13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AG13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AH13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AI13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AJ13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AK13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AL13" s="162"/>
       <c r="AM13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AN13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AO13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AP13" s="162"/>
       <c r="AQ13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AR13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AS13" s="162"/>
       <c r="AT13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AU13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AV13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AW13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AX13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AY13" s="162"/>
       <c r="AZ13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BA13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BB13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BC13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BD13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BE13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BF13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BG13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BH13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BI13" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BJ13" s="162"/>
       <c r="BK13" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BL13" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BM13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BN13" s="135" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BO13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BP13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BQ13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BR13" s="134" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BS13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BT13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BU13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BV13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BW13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BX13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BY13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BZ13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CA13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CB13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CC13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="CD13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CE13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CF13" s="134" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="CG13" s="134"/>
       <c r="CH13" s="134"/>
@@ -12133,7 +12279,7 @@
       <c r="CQ13" s="134"/>
       <c r="CR13" s="134"/>
       <c r="CS13" s="134" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13155,7 +13301,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="138" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B1" s="138" t="s">
         <v>2</v>
@@ -13179,16 +13325,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="141" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="J1" s="142" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K1" s="143" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L1" s="141" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M1" s="144"/>
       <c r="N1" s="144"/>
@@ -13207,10 +13353,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="145" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147" t="s">
@@ -13237,7 +13383,7 @@
       </c>
       <c r="K2" s="150"/>
       <c r="L2" s="151" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M2" s="144"/>
       <c r="N2" s="144"/>
@@ -13256,16 +13402,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="145" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E3" s="148">
         <v>45575</v>
@@ -13284,7 +13430,7 @@
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="151" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="144"/>
@@ -13303,14 +13449,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="145" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B4" s="161"/>
       <c r="C4" s="154" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E4" s="148">
         <v>45575</v>
@@ -13329,7 +13475,7 @@
       </c>
       <c r="K4" s="155"/>
       <c r="L4" s="158" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="144"/>
@@ -13348,16 +13494,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="145" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B5" s="141" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C5" s="147" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="D5" s="147" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E5" s="148">
         <v>45575</v>
@@ -13376,7 +13522,7 @@
       </c>
       <c r="K5" s="148"/>
       <c r="L5" s="151" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="144"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="378">
   <si>
     <t>Asignado a</t>
   </si>
@@ -934,6 +934,22 @@
   </si>
   <si>
     <t>Creación de lóigica para la visualización de sub estados de trámites</t>
+  </si>
+  <si>
+    <t>17/02/2026 Se realiza un análisis de la lógica que genera los estados de las solicitudes
+18/02/2026 Se desarrolla posible soluci+on a la necesidad
+19/02/2026 Se realiza pruebas, modificaciones y se sube a producción</t>
+  </si>
+  <si>
+    <t>Interno-H16-13-2</t>
+  </si>
+  <si>
+    <t>Adición de modulos que faciliten el proceso de la validación</t>
+  </si>
+  <si>
+    <t>19/02/2026 Se habla con Harol para la identificación de cambios que faciliten el trabajo del módulo
+20/02/2026 Se cargan cambios para la visualización del visor en distintas ventanas, además de el formateo de información para el tipo documental
+21/02/2026 Se está a la espera de las retroalimentaciones</t>
   </si>
   <si>
     <t>dias estimados</t>
@@ -1273,9 +1289,6 @@
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
 </sst>
 </file>
@@ -2766,11 +2779,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2926,7 +2939,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="29.25" customHeight="1">
@@ -2981,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="29.25" customHeight="1">
@@ -3040,7 +3053,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="29.25" customHeight="1">
@@ -3099,7 +3112,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="29.25" customHeight="1">
@@ -3158,7 +3171,7 @@
         <v>36</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="29.25" customHeight="1">
@@ -3217,7 +3230,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="29.25" customHeight="1">
@@ -3272,7 +3285,7 @@
         <v>43</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="29.25" customHeight="1">
@@ -3327,7 +3340,7 @@
         <v>46</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -3402,7 +3415,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -3481,7 +3494,7 @@
         <v>52</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
@@ -3560,7 +3573,7 @@
         <v>56</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -3637,7 +3650,7 @@
         <v>60</v>
       </c>
       <c r="R13" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
@@ -3712,7 +3725,7 @@
         <v>63</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
@@ -3789,7 +3802,7 @@
         <v>66</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="40.5" customHeight="1">
@@ -3844,7 +3857,7 @@
         <v>69</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="48" customHeight="1">
@@ -3899,7 +3912,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="42" customHeight="1">
@@ -3954,7 +3967,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="29.25" customHeight="1">
@@ -4009,7 +4022,7 @@
         <v>78</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1">
@@ -4051,7 +4064,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -4060,7 +4073,7 @@
         <v>81</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="39" customHeight="1">
@@ -4105,7 +4118,7 @@
         <v>85</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="129.75" customHeight="1">
@@ -4162,7 +4175,7 @@
         <v>88</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="69" customHeight="1">
@@ -4219,7 +4232,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1">
@@ -4274,7 +4287,7 @@
         <v>95</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="63" customHeight="1">
@@ -4333,7 +4346,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="67.5" customHeight="1">
@@ -4388,7 +4401,7 @@
         <v>103</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="55.5" customHeight="1">
@@ -4432,8 +4445,8 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="77"/>
-      <c r="R27" s="44" t="s">
-        <v>374</v>
+      <c r="R27" s="44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="138" customHeight="1">
@@ -4488,7 +4501,7 @@
         <v>109</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="67.5" customHeight="1">
@@ -4543,7 +4556,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="85.5">
@@ -4596,7 +4609,7 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="71.25">
@@ -4649,7 +4662,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="42.75">
@@ -4700,7 +4713,7 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="76.5" customHeight="1">
@@ -4755,7 +4768,7 @@
         <v>120</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="38.25">
@@ -4812,7 +4825,7 @@
         <v>124</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="42.75">
@@ -4869,7 +4882,7 @@
         <v>124</v>
       </c>
       <c r="R35" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="93" customHeight="1">
@@ -4926,7 +4939,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="76.5" customHeight="1">
@@ -4983,7 +4996,7 @@
         <v>134</v>
       </c>
       <c r="R37" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="120.75" customHeight="1">
@@ -5027,7 +5040,7 @@
       NETWORKDAYS(J38,L38,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -5036,7 +5049,7 @@
         <v>139</v>
       </c>
       <c r="R38" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="162" customHeight="1">
@@ -5093,7 +5106,7 @@
         <v>142</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="93" customHeight="1">
@@ -5152,7 +5165,7 @@
         <v>146</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="93" customHeight="1">
@@ -5209,7 +5222,7 @@
         <v>151</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="67.5" customHeight="1">
@@ -5268,7 +5281,7 @@
         <v>154</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="93" customHeight="1">
@@ -5327,7 +5340,7 @@
         <v>158</v>
       </c>
       <c r="R43" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="93" customHeight="1">
@@ -5386,7 +5399,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="93" customHeight="1">
@@ -5445,7 +5458,7 @@
         <v>166</v>
       </c>
       <c r="R45" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="162" customHeight="1">
@@ -5504,7 +5517,7 @@
         <v>170</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="162" customHeight="1">
@@ -5563,7 +5576,7 @@
         <v>173</v>
       </c>
       <c r="R47" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="162" customHeight="1">
@@ -5622,7 +5635,7 @@
         <v>176</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="162" customHeight="1">
@@ -5681,7 +5694,7 @@
         <v>179</v>
       </c>
       <c r="R49" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="162" customHeight="1">
@@ -5740,7 +5753,7 @@
         <v>182</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="162" customHeight="1">
@@ -5799,7 +5812,7 @@
         <v>185</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="162" customHeight="1">
@@ -5856,7 +5869,7 @@
         <v>188</v>
       </c>
       <c r="R52" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="101.25" customHeight="1">
@@ -5913,7 +5926,7 @@
         <v>192</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="110.25" customHeight="1">
@@ -5970,7 +5983,7 @@
         <v>196</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="162" customHeight="1">
@@ -6027,7 +6040,7 @@
         <v>200</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="162" customHeight="1">
@@ -6084,7 +6097,7 @@
         <v>203</v>
       </c>
       <c r="R56" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="110.25" customHeight="1">
@@ -6143,7 +6156,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="162" customHeight="1">
@@ -6200,7 +6213,7 @@
         <v>210</v>
       </c>
       <c r="R58" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="110.25" customHeight="1">
@@ -6259,7 +6272,7 @@
         <v>214</v>
       </c>
       <c r="R59" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="162" customHeight="1">
@@ -6316,7 +6329,7 @@
         <v>217</v>
       </c>
       <c r="R60" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="162" customHeight="1">
@@ -6375,7 +6388,7 @@
         <v>220</v>
       </c>
       <c r="R61" s="81" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="110.25" customHeight="1">
@@ -6434,7 +6447,7 @@
         <v>223</v>
       </c>
       <c r="R62" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="162" customHeight="1">
@@ -6478,14 +6491,14 @@
       NETWORKDAYS(J63,L63,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="79"/>
       <c r="R63" s="81" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="132.75" customHeight="1">
@@ -6544,7 +6557,7 @@
         <v>229</v>
       </c>
       <c r="R64" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="132.75" customHeight="1">
@@ -6603,7 +6616,7 @@
         <v>233</v>
       </c>
       <c r="R65" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="162" customHeight="1">
@@ -6660,7 +6673,7 @@
         <v>236</v>
       </c>
       <c r="R66" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="162" customHeight="1">
@@ -6717,7 +6730,7 @@
         <v>239</v>
       </c>
       <c r="R67" s="81" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="162" customHeight="1">
@@ -6774,7 +6787,7 @@
         <v>239</v>
       </c>
       <c r="R68" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="132.75" customHeight="1">
@@ -6832,7 +6845,7 @@
         <v>245</v>
       </c>
       <c r="R69" s="44" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="162" customHeight="1">
@@ -6889,7 +6902,7 @@
         <v>248</v>
       </c>
       <c r="R70" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="162" customHeight="1">
@@ -6947,7 +6960,7 @@
         <v>251</v>
       </c>
       <c r="R71" s="81" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="162" customHeight="1">
@@ -7006,7 +7019,7 @@
         <v>254</v>
       </c>
       <c r="R72" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="162" customHeight="1">
@@ -7065,7 +7078,7 @@
         <v>257</v>
       </c>
       <c r="R73" s="81" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="144" customHeight="1">
@@ -7124,7 +7137,7 @@
         <v>261</v>
       </c>
       <c r="R74" s="80" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="162" customHeight="1">
@@ -7183,7 +7196,7 @@
         <v>265</v>
       </c>
       <c r="R75" s="81" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="132.75" customHeight="1">
@@ -7201,13 +7214,14 @@
       </c>
       <c r="E76" s="19"/>
       <c r="F76" s="54" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="G76" s="66">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H76" s="22">
-        <v>1</v>
+        <f>IF(OR(J76="",K76="",K76&lt;J76),0,NETWORKDAYS(J76,K76,Hoja2!$A$2:$A$53))</f>
+        <v>2</v>
       </c>
       <c r="I76" s="45">
         <v>46070</v>
@@ -7218,7 +7232,9 @@
       <c r="K76" s="24">
         <v>46071</v>
       </c>
-      <c r="L76" s="24"/>
+      <c r="L76" s="24">
+        <v>46072</v>
+      </c>
       <c r="M76" s="25">
         <f ca="1">IF(OR(J76="",AND(L76="",TODAY()&lt;J76),AND(L76&lt;&gt;"",L76&lt;J76)),0,
    IF(L76="",
@@ -7226,28 +7242,93 @@
       NETWORKDAYS(J76,L76,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="78"/>
+      <c r="O76" s="24">
+        <v>46072</v>
+      </c>
+      <c r="P76" s="24">
+        <v>46072</v>
+      </c>
+      <c r="Q76" s="78" t="s">
+        <v>269</v>
+      </c>
       <c r="R76" s="29" t="s">
-        <v>373</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="162" customHeight="1">
+      <c r="A77" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="33"/>
+      <c r="F77" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="G77" s="35">
+        <v>80</v>
+      </c>
+      <c r="H77" s="36">
+        <f>IF(OR(J77="",K77="",K77&lt;J77),0,NETWORKDAYS(J77,K77,Hoja2!$A$2:$A$53))</f>
+        <v>3</v>
+      </c>
+      <c r="I77" s="38">
+        <v>46072</v>
+      </c>
+      <c r="J77" s="38">
+        <v>46072</v>
+      </c>
+      <c r="K77" s="39">
+        <v>46076</v>
+      </c>
+      <c r="L77" s="39">
+        <v>46073</v>
+      </c>
+      <c r="M77" s="40">
+        <f ca="1">IF(OR(J77="",AND(L77="",TODAY()&lt;J77),AND(L77&lt;&gt;"",L77&lt;J77)),0,
+   IF(L77="",
+      NETWORKDAYS(J77,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J77,L77,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="N77" s="39"/>
+      <c r="O77" s="39">
+        <v>46073</v>
+      </c>
+      <c r="P77" s="39">
+        <v>46073</v>
+      </c>
+      <c r="Q77" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="R77" s="81" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R30"/>
-  <conditionalFormatting sqref="B1:B76">
+  <conditionalFormatting sqref="B1:B77">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>COUNTIF(B$1:B$76, B1)&gt;1</formula>
+      <formula>COUNTIF(B$1:B$77, B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L76 N2:P76">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L77 N2:P77">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F76">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F77">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7293,7 +7374,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>8</v>
@@ -7308,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>14</v>
@@ -7344,19 +7425,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B2" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>22</v>
@@ -7391,19 +7472,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B3" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F3" s="91" t="s">
         <v>22</v>
@@ -7438,19 +7519,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>22</v>
@@ -7489,19 +7570,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>22</v>
@@ -7540,19 +7621,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="107" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F6" s="108" t="s">
         <v>22</v>
@@ -7591,19 +7672,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F7" s="110" t="s">
         <v>22</v>
@@ -7642,19 +7723,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>22</v>
@@ -7689,17 +7770,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="89" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>22</v>
@@ -7736,17 +7817,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="89" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>22</v>
@@ -7781,19 +7862,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>22</v>
@@ -7830,19 +7911,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>22</v>
@@ -7879,19 +7960,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>22</v>
@@ -7926,7 +8007,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="88" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>61</v>
@@ -7936,7 +8017,7 @@
       </c>
       <c r="D14" s="121"/>
       <c r="E14" s="107" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>22</v>
@@ -8002,7 +8083,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -8010,7 +8091,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -8018,7 +8099,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -8026,7 +8107,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -8034,7 +8115,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -8042,7 +8123,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -8050,7 +8131,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -8058,7 +8139,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -8066,7 +8147,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -8074,7 +8155,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -8082,7 +8163,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -8090,7 +8171,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -8098,7 +8179,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -8106,7 +8187,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -8114,7 +8195,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -8122,7 +8203,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -8130,7 +8211,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -8138,7 +8219,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -8146,7 +8227,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -8154,7 +8235,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -8162,7 +8243,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -8170,7 +8251,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -8178,7 +8259,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -8186,7 +8267,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -8194,7 +8275,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -8202,7 +8283,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -8210,7 +8291,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -8218,7 +8299,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -8226,7 +8307,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -8234,7 +8315,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -8242,7 +8323,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -8250,7 +8331,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -8258,7 +8339,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -8266,7 +8347,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -8274,7 +8355,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -8282,7 +8363,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -8290,7 +8371,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -8298,7 +8379,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -8306,7 +8387,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -8314,7 +8395,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -8322,7 +8403,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -8330,7 +8411,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -8338,7 +8419,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -8346,7 +8427,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -8354,7 +8435,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -8362,7 +8443,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -8370,7 +8451,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -8378,7 +8459,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -8386,7 +8467,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -8394,7 +8475,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="124" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -8402,7 +8483,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="124" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -8410,7 +8491,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="124" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -8418,7 +8499,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="124" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
@@ -9395,7 +9476,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="125" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -9453,7 +9534,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="127" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B3" s="128">
         <v>45596</v>
@@ -9746,261 +9827,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="131" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O4" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P4" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U4" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE4" s="160" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AF4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL4" s="160" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AM4" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN4" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AO4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP4" s="160" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AQ4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS4" s="160" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AT4" s="136" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AV4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY4" s="160" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AZ4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BA4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BH4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI4" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ4" s="160" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="BK4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BL4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BM4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BN4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BO4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BP4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BQ4" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BR4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CA4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CB4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CC4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CD4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG4" s="134"/>
       <c r="CH4" s="134"/>
       <c r="CI4" s="160" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="CJ4" s="134"/>
       <c r="CK4" s="134"/>
@@ -10012,249 +10093,249 @@
       <c r="CQ4" s="134"/>
       <c r="CR4" s="134"/>
       <c r="CS4" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="131" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P5" s="135" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U5" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE5" s="161"/>
       <c r="AF5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL5" s="161"/>
       <c r="AM5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP5" s="161"/>
       <c r="AQ5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AR5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AS5" s="161"/>
       <c r="AT5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AU5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AV5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AW5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AX5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AY5" s="161"/>
       <c r="AZ5" s="134" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="BA5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BH5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI5" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ5" s="161"/>
       <c r="BK5" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL5" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN5" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BP5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BQ5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BR5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CA5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CB5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CC5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CD5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG5" s="134"/>
       <c r="CH5" s="134"/>
@@ -10269,249 +10350,249 @@
       <c r="CQ5" s="134"/>
       <c r="CR5" s="134"/>
       <c r="CS5" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="131" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B6" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K6" s="137" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O6" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P6" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U6" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE6" s="161"/>
       <c r="AF6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL6" s="161"/>
       <c r="AM6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS6" s="161"/>
       <c r="AT6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AV6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY6" s="161"/>
       <c r="AZ6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BA6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BH6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI6" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ6" s="161"/>
       <c r="BK6" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL6" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM6" s="134" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BN6" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BP6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BQ6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BR6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CA6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CB6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CC6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CD6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG6" s="134"/>
       <c r="CH6" s="134"/>
@@ -10526,198 +10607,198 @@
       <c r="CQ6" s="134"/>
       <c r="CR6" s="134"/>
       <c r="CS6" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="131" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L7" s="137" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O7" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P7" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U7" s="135" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="V7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z7" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AA7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE7" s="161"/>
       <c r="AF7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL7" s="161"/>
       <c r="AM7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP7" s="161"/>
       <c r="AQ7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS7" s="161"/>
       <c r="AT7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU7" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AV7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY7" s="161"/>
       <c r="AZ7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BA7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BH7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI7" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ7" s="161"/>
       <c r="BK7" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL7" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN7" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO7" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BP7" s="134"/>
       <c r="BQ7" s="134"/>
@@ -10725,16 +10806,16 @@
       <c r="BS7" s="134"/>
       <c r="BT7" s="134"/>
       <c r="BU7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX7" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY7" s="134"/>
       <c r="BZ7" s="134"/>
@@ -10760,220 +10841,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="131" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L8" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O8" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P8" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U8" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W8" s="134" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="X8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB8" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AC8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE8" s="161"/>
       <c r="AF8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL8" s="161"/>
       <c r="AM8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN8" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AO8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP8" s="161"/>
       <c r="AQ8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS8" s="161"/>
       <c r="AT8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AV8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY8" s="161"/>
       <c r="AZ8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BA8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG8" s="134" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="BH8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI8" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ8" s="161"/>
       <c r="BK8" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL8" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN8" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BP8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BQ8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BR8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW8" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX8" s="134" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="BY8" s="134"/>
       <c r="BZ8" s="134"/>
@@ -10999,244 +11080,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="131" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B9" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="L9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O9" s="137" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="P9" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U9" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE9" s="161"/>
       <c r="AF9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL9" s="161"/>
       <c r="AM9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP9" s="161"/>
       <c r="AQ9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS9" s="161"/>
       <c r="AT9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AV9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY9" s="161"/>
       <c r="AZ9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BA9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BH9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI9" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ9" s="161"/>
       <c r="BK9" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL9" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN9" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BP9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BQ9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BR9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CA9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CB9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CC9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CD9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG9" s="134"/>
       <c r="CH9" s="134"/>
@@ -11251,249 +11332,249 @@
       <c r="CQ9" s="134"/>
       <c r="CR9" s="134"/>
       <c r="CS9" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="131" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B10" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P10" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="U10" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AE10" s="161"/>
       <c r="AF10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AL10" s="161"/>
       <c r="AM10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP10" s="161"/>
       <c r="AQ10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS10" s="161"/>
       <c r="AT10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AV10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY10" s="161"/>
       <c r="AZ10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BA10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BB10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BC10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BD10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BE10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BF10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BG10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BH10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI10" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ10" s="161"/>
       <c r="BK10" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL10" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN10" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BP10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BQ10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BR10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW10" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BX10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CA10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CB10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CC10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CD10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG10" s="134"/>
       <c r="CH10" s="134"/>
@@ -11508,249 +11589,249 @@
       <c r="CQ10" s="134"/>
       <c r="CR10" s="134"/>
       <c r="CS10" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="131" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="O11" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P11" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="S11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U11" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Y11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Z11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AB11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AC11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AE11" s="161"/>
       <c r="AF11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AH11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AI11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL11" s="161"/>
       <c r="AM11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AN11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AO11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AP11" s="161"/>
       <c r="AQ11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AR11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AS11" s="161"/>
       <c r="AT11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AU11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AV11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AW11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AY11" s="161"/>
       <c r="AZ11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BA11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BB11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BC11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BE11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BF11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BG11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI11" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BJ11" s="161"/>
       <c r="BK11" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BL11" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BM11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN11" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BO11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BP11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BQ11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BR11" s="134" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BS11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BT11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BU11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BX11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BY11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CA11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CB11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CC11" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CD11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG11" s="134"/>
       <c r="CH11" s="134"/>
@@ -11765,249 +11846,249 @@
       <c r="CQ11" s="134"/>
       <c r="CR11" s="134"/>
       <c r="CS11" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="131" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="I12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O12" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P12" s="135" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="R12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="S12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U12" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="W12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Y12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Z12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AB12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AC12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AE12" s="161"/>
       <c r="AF12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AG12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AH12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AI12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AJ12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AL12" s="161"/>
       <c r="AM12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AO12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AP12" s="161"/>
       <c r="AQ12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AR12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AS12" s="161"/>
       <c r="AT12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AU12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AV12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AW12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AX12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AY12" s="161"/>
       <c r="AZ12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BA12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BB12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BC12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BD12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BE12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BF12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BG12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BH12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BI12" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BJ12" s="161"/>
       <c r="BK12" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BL12" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BM12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BN12" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BO12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BP12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BQ12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BR12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BS12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BT12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BU12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BW12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BX12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BY12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BZ12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CA12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CB12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CC12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CD12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CE12" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CG12" s="134"/>
       <c r="CH12" s="134"/>
@@ -12022,249 +12103,249 @@
       <c r="CQ12" s="134"/>
       <c r="CR12" s="134"/>
       <c r="CS12" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="131" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B13" s="132" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="O13" s="134" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P13" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="R13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="S13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="T13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U13" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="W13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="X13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Y13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Z13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AA13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AB13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AC13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AD13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AE13" s="162"/>
       <c r="AF13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AG13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AH13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AI13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AJ13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AK13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AL13" s="162"/>
       <c r="AM13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AO13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AP13" s="162"/>
       <c r="AQ13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AR13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AS13" s="162"/>
       <c r="AT13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AU13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AV13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AW13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AX13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AY13" s="162"/>
       <c r="AZ13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BA13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BB13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BC13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BD13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BE13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BF13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BG13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BH13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BI13" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BJ13" s="162"/>
       <c r="BK13" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BL13" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BM13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BN13" s="135" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BO13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BP13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BQ13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BR13" s="134" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BS13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BT13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BU13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BV13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BW13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BX13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BY13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="BZ13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CA13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CB13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CC13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="CD13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CE13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CF13" s="134" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CG13" s="134"/>
       <c r="CH13" s="134"/>
@@ -12279,7 +12360,7 @@
       <c r="CQ13" s="134"/>
       <c r="CR13" s="134"/>
       <c r="CS13" s="134" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13301,7 +13382,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="138" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B1" s="138" t="s">
         <v>2</v>
@@ -13325,16 +13406,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="141" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J1" s="142" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K1" s="143" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L1" s="141" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M1" s="144"/>
       <c r="N1" s="144"/>
@@ -13353,10 +13434,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="145" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147" t="s">
@@ -13383,7 +13464,7 @@
       </c>
       <c r="K2" s="150"/>
       <c r="L2" s="151" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M2" s="144"/>
       <c r="N2" s="144"/>
@@ -13402,16 +13483,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="145" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E3" s="148">
         <v>45575</v>
@@ -13430,7 +13511,7 @@
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="151" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="144"/>
@@ -13449,14 +13530,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="145" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B4" s="161"/>
       <c r="C4" s="154" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E4" s="148">
         <v>45575</v>
@@ -13475,7 +13556,7 @@
       </c>
       <c r="K4" s="155"/>
       <c r="L4" s="158" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="144"/>
@@ -13494,16 +13575,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="145" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B5" s="141" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="147" t="s">
         <v>371</v>
-      </c>
-      <c r="C5" s="147" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="147" t="s">
-        <v>367</v>
       </c>
       <c r="E5" s="148">
         <v>45575</v>
@@ -13522,7 +13603,7 @@
       </c>
       <c r="K5" s="148"/>
       <c r="L5" s="151" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="144"/>

--- a/Proteccion.xlsx
+++ b/Proteccion.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="387">
   <si>
     <t>Asignado a</t>
   </si>
@@ -949,7 +949,33 @@
   <si>
     <t>19/02/2026 Se habla con Harol para la identificación de cambios que faciliten el trabajo del módulo
 20/02/2026 Se cargan cambios para la visualización del visor en distintas ventanas, además de el formateo de información para el tipo documental
-21/02/2026 Se está a la espera de las retroalimentaciones</t>
+21/02/2026 Se está a la espera de las retroalimentaciones
+24/02/2026 Se realizaron algunos cambios para extraer más datos pero el servicio solo carga hasta cierto punto y se debe revisar si es por alguna sobrecarga. De resto todo parece funcionar correctamente</t>
+  </si>
+  <si>
+    <t>REQ-24</t>
+  </si>
+  <si>
+    <t>Se deben de dar respuesta a la cola de casos abiertos en la plataforma del cliente</t>
+  </si>
+  <si>
+    <t>Atención al soporte en plataforma del cliente</t>
+  </si>
+  <si>
+    <t>23/02/2026 Se identifica que hay una cola de casos para soporte que se deben de gestionar. Se recibe documnetación para la atención en la plataforma
+25/02/2026 Hasta el momento se han gestionado alrededor de 40 - 50 casos</t>
+  </si>
+  <si>
+    <t>REQ-25</t>
+  </si>
+  <si>
+    <t>Resultado de una falla lógica se debe de reenviar 1800 casos para finalizar etapa de documentación. Para ello se debe de crear un script que facilite la manualidad</t>
+  </si>
+  <si>
+    <t>Casos con eventos de finalización de documentación no ingresados a IMAGINE</t>
+  </si>
+  <si>
+    <t>25/02/2026 Se realiza la gestión para todos los casos asociados</t>
   </si>
   <si>
     <t>dias estimados</t>
@@ -1286,6 +1312,9 @@
   </si>
   <si>
     <t>Internal Server Error</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>True</t>
@@ -2779,11 +2808,11 @@
   <sheetPr>
     <tabColor rgb="FF93C47D"/>
   </sheetPr>
-  <dimension ref="A1:AN77"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N79" sqref="N79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1"/>
@@ -2939,7 +2968,7 @@
         <v>23</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="29.25" customHeight="1">
@@ -2994,7 +3023,7 @@
         <v>26</v>
       </c>
       <c r="R3" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="29.25" customHeight="1">
@@ -3053,7 +3082,7 @@
         <v>30</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="29.25" customHeight="1">
@@ -3112,7 +3141,7 @@
         <v>33</v>
       </c>
       <c r="R5" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:40" ht="29.25" customHeight="1">
@@ -3171,7 +3200,7 @@
         <v>36</v>
       </c>
       <c r="R6" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="29.25" customHeight="1">
@@ -3230,7 +3259,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:40" ht="29.25" customHeight="1">
@@ -3285,7 +3314,7 @@
         <v>43</v>
       </c>
       <c r="R8" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="29.25" customHeight="1">
@@ -3340,7 +3369,7 @@
         <v>46</v>
       </c>
       <c r="R9" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -3415,7 +3444,7 @@
         <v>49</v>
       </c>
       <c r="R10" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="S10" s="61"/>
       <c r="T10" s="61"/>
@@ -3494,7 +3523,7 @@
         <v>52</v>
       </c>
       <c r="R11" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="S11" s="57"/>
       <c r="T11" s="57"/>
@@ -3573,7 +3602,7 @@
         <v>56</v>
       </c>
       <c r="R12" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="S12" s="61"/>
       <c r="T12" s="61"/>
@@ -3650,7 +3679,7 @@
         <v>60</v>
       </c>
       <c r="R13" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
@@ -3725,7 +3754,7 @@
         <v>63</v>
       </c>
       <c r="R14" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="S14" s="61"/>
       <c r="T14" s="61"/>
@@ -3802,7 +3831,7 @@
         <v>66</v>
       </c>
       <c r="R15" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="40.5" customHeight="1">
@@ -3857,7 +3886,7 @@
         <v>69</v>
       </c>
       <c r="R16" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="48" customHeight="1">
@@ -3912,7 +3941,7 @@
         <v>72</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="42" customHeight="1">
@@ -3967,7 +3996,7 @@
         <v>75</v>
       </c>
       <c r="R18" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="29.25" customHeight="1">
@@ -4022,7 +4051,7 @@
         <v>78</v>
       </c>
       <c r="R19" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1">
@@ -4064,7 +4093,7 @@
       NETWORKDAYS(J20,L20,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
@@ -4073,7 +4102,7 @@
         <v>81</v>
       </c>
       <c r="R20" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="39" customHeight="1">
@@ -4118,7 +4147,7 @@
         <v>85</v>
       </c>
       <c r="R21" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="129.75" customHeight="1">
@@ -4175,7 +4204,7 @@
         <v>88</v>
       </c>
       <c r="R22" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="69" customHeight="1">
@@ -4232,7 +4261,7 @@
         <v>92</v>
       </c>
       <c r="R23" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="78.75" customHeight="1">
@@ -4287,7 +4316,7 @@
         <v>95</v>
       </c>
       <c r="R24" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="63" customHeight="1">
@@ -4346,7 +4375,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="67.5" customHeight="1">
@@ -4401,7 +4430,7 @@
         <v>103</v>
       </c>
       <c r="R26" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="55.5" customHeight="1">
@@ -4445,8 +4474,8 @@
       <c r="O27" s="56"/>
       <c r="P27" s="56"/>
       <c r="Q27" s="77"/>
-      <c r="R27" s="44" t="b">
-        <v>0</v>
+      <c r="R27" s="44" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="138" customHeight="1">
@@ -4501,7 +4530,7 @@
         <v>109</v>
       </c>
       <c r="R28" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="67.5" customHeight="1">
@@ -4556,7 +4585,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="43"/>
       <c r="R29" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="85.5">
@@ -4609,7 +4638,7 @@
       <c r="P30" s="53"/>
       <c r="Q30" s="78"/>
       <c r="R30" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="71.25">
@@ -4662,7 +4691,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="79"/>
       <c r="R31" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="42.75">
@@ -4713,7 +4742,7 @@
       <c r="P32" s="53"/>
       <c r="Q32" s="78"/>
       <c r="R32" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="76.5" customHeight="1">
@@ -4768,7 +4797,7 @@
         <v>120</v>
       </c>
       <c r="R33" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="38.25">
@@ -4825,7 +4854,7 @@
         <v>124</v>
       </c>
       <c r="R34" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="42.75">
@@ -4882,7 +4911,7 @@
         <v>124</v>
       </c>
       <c r="R35" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="93" customHeight="1">
@@ -4939,7 +4968,7 @@
         <v>130</v>
       </c>
       <c r="R36" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="76.5" customHeight="1">
@@ -4996,7 +5025,7 @@
         <v>134</v>
       </c>
       <c r="R37" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="120.75" customHeight="1">
@@ -5040,7 +5069,7 @@
       NETWORKDAYS(J38,L38,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
@@ -5049,7 +5078,7 @@
         <v>139</v>
       </c>
       <c r="R38" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="162" customHeight="1">
@@ -5106,7 +5135,7 @@
         <v>142</v>
       </c>
       <c r="R39" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="93" customHeight="1">
@@ -5165,7 +5194,7 @@
         <v>146</v>
       </c>
       <c r="R40" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="93" customHeight="1">
@@ -5222,7 +5251,7 @@
         <v>151</v>
       </c>
       <c r="R41" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="67.5" customHeight="1">
@@ -5281,7 +5310,7 @@
         <v>154</v>
       </c>
       <c r="R42" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="93" customHeight="1">
@@ -5340,7 +5369,7 @@
         <v>158</v>
       </c>
       <c r="R43" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="93" customHeight="1">
@@ -5399,7 +5428,7 @@
         <v>162</v>
       </c>
       <c r="R44" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="93" customHeight="1">
@@ -5458,7 +5487,7 @@
         <v>166</v>
       </c>
       <c r="R45" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="162" customHeight="1">
@@ -5517,7 +5546,7 @@
         <v>170</v>
       </c>
       <c r="R46" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="162" customHeight="1">
@@ -5576,7 +5605,7 @@
         <v>173</v>
       </c>
       <c r="R47" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="162" customHeight="1">
@@ -5635,7 +5664,7 @@
         <v>176</v>
       </c>
       <c r="R48" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="162" customHeight="1">
@@ -5694,7 +5723,7 @@
         <v>179</v>
       </c>
       <c r="R49" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="162" customHeight="1">
@@ -5753,7 +5782,7 @@
         <v>182</v>
       </c>
       <c r="R50" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="162" customHeight="1">
@@ -5812,7 +5841,7 @@
         <v>185</v>
       </c>
       <c r="R51" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:18" ht="162" customHeight="1">
@@ -5869,7 +5898,7 @@
         <v>188</v>
       </c>
       <c r="R52" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="101.25" customHeight="1">
@@ -5926,7 +5955,7 @@
         <v>192</v>
       </c>
       <c r="R53" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="110.25" customHeight="1">
@@ -5983,7 +6012,7 @@
         <v>196</v>
       </c>
       <c r="R54" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="162" customHeight="1">
@@ -6040,7 +6069,7 @@
         <v>200</v>
       </c>
       <c r="R55" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="162" customHeight="1">
@@ -6097,7 +6126,7 @@
         <v>203</v>
       </c>
       <c r="R56" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="110.25" customHeight="1">
@@ -6156,7 +6185,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="162" customHeight="1">
@@ -6213,7 +6242,7 @@
         <v>210</v>
       </c>
       <c r="R58" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="110.25" customHeight="1">
@@ -6272,7 +6301,7 @@
         <v>214</v>
       </c>
       <c r="R59" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="162" customHeight="1">
@@ -6329,7 +6358,7 @@
         <v>217</v>
       </c>
       <c r="R60" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="162" customHeight="1">
@@ -6388,7 +6417,7 @@
         <v>220</v>
       </c>
       <c r="R61" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="110.25" customHeight="1">
@@ -6447,7 +6476,7 @@
         <v>223</v>
       </c>
       <c r="R62" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="162" customHeight="1">
@@ -6491,14 +6520,14 @@
       NETWORKDAYS(J63,L63,Hoja2!$A$2:$A$53)
    )
 )</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N63" s="39"/>
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="79"/>
       <c r="R63" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="132.75" customHeight="1">
@@ -6557,7 +6586,7 @@
         <v>229</v>
       </c>
       <c r="R64" s="29" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="132.75" customHeight="1">
@@ -6616,7 +6645,7 @@
         <v>233</v>
       </c>
       <c r="R65" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="162" customHeight="1">
@@ -6673,7 +6702,7 @@
         <v>236</v>
       </c>
       <c r="R66" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="162" customHeight="1">
@@ -6730,7 +6759,7 @@
         <v>239</v>
       </c>
       <c r="R67" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="162" customHeight="1">
@@ -6787,7 +6816,7 @@
         <v>239</v>
       </c>
       <c r="R68" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="132.75" customHeight="1">
@@ -6845,7 +6874,7 @@
         <v>245</v>
       </c>
       <c r="R69" s="44" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="162" customHeight="1">
@@ -6902,7 +6931,7 @@
         <v>248</v>
       </c>
       <c r="R70" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="162" customHeight="1">
@@ -6960,7 +6989,7 @@
         <v>251</v>
       </c>
       <c r="R71" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="162" customHeight="1">
@@ -7019,7 +7048,7 @@
         <v>254</v>
       </c>
       <c r="R72" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="162" customHeight="1">
@@ -7078,7 +7107,7 @@
         <v>257</v>
       </c>
       <c r="R73" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="144" customHeight="1">
@@ -7137,7 +7166,7 @@
         <v>261</v>
       </c>
       <c r="R74" s="80" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="162" customHeight="1">
@@ -7196,7 +7225,7 @@
         <v>265</v>
       </c>
       <c r="R75" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="132.75" customHeight="1">
@@ -7255,10 +7284,10 @@
         <v>269</v>
       </c>
       <c r="R76" s="29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="162" customHeight="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="176.25" customHeight="1">
       <c r="A77" s="30" t="s">
         <v>18</v>
       </c>
@@ -7273,10 +7302,10 @@
       </c>
       <c r="E77" s="33"/>
       <c r="F77" s="72" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="G77" s="35">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H77" s="36">
         <f>IF(OR(J77="",K77="",K77&lt;J77),0,NETWORKDAYS(J77,K77,Hoja2!$A$2:$A$53))</f>
@@ -7314,21 +7343,133 @@
         <v>272</v>
       </c>
       <c r="R77" s="81" t="s">
-        <v>377</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="132.75" customHeight="1">
+      <c r="A78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="66">
+        <v>60</v>
+      </c>
+      <c r="H78" s="22">
+        <f>IF(OR(J78="",K78="",K78&lt;J78),0,NETWORKDAYS(J78,K78,Hoja2!$A$2:$A$53))</f>
+        <v>4</v>
+      </c>
+      <c r="I78" s="45">
+        <v>46076</v>
+      </c>
+      <c r="J78" s="45">
+        <v>46076</v>
+      </c>
+      <c r="K78" s="24">
+        <v>46079</v>
+      </c>
+      <c r="L78" s="24"/>
+      <c r="M78" s="25">
+        <f ca="1">IF(OR(J78="",AND(L78="",TODAY()&lt;J78),AND(L78&lt;&gt;"",L78&lt;J78)),0,
+   IF(L78="",
+      NETWORKDAYS(J78,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J78,L78,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>3</v>
+      </c>
+      <c r="N78" s="24"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="24"/>
+      <c r="Q78" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="R78" s="29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="132.75" customHeight="1">
+      <c r="A79" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="33"/>
+      <c r="F79" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="G79" s="76">
+        <v>100</v>
+      </c>
+      <c r="H79" s="36">
+        <f>IF(OR(J79="",K79="",K79&lt;J79),0,NETWORKDAYS(J79,K79,Hoja2!$A$2:$A$53))</f>
+        <v>2</v>
+      </c>
+      <c r="I79" s="38">
+        <v>46076</v>
+      </c>
+      <c r="J79" s="38">
+        <v>46076</v>
+      </c>
+      <c r="K79" s="39">
+        <v>46077</v>
+      </c>
+      <c r="L79" s="39">
+        <v>46077</v>
+      </c>
+      <c r="M79" s="40">
+        <f ca="1">IF(OR(J79="",AND(L79="",TODAY()&lt;J79),AND(L79&lt;&gt;"",L79&lt;J79)),0,
+   IF(L79="",
+      NETWORKDAYS(J79,TODAY(),Hoja2!$A$2:$A$53),
+      NETWORKDAYS(J79,L79,Hoja2!$A$2:$A$53)
+   )
+)</f>
+        <v>2</v>
+      </c>
+      <c r="N79" s="39"/>
+      <c r="O79" s="39">
+        <v>46077</v>
+      </c>
+      <c r="P79" s="39">
+        <v>46077</v>
+      </c>
+      <c r="Q79" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="R79" s="44" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R30"/>
-  <conditionalFormatting sqref="B1:B77">
+  <conditionalFormatting sqref="B1:B79">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>COUNTIF(B$1:B$77, B1)&gt;1</formula>
+      <formula>COUNTIF(B$1:B$79, B1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L77 N2:P77">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:L20 I21 K21:L21 I22:L79 N2:P79">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F77">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F79">
       <formula1>"FINALIZADO,EN PROCESO,PAUSADO,EN TEST,PENDIENTE,PRUEBAS CLIENTE,PRUEBAS IMAGINE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7374,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="84" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="I1" s="85" t="s">
         <v>8</v>
@@ -7389,7 +7530,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>14</v>
@@ -7425,19 +7566,19 @@
     </row>
     <row r="2" spans="1:39" ht="29.25" customHeight="1">
       <c r="A2" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B2" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D2" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>22</v>
@@ -7472,19 +7613,19 @@
     </row>
     <row r="3" spans="1:39" ht="29.25" customHeight="1">
       <c r="A3" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B3" s="89" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="90" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F3" s="91" t="s">
         <v>22</v>
@@ -7519,19 +7660,19 @@
     </row>
     <row r="4" spans="1:39" ht="39" customHeight="1">
       <c r="A4" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B4" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D4" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="89" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F4" s="91" t="s">
         <v>22</v>
@@ -7570,19 +7711,19 @@
     </row>
     <row r="5" spans="1:39" ht="127.5">
       <c r="A5" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B5" s="89" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="90" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="F5" s="91" t="s">
         <v>22</v>
@@ -7621,19 +7762,19 @@
     </row>
     <row r="6" spans="1:39" ht="29.25" customHeight="1">
       <c r="A6" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B6" s="89" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="107" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="F6" s="108" t="s">
         <v>22</v>
@@ -7672,19 +7813,19 @@
     </row>
     <row r="7" spans="1:39" ht="29.25" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B7" s="89" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="D7" s="89" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="89" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F7" s="110" t="s">
         <v>22</v>
@@ -7723,19 +7864,19 @@
     </row>
     <row r="8" spans="1:39" ht="29.25" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B8" s="89" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D8" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="112" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F8" s="91" t="s">
         <v>22</v>
@@ -7770,17 +7911,17 @@
     </row>
     <row r="9" spans="1:39" ht="29.25" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B9" s="89" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D9" s="117"/>
       <c r="E9" s="89" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F9" s="110" t="s">
         <v>22</v>
@@ -7817,17 +7958,17 @@
     </row>
     <row r="10" spans="1:39" ht="93" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B10" s="89" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D10" s="117"/>
       <c r="E10" s="89" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>22</v>
@@ -7862,19 +8003,19 @@
     </row>
     <row r="11" spans="1:39" ht="409.5">
       <c r="A11" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="D11" s="89" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F11" s="110" t="s">
         <v>22</v>
@@ -7911,19 +8052,19 @@
     </row>
     <row r="12" spans="1:39" ht="29.25" customHeight="1">
       <c r="A12" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B12" s="89" t="s">
         <v>53</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D12" s="89" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="89" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>22</v>
@@ -7960,19 +8101,19 @@
     </row>
     <row r="13" spans="1:39" ht="29.25" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B13" s="89" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D13" s="89" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="89" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F13" s="110" t="s">
         <v>22</v>
@@ -8007,7 +8148,7 @@
     </row>
     <row r="14" spans="1:39" ht="29.25" customHeight="1">
       <c r="A14" s="88" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B14" s="89" t="s">
         <v>61</v>
@@ -8017,7 +8158,7 @@
       </c>
       <c r="D14" s="121"/>
       <c r="E14" s="107" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F14" s="115" t="s">
         <v>22</v>
@@ -8083,7 +8224,7 @@
         <v>45292</v>
       </c>
       <c r="B1" s="123" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1">
@@ -8091,7 +8232,7 @@
         <v>45299</v>
       </c>
       <c r="B2" s="123" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1">
@@ -8099,7 +8240,7 @@
         <v>45376</v>
       </c>
       <c r="B3" s="123" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1">
@@ -8107,7 +8248,7 @@
         <v>45379</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" customHeight="1">
@@ -8115,7 +8256,7 @@
         <v>45380</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" customHeight="1">
@@ -8123,7 +8264,7 @@
         <v>45413</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" customHeight="1">
@@ -8131,7 +8272,7 @@
         <v>45425</v>
       </c>
       <c r="B7" s="123" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" customHeight="1">
@@ -8139,7 +8280,7 @@
         <v>45446</v>
       </c>
       <c r="B8" s="123" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" customHeight="1">
@@ -8147,7 +8288,7 @@
         <v>45453</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" customHeight="1">
@@ -8155,7 +8296,7 @@
         <v>45474</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" customHeight="1">
@@ -8163,7 +8304,7 @@
         <v>45493</v>
       </c>
       <c r="B11" s="123" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25" customHeight="1">
@@ -8171,7 +8312,7 @@
         <v>45511</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25" customHeight="1">
@@ -8179,7 +8320,7 @@
         <v>45523</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25" customHeight="1">
@@ -8187,7 +8328,7 @@
         <v>45579</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" customHeight="1">
@@ -8195,7 +8336,7 @@
         <v>45600</v>
       </c>
       <c r="B15" s="123" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25" customHeight="1">
@@ -8203,7 +8344,7 @@
         <v>45607</v>
       </c>
       <c r="B16" s="123" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1">
@@ -8211,7 +8352,7 @@
         <v>45634</v>
       </c>
       <c r="B17" s="123" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1">
@@ -8219,7 +8360,7 @@
         <v>45651</v>
       </c>
       <c r="B18" s="123" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1">
@@ -8227,7 +8368,7 @@
         <v>45658</v>
       </c>
       <c r="B19" s="124" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1">
@@ -8235,7 +8376,7 @@
         <v>45663</v>
       </c>
       <c r="B20" s="124" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1">
@@ -8243,7 +8384,7 @@
         <v>45740</v>
       </c>
       <c r="B21" s="124" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25" customHeight="1">
@@ -8251,7 +8392,7 @@
         <v>45764</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
@@ -8259,7 +8400,7 @@
         <v>45765</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
@@ -8267,7 +8408,7 @@
         <v>45778</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25" customHeight="1">
@@ -8275,7 +8416,7 @@
         <v>45810</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17.25" customHeight="1">
@@ -8283,7 +8424,7 @@
         <v>45831</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17.25" customHeight="1">
@@ -8291,7 +8432,7 @@
         <v>45838</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17.25" customHeight="1">
@@ -8299,7 +8440,7 @@
         <v>45858</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17.25" customHeight="1">
@@ -8307,7 +8448,7 @@
         <v>45876</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17.25" customHeight="1">
@@ -8315,7 +8456,7 @@
         <v>45887</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17.25" customHeight="1">
@@ -8323,7 +8464,7 @@
         <v>45943</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17.25" customHeight="1">
@@ -8331,7 +8472,7 @@
         <v>45964</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17.25" customHeight="1">
@@ -8339,7 +8480,7 @@
         <v>45978</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17.25" customHeight="1">
@@ -8347,7 +8488,7 @@
         <v>45999</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17.25" customHeight="1">
@@ -8355,7 +8496,7 @@
         <v>46016</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17.25" customHeight="1">
@@ -8363,7 +8504,7 @@
         <v>46023</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17.25" customHeight="1">
@@ -8371,7 +8512,7 @@
         <v>46034</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17.25" customHeight="1">
@@ -8379,7 +8520,7 @@
         <v>46104</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17.25" customHeight="1">
@@ -8387,7 +8528,7 @@
         <v>46114</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17.25" customHeight="1">
@@ -8395,7 +8536,7 @@
         <v>46115</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17.25" customHeight="1">
@@ -8403,7 +8544,7 @@
         <v>46143</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17.25" customHeight="1">
@@ -8411,7 +8552,7 @@
         <v>46160</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17.25" customHeight="1">
@@ -8419,7 +8560,7 @@
         <v>46181</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="17.25" customHeight="1">
@@ -8427,7 +8568,7 @@
         <v>46188</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="17.25" customHeight="1">
@@ -8435,7 +8576,7 @@
         <v>46202</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="17.25" customHeight="1">
@@ -8443,7 +8584,7 @@
         <v>46223</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="17.25" customHeight="1">
@@ -8451,7 +8592,7 @@
         <v>46241</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="17.25" customHeight="1">
@@ -8459,7 +8600,7 @@
         <v>46251</v>
       </c>
       <c r="B48" s="124" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="17.25" customHeight="1">
@@ -8467,7 +8608,7 @@
         <v>46307</v>
       </c>
       <c r="B49" s="124" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17.25" customHeight="1">
@@ -8475,7 +8616,7 @@
         <v>46328</v>
       </c>
       <c r="B50" s="124" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="17.25" customHeight="1">
@@ -8483,7 +8624,7 @@
         <v>46342</v>
       </c>
       <c r="B51" s="124" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17.25" customHeight="1">
@@ -8491,7 +8632,7 @@
         <v>46364</v>
       </c>
       <c r="B52" s="124" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17.25" customHeight="1">
@@ -8499,7 +8640,7 @@
         <v>46381</v>
       </c>
       <c r="B53" s="124" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17.25" customHeight="1"/>
@@ -9476,7 +9617,7 @@
   <sheetData>
     <row r="1" spans="1:97" ht="15.75">
       <c r="A1" s="125" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B1" s="126"/>
       <c r="C1" s="126"/>
@@ -9534,7 +9675,7 @@
     </row>
     <row r="3" spans="1:97" ht="32.25" customHeight="1">
       <c r="A3" s="127" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B3" s="128">
         <v>45596</v>
@@ -9827,261 +9968,261 @@
     </row>
     <row r="4" spans="1:97" ht="30.75" customHeight="1">
       <c r="A4" s="131" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B4" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C4" s="133" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O4" s="134" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P4" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="T4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="U4" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="V4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE4" s="160" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AF4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL4" s="160" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AM4" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AN4" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AO4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP4" s="160" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AQ4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS4" s="160" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AT4" s="136" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AV4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY4" s="160" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="AZ4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BA4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI4" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ4" s="160" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BK4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BL4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BM4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BN4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BO4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BP4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BQ4" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BR4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CA4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CB4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CC4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CD4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG4" s="134"/>
       <c r="CH4" s="134"/>
       <c r="CI4" s="160" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="CJ4" s="134"/>
       <c r="CK4" s="134"/>
@@ -10093,249 +10234,249 @@
       <c r="CQ4" s="134"/>
       <c r="CR4" s="134"/>
       <c r="CS4" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:97" ht="15.75" customHeight="1">
       <c r="A5" s="131" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="O5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="P5" s="135" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="T5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="U5" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="V5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE5" s="161"/>
       <c r="AF5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL5" s="161"/>
       <c r="AM5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AN5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AO5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP5" s="161"/>
       <c r="AQ5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AR5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AS5" s="161"/>
       <c r="AT5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AU5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AV5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AW5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AX5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AY5" s="161"/>
       <c r="AZ5" s="134" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BA5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI5" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ5" s="161"/>
       <c r="BK5" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL5" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN5" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BP5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BQ5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CA5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CB5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CC5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CD5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG5" s="134"/>
       <c r="CH5" s="134"/>
@@ -10350,249 +10491,249 @@
       <c r="CQ5" s="134"/>
       <c r="CR5" s="134"/>
       <c r="CS5" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:97" ht="15.75">
       <c r="A6" s="131" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="132" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="I6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="J6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="K6" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="M6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="N6" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="O6" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="132" t="s">
-        <v>336</v>
-      </c>
-      <c r="C6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="G6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="H6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="I6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="J6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="K6" s="137" t="s">
-        <v>347</v>
-      </c>
-      <c r="L6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="M6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="N6" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="O6" s="134" t="s">
-        <v>338</v>
-      </c>
       <c r="P6" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="T6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="U6" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="V6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE6" s="161"/>
       <c r="AF6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL6" s="161"/>
       <c r="AM6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AN6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AO6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP6" s="161"/>
       <c r="AQ6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS6" s="161"/>
       <c r="AT6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AV6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY6" s="161"/>
       <c r="AZ6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BA6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI6" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ6" s="161"/>
       <c r="BK6" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL6" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM6" s="134" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="BN6" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BP6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BQ6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CA6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CB6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CC6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CD6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG6" s="134"/>
       <c r="CH6" s="134"/>
@@ -10607,198 +10748,198 @@
       <c r="CQ6" s="134"/>
       <c r="CR6" s="134"/>
       <c r="CS6" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A7" s="131" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L7" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="M7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="N7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="O7" s="134" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="135" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="R7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="S7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="T7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="U7" s="135" t="s">
+        <v>358</v>
+      </c>
+      <c r="V7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="W7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="X7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y7" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z7" s="134" t="s">
         <v>347</v>
       </c>
-      <c r="M7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="N7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="O7" s="134" t="s">
-        <v>338</v>
-      </c>
-      <c r="P7" s="135" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="R7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="S7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="T7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="U7" s="135" t="s">
-        <v>350</v>
-      </c>
-      <c r="V7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="W7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="X7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y7" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="Z7" s="134" t="s">
-        <v>339</v>
-      </c>
       <c r="AA7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE7" s="161"/>
       <c r="AF7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL7" s="161"/>
       <c r="AM7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AN7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AO7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP7" s="161"/>
       <c r="AQ7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS7" s="161"/>
       <c r="AT7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU7" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AV7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY7" s="161"/>
       <c r="AZ7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BA7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI7" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ7" s="161"/>
       <c r="BK7" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL7" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN7" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO7" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BP7" s="134"/>
       <c r="BQ7" s="134"/>
@@ -10806,16 +10947,16 @@
       <c r="BS7" s="134"/>
       <c r="BT7" s="134"/>
       <c r="BU7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX7" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY7" s="134"/>
       <c r="BZ7" s="134"/>
@@ -10841,220 +10982,220 @@
     </row>
     <row r="8" spans="1:97" ht="15.75" hidden="1" customHeight="1">
       <c r="A8" s="131" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L8" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O8" s="134" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P8" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="T8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="U8" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="V8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W8" s="134" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="X8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB8" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AC8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE8" s="161"/>
       <c r="AF8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL8" s="161"/>
       <c r="AM8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AN8" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AO8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP8" s="161"/>
       <c r="AQ8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS8" s="161"/>
       <c r="AT8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AV8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY8" s="161"/>
       <c r="AZ8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BA8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG8" s="134" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="BH8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI8" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ8" s="161"/>
       <c r="BK8" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL8" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN8" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BP8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BQ8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW8" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX8" s="134" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="BY8" s="134"/>
       <c r="BZ8" s="134"/>
@@ -11080,244 +11221,244 @@
     </row>
     <row r="9" spans="1:97" ht="15.75">
       <c r="A9" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="132" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="K9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="L9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="M9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="N9" s="134" t="s">
+        <v>344</v>
+      </c>
+      <c r="O9" s="137" t="s">
         <v>355</v>
       </c>
-      <c r="B9" s="132" t="s">
-        <v>336</v>
-      </c>
-      <c r="C9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="E9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="G9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="I9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="J9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="K9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="L9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="M9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="N9" s="134" t="s">
-        <v>336</v>
-      </c>
-      <c r="O9" s="137" t="s">
-        <v>347</v>
-      </c>
       <c r="P9" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="T9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="U9" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="V9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE9" s="161"/>
       <c r="AF9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL9" s="161"/>
       <c r="AM9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AN9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AO9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP9" s="161"/>
       <c r="AQ9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS9" s="161"/>
       <c r="AT9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AV9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY9" s="161"/>
       <c r="AZ9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BA9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI9" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ9" s="161"/>
       <c r="BK9" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL9" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN9" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BP9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BQ9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CA9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CB9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CC9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CD9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG9" s="134"/>
       <c r="CH9" s="134"/>
@@ -11332,249 +11473,249 @@
       <c r="CQ9" s="134"/>
       <c r="CR9" s="134"/>
       <c r="CS9" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:97" ht="15.75">
       <c r="A10" s="131" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B10" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O10" s="134" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P10" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="R10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="T10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="U10" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="V10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE10" s="161"/>
       <c r="AF10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AL10" s="161"/>
       <c r="AM10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AN10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AO10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP10" s="161"/>
       <c r="AQ10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS10" s="161"/>
       <c r="AT10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AV10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY10" s="161"/>
       <c r="AZ10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BA10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BB10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BC10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BD10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BE10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BF10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BG10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BH10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI10" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ10" s="161"/>
       <c r="BK10" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL10" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN10" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BP10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BQ10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW10" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BX10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CA10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CB10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CC10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CD10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG10" s="134"/>
       <c r="CH10" s="134"/>
@@ -11589,249 +11730,249 @@
       <c r="CQ10" s="134"/>
       <c r="CR10" s="134"/>
       <c r="CS10" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:97" ht="15.75">
       <c r="A11" s="131" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="J11" s="134" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="K11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O11" s="134" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P11" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="R11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="S11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="T11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="U11" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="V11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Y11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Z11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AB11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AC11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AE11" s="161"/>
       <c r="AF11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AG11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AH11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AI11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL11" s="161"/>
       <c r="AM11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AN11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AO11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AP11" s="161"/>
       <c r="AQ11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AR11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AS11" s="161"/>
       <c r="AT11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AU11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AV11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AW11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AY11" s="161"/>
       <c r="AZ11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BA11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BB11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BC11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BE11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BF11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BG11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BH11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI11" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BJ11" s="161"/>
       <c r="BK11" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BL11" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BM11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN11" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BO11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BP11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BQ11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR11" s="134" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="BS11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BT11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BU11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BX11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BY11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CA11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CB11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CC11" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CD11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG11" s="134"/>
       <c r="CH11" s="134"/>
@@ -11846,249 +11987,249 @@
       <c r="CQ11" s="134"/>
       <c r="CR11" s="134"/>
       <c r="CS11" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:97" ht="15.75">
       <c r="A12" s="131" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B12" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="I12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="N12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O12" s="134" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P12" s="135" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="R12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="S12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="T12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="U12" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="V12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="W12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="X12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Y12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Z12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AA12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AB12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AC12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AE12" s="161"/>
       <c r="AF12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AG12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AH12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AI12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AJ12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AK12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AL12" s="161"/>
       <c r="AM12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AN12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AO12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AP12" s="161"/>
       <c r="AQ12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AR12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AS12" s="161"/>
       <c r="AT12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AU12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AV12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AW12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AX12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AY12" s="161"/>
       <c r="AZ12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BA12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BB12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BC12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BD12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BE12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BF12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BG12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BH12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BI12" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BJ12" s="161"/>
       <c r="BK12" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BL12" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BM12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BN12" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BO12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BP12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BQ12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BR12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BS12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BT12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BU12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BV12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BW12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BX12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BY12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BZ12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CA12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CB12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CC12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CD12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CE12" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CG12" s="134"/>
       <c r="CH12" s="134"/>
@@ -12103,249 +12244,249 @@
       <c r="CQ12" s="134"/>
       <c r="CR12" s="134"/>
       <c r="CS12" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:97" ht="15.75">
       <c r="A13" s="131" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B13" s="132" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="H13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="L13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="O13" s="134" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P13" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="R13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="S13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="T13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="U13" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="V13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="W13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="X13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Y13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Z13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AA13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AB13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AC13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AD13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AE13" s="162"/>
       <c r="AF13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AG13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AH13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AI13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AJ13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AK13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AL13" s="162"/>
       <c r="AM13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AN13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AO13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AP13" s="162"/>
       <c r="AQ13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AR13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AS13" s="162"/>
       <c r="AT13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AU13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AV13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AW13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AX13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="AY13" s="162"/>
       <c r="AZ13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BA13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BB13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BC13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BD13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BE13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BF13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BG13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BH13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BI13" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BJ13" s="162"/>
       <c r="BK13" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BL13" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BM13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BN13" s="135" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BO13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BP13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BQ13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BR13" s="134" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="BS13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BT13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BU13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BV13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BW13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BX13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BY13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BZ13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CA13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CB13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CC13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="CD13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CE13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CF13" s="134" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="CG13" s="134"/>
       <c r="CH13" s="134"/>
@@ -12360,7 +12501,7 @@
       <c r="CQ13" s="134"/>
       <c r="CR13" s="134"/>
       <c r="CS13" s="134" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -13382,7 +13523,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="25.5">
       <c r="A1" s="138" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B1" s="138" t="s">
         <v>2</v>
@@ -13406,16 +13547,16 @@
         <v>11</v>
       </c>
       <c r="I1" s="141" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="J1" s="142" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="K1" s="143" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="L1" s="141" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="M1" s="144"/>
       <c r="N1" s="144"/>
@@ -13434,10 +13575,10 @@
     </row>
     <row r="2" spans="1:26" ht="38.25">
       <c r="A2" s="145" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147" t="s">
@@ -13464,7 +13605,7 @@
       </c>
       <c r="K2" s="150"/>
       <c r="L2" s="151" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="M2" s="144"/>
       <c r="N2" s="144"/>
@@ -13483,16 +13624,16 @@
     </row>
     <row r="3" spans="1:26" ht="51">
       <c r="A3" s="145" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B3" s="163" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C3" s="152" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D3" s="147" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E3" s="148">
         <v>45575</v>
@@ -13511,7 +13652,7 @@
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="151" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="M3" s="153"/>
       <c r="N3" s="144"/>
@@ -13530,14 +13671,14 @@
     </row>
     <row r="4" spans="1:26" ht="51">
       <c r="A4" s="145" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B4" s="161"/>
       <c r="C4" s="154" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D4" s="147" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E4" s="148">
         <v>45575</v>
@@ -13556,7 +13697,7 @@
       </c>
       <c r="K4" s="155"/>
       <c r="L4" s="158" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M4" s="153"/>
       <c r="N4" s="144"/>
@@ -13575,16 +13716,16 @@
     </row>
     <row r="5" spans="1:26" ht="51">
       <c r="A5" s="145" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B5" s="141" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C5" s="147" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D5" s="147" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="E5" s="148">
         <v>45575</v>
@@ -13603,7 +13744,7 @@
       </c>
       <c r="K5" s="148"/>
       <c r="L5" s="151" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M5" s="153"/>
       <c r="N5" s="144"/>
